--- a/N-charge vs aux.xlsx
+++ b/N-charge vs aux.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitSource-Batteries\Batteries-long-optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88892420-5F99-49C8-AE49-426BEA4994CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE61BED3-B99D-43A4-ADC1-3A761130CBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{07A2B37E-C981-48DC-B40F-DAC0293FFA96}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="3" xr2:uid="{07A2B37E-C981-48DC-B40F-DAC0293FFA96}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pcharging_constant_step" sheetId="1" r:id="rId1"/>
-    <sheet name="Pcharging_variable_step" sheetId="3" r:id="rId2"/>
-    <sheet name="Pdischarging_constant_step " sheetId="4" r:id="rId3"/>
-    <sheet name="Pdischarging_variable_step " sheetId="5" r:id="rId4"/>
+    <sheet name="Formulazione con potenza" sheetId="6" r:id="rId1"/>
+    <sheet name="Pcharging_constant_step" sheetId="1" r:id="rId2"/>
+    <sheet name="Pcharging_variable_step" sheetId="3" r:id="rId3"/>
+    <sheet name="Pdischarging_constant_step " sheetId="4" r:id="rId4"/>
+    <sheet name="Pdischarging_variable_step " sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="22">
   <si>
     <t>SOC(t)</t>
   </si>
@@ -70,15 +71,52 @@
   <si>
     <t>Aux (y0)</t>
   </si>
+  <si>
+    <t>deg_max</t>
+  </si>
+  <si>
+    <t>P_max</t>
+  </si>
+  <si>
+    <t>Eff_Charge</t>
+  </si>
+  <si>
+    <t>Eff_discharge</t>
+  </si>
+  <si>
+    <t>deg_1</t>
+  </si>
+  <si>
+    <t>deg_2</t>
+  </si>
+  <si>
+    <t>deg_3</t>
+  </si>
+  <si>
+    <t>deg_4</t>
+  </si>
+  <si>
+    <t>deg_5</t>
+  </si>
+  <si>
+    <t>Pdis/0.9*Aux(t)</t>
+  </si>
+  <si>
+    <t>P_aux_dis</t>
+  </si>
+  <si>
+    <t>Paux/0.9*Aux(t)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,8 +132,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,8 +182,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -147,11 +197,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -191,17 +321,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -212,6 +336,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -221,9 +354,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -580,6 +740,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B826F360-86F8-4AA7-BCA3-E58DF25AEE21}">
+  <dimension ref="B1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <f>(C1/C2)^0.5</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <f>E5+$C$6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" ref="G5:I5" si="0">F5+$C$6</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>C5/4</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9177CA5-D239-417F-82F5-6C8385A6E9BF}">
   <dimension ref="A1:AB61"/>
   <sheetViews>
@@ -617,32 +876,32 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="R3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
+      <c r="C3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="R3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -1601,20 +1860,20 @@
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C20" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="J20" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
+      <c r="C20" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="J20" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
@@ -2021,23 +2280,23 @@
         <v>17.2</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
+      <c r="J30" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
       <c r="P30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q30" s="24" t="s">
+      <c r="Q30" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
@@ -2249,13 +2508,13 @@
       <c r="U34" s="1"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C35" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
+      <c r="C35" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
       <c r="I35" s="4">
         <v>6</v>
       </c>
@@ -2655,13 +2914,13 @@
       <c r="B50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="4">
@@ -2851,16 +3110,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="R3:AB3"/>
+    <mergeCell ref="P5:P15"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="C3:M3"/>
     <mergeCell ref="A5:A15"/>
     <mergeCell ref="J30:N30"/>
     <mergeCell ref="Q30:U30"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C50:G50"/>
-    <mergeCell ref="R3:AB3"/>
-    <mergeCell ref="P5:P15"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="C3:M3"/>
   </mergeCells>
   <conditionalFormatting sqref="C22:G32">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="between">
@@ -2885,11 +3144,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3DD0D8-697F-4A3B-B764-5C807B53AF64}">
   <dimension ref="A1:AA57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5:P5"/>
     </sheetView>
   </sheetViews>
@@ -2907,35 +3166,35 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C3" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="H3">
         <f>(10-B5*1*0.9)/4</f>
         <v>2.5</v>
       </c>
-      <c r="L3" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
+      <c r="L3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -3041,24 +3300,24 @@
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="C7" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="1">
         <f>(10-1*1*0.9)/4</f>
         <v>2.2749999999999999</v>
       </c>
-      <c r="L7" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
+      <c r="L7" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -3195,13 +3454,13 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
+      <c r="C11" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="1">
         <f>(10-B13*1*0.9)/4</f>
         <v>2.0499999999999998</v>
@@ -3209,13 +3468,13 @@
       <c r="I11" s="1"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
+      <c r="L11" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -3353,13 +3612,13 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
-      <c r="C15" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="C15" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="1">
         <f>(10-B17*1*0.9)/4</f>
         <v>1.825</v>
@@ -3367,13 +3626,13 @@
       <c r="I15" s="1"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
+      <c r="L15" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -3510,13 +3769,13 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
-      <c r="C19" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="C19" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="1">
         <f>(10-B21*1*0.9)/4</f>
         <v>1.6</v>
@@ -3524,13 +3783,13 @@
       <c r="I19" s="1"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
+      <c r="L19" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -3668,13 +3927,13 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
-      <c r="C23" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="C23" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="1">
         <f>(10-B25*1*0.9)/4</f>
         <v>1.375</v>
@@ -3682,13 +3941,13 @@
       <c r="I23" s="1"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
+      <c r="L23" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -3818,21 +4077,21 @@
       <c r="M26" s="12"/>
       <c r="N26" s="1"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
-      <c r="C27" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
+      <c r="C27" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="1">
         <f>(10-B29*1*0.9)/4</f>
         <v>1.1499999999999999</v>
@@ -3840,13 +4099,13 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
+      <c r="L27" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
@@ -3983,13 +4242,13 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C31" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
+      <c r="C31" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="1">
         <f>(10-B33*1*0.9)/4</f>
         <v>0.92500000000000004</v>
@@ -3997,13 +4256,13 @@
       <c r="I31" s="1"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
+      <c r="L31" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -4141,13 +4400,13 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
-      <c r="C35" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
+      <c r="C35" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
       <c r="H35" s="1">
         <f>(10-B37*1*0.9)/4</f>
         <v>0.7</v>
@@ -4155,13 +4414,13 @@
       <c r="I35" s="1"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
+      <c r="L35" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -4299,13 +4558,13 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
-      <c r="C39" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
+      <c r="C39" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
       <c r="H39" s="1">
         <f>(10-B41*1*0.9)/4</f>
         <v>0.47500000000000009</v>
@@ -4313,13 +4572,13 @@
       <c r="I39" s="1"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
+      <c r="L39" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -4455,13 +4714,13 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
-      <c r="C43" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
+      <c r="C43" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
       <c r="H43">
         <f>(10-B45*1*0.9)/4</f>
         <v>0.25</v>
@@ -4469,13 +4728,13 @@
       <c r="I43" s="1"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
+      <c r="L43" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -4625,6 +4884,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C23:G23"/>
     <mergeCell ref="C43:G43"/>
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="L7:P7"/>
@@ -4641,26 +4908,18 @@
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="Q3:AA3"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145322F6-4020-4BBA-9C6E-7E31B08FA980}">
-  <dimension ref="A1:AB62"/>
+  <dimension ref="A1:AP62"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30:U36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4670,9 +4929,14 @@
     <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="27" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="34" width="11" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>3</v>
       </c>
@@ -4686,7 +4950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -4699,35 +4963,48 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="R3" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="C3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="R3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AF3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -4737,31 +5014,31 @@
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="31">
         <v>2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="32">
         <v>3</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="32">
         <v>4</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="32">
         <v>5</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="32">
         <v>6</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="32">
         <v>7</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="32">
         <v>8</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="32">
         <v>9</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4" s="33">
         <v>10</v>
       </c>
       <c r="Q4" s="7" t="s">
@@ -4773,35 +5050,38 @@
       <c r="S4">
         <v>1</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="43">
         <v>2</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="44">
         <v>3</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="44">
         <v>4</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="44">
         <v>5</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="44">
         <v>6</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="44">
         <v>7</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="44">
         <v>8</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="44">
         <v>9</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="45">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
@@ -4816,39 +5096,39 @@
         <f>D4-1*$B5/0.9</f>
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="34">
         <f t="shared" ref="E5:M5" si="0">E4-1*$B5/0.9</f>
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="35">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="35">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="35">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="35">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="35">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="35">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="36">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -4858,52 +5138,100 @@
       <c r="Q5" s="7">
         <v>0</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="30">
         <f>2-(C5+C$4)/($D$1)</f>
         <v>2</v>
       </c>
       <c r="S5">
-        <f t="shared" ref="S5:AB5" si="1">2-(D5+D$4)/($D$1)</f>
+        <f>2-(D5+D$4)/($D$1)</f>
         <v>1.8</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="34">
+        <f>(E5+E$4)/($D$1)</f>
+        <v>0.4</v>
+      </c>
+      <c r="U5" s="34">
+        <f t="shared" ref="U5:AB12" si="1">(F5+F$4)/($D$1)</f>
+        <v>0.6</v>
+      </c>
+      <c r="V5" s="34">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="W5" s="34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="X5" s="34">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="Y5" s="34">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="Z5" s="34">
         <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
-      <c r="U5">
+      <c r="AA5" s="34">
         <f t="shared" si="1"/>
-        <v>1.4</v>
-      </c>
-      <c r="V5">
+        <v>1.8</v>
+      </c>
+      <c r="AB5" s="34">
         <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="1"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="1"/>
-        <v>0.39999999999999991</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="1"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="AD5">
+        <f>Q5/10/0.9</f>
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <f>R5/0.9*($Q5/0.9)</f>
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" ref="AG5:AP5" si="2">S5/0.9*($Q5/0.9)</f>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AI5" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AK5" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AM5" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AN5" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AP5" s="45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="3">
         <v>1</v>
@@ -4913,42 +5241,42 @@
         <v>-1.1111111111111112</v>
       </c>
       <c r="D6" s="16">
-        <f t="shared" ref="D6:M15" si="2">D$4-1*$B6/0.9</f>
+        <f t="shared" ref="D6:M15" si="3">D$4-1*$B6/0.9</f>
         <v>-0.11111111111111116</v>
       </c>
-      <c r="E6" s="16">
-        <f t="shared" si="2"/>
+      <c r="E6" s="37">
+        <f t="shared" si="3"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="F6" s="16">
-        <f t="shared" si="2"/>
+      <c r="F6" s="38">
+        <f t="shared" si="3"/>
         <v>1.8888888888888888</v>
       </c>
-      <c r="G6" s="16">
-        <f t="shared" si="2"/>
+      <c r="G6" s="38">
+        <f t="shared" si="3"/>
         <v>2.8888888888888888</v>
       </c>
-      <c r="H6" s="16">
-        <f t="shared" si="2"/>
+      <c r="H6" s="38">
+        <f t="shared" si="3"/>
         <v>3.8888888888888888</v>
       </c>
-      <c r="I6" s="16">
-        <f t="shared" si="2"/>
+      <c r="I6" s="38">
+        <f t="shared" si="3"/>
         <v>4.8888888888888893</v>
       </c>
-      <c r="J6" s="16">
-        <f t="shared" si="2"/>
+      <c r="J6" s="38">
+        <f t="shared" si="3"/>
         <v>5.8888888888888893</v>
       </c>
-      <c r="K6" s="16">
-        <f t="shared" si="2"/>
+      <c r="K6" s="38">
+        <f t="shared" si="3"/>
         <v>6.8888888888888893</v>
       </c>
-      <c r="L6" s="16">
-        <f t="shared" si="2"/>
+      <c r="L6" s="38">
+        <f t="shared" si="3"/>
         <v>7.8888888888888893</v>
       </c>
-      <c r="M6" s="16">
+      <c r="M6" s="39">
         <f>M$4-1*$B6/0.9</f>
         <v>8.8888888888888893</v>
       </c>
@@ -4956,44 +5284,84 @@
       <c r="Q6" s="7">
         <v>1</v>
       </c>
-      <c r="T6">
-        <f t="shared" ref="T6" si="3">2-(E6+E$4)/($D$1)</f>
-        <v>1.7111111111111112</v>
-      </c>
-      <c r="U6">
-        <f t="shared" ref="U6:U7" si="4">2-(F6+F$4)/($D$1)</f>
-        <v>1.5111111111111111</v>
-      </c>
-      <c r="V6">
-        <f t="shared" ref="V6:V8" si="5">2-(G6+G$4)/($D$1)</f>
-        <v>1.3111111111111111</v>
-      </c>
-      <c r="W6">
-        <f t="shared" ref="W6:W9" si="6">2-(H6+H$4)/($D$1)</f>
-        <v>1.1111111111111112</v>
-      </c>
-      <c r="X6">
-        <f t="shared" ref="X6:X10" si="7">2-(I6+I$4)/($D$1)</f>
-        <v>0.91111111111111098</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" ref="Y6:Y11" si="8">2-(J6+J$4)/($D$1)</f>
-        <v>0.71111111111111103</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" ref="Z6:Z12" si="9">2-(K6+K$4)/($D$1)</f>
-        <v>0.51111111111111107</v>
-      </c>
-      <c r="AA6">
-        <f t="shared" ref="AA6:AA13" si="10">2-(L6+L$4)/($D$1)</f>
-        <v>0.31111111111111112</v>
-      </c>
-      <c r="AB6">
-        <f t="shared" ref="AB6:AB14" si="11">2-(M6+M$4)/($D$1)</f>
-        <v>0.11111111111111116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T6" s="34">
+        <f>(E6+E$4)/($D$1)</f>
+        <v>0.28888888888888886</v>
+      </c>
+      <c r="U6" s="34">
+        <f t="shared" si="1"/>
+        <v>0.48888888888888893</v>
+      </c>
+      <c r="V6" s="34">
+        <f t="shared" si="1"/>
+        <v>0.68888888888888888</v>
+      </c>
+      <c r="W6" s="34">
+        <f t="shared" si="1"/>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="X6" s="34">
+        <f t="shared" si="1"/>
+        <v>1.088888888888889</v>
+      </c>
+      <c r="Y6" s="34">
+        <f t="shared" si="1"/>
+        <v>1.288888888888889</v>
+      </c>
+      <c r="Z6" s="34">
+        <f t="shared" si="1"/>
+        <v>1.4888888888888889</v>
+      </c>
+      <c r="AA6" s="34">
+        <f t="shared" si="1"/>
+        <v>1.6888888888888889</v>
+      </c>
+      <c r="AB6" s="34">
+        <f t="shared" si="1"/>
+        <v>1.8888888888888888</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" ref="AD6:AD15" si="4">Q6/10/0.9</f>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="AH6" s="34">
+        <f>T6/0.9*($Q6/0.9)</f>
+        <v>0.35665294924554186</v>
+      </c>
+      <c r="AI6" s="35">
+        <f t="shared" ref="AI6" si="5">U6/0.9*($Q6/0.9)</f>
+        <v>0.60356652949245548</v>
+      </c>
+      <c r="AJ6" s="35">
+        <f t="shared" ref="AJ6" si="6">V6/0.9*($Q6/0.9)</f>
+        <v>0.85048010973936894</v>
+      </c>
+      <c r="AK6" s="35">
+        <f t="shared" ref="AK6" si="7">W6/0.9*($Q6/0.9)</f>
+        <v>1.0973936899862826</v>
+      </c>
+      <c r="AL6" s="35">
+        <f t="shared" ref="AL6" si="8">X6/0.9*($Q6/0.9)</f>
+        <v>1.3443072702331962</v>
+      </c>
+      <c r="AM6" s="35">
+        <f t="shared" ref="AM6" si="9">Y6/0.9*($Q6/0.9)</f>
+        <v>1.59122085048011</v>
+      </c>
+      <c r="AN6" s="35">
+        <f t="shared" ref="AN6" si="10">Z6/0.9*($Q6/0.9)</f>
+        <v>1.8381344307270233</v>
+      </c>
+      <c r="AO6" s="35">
+        <f t="shared" ref="AO6" si="11">AA6/0.9*($Q6/0.9)</f>
+        <v>2.0850480109739369</v>
+      </c>
+      <c r="AP6" s="36">
+        <f t="shared" ref="AP6" si="12">AB6/0.9*($Q6/0.9)</f>
+        <v>2.3319615912208507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="20"/>
       <c r="B7" s="3">
         <v>2</v>
@@ -5003,387 +5371,557 @@
         <v>-2.2222222222222223</v>
       </c>
       <c r="D7" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.2222222222222223</v>
       </c>
-      <c r="E7" s="16">
-        <f t="shared" si="2"/>
+      <c r="E7" s="37">
+        <f t="shared" si="3"/>
         <v>-0.22222222222222232</v>
       </c>
-      <c r="F7" s="16">
-        <f t="shared" si="2"/>
+      <c r="F7" s="38">
+        <f t="shared" si="3"/>
         <v>0.77777777777777768</v>
       </c>
-      <c r="G7" s="16">
-        <f t="shared" si="2"/>
+      <c r="G7" s="38">
+        <f t="shared" si="3"/>
         <v>1.7777777777777777</v>
       </c>
-      <c r="H7" s="16">
-        <f t="shared" si="2"/>
+      <c r="H7" s="38">
+        <f t="shared" si="3"/>
         <v>2.7777777777777777</v>
       </c>
-      <c r="I7" s="16">
-        <f t="shared" si="2"/>
+      <c r="I7" s="38">
+        <f t="shared" si="3"/>
         <v>3.7777777777777777</v>
       </c>
-      <c r="J7" s="16">
-        <f t="shared" si="2"/>
+      <c r="J7" s="38">
+        <f t="shared" si="3"/>
         <v>4.7777777777777777</v>
       </c>
-      <c r="K7" s="16">
-        <f t="shared" si="2"/>
+      <c r="K7" s="38">
+        <f t="shared" si="3"/>
         <v>5.7777777777777777</v>
       </c>
-      <c r="L7" s="16">
-        <f t="shared" si="2"/>
+      <c r="L7" s="38">
+        <f t="shared" si="3"/>
         <v>6.7777777777777777</v>
       </c>
-      <c r="M7" s="16">
-        <f t="shared" si="2"/>
+      <c r="M7" s="39">
+        <f t="shared" si="3"/>
         <v>7.7777777777777777</v>
       </c>
       <c r="P7" s="20"/>
       <c r="Q7" s="7">
         <v>2</v>
       </c>
-      <c r="U7">
+      <c r="T7" s="34"/>
+      <c r="U7" s="35">
+        <f>(F7+F$4)/($D$1)</f>
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="V7" s="35">
+        <f t="shared" si="1"/>
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="W7" s="35">
+        <f t="shared" si="1"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="X7" s="35">
+        <f t="shared" si="1"/>
+        <v>0.97777777777777786</v>
+      </c>
+      <c r="Y7" s="35">
+        <f t="shared" si="1"/>
+        <v>1.1777777777777778</v>
+      </c>
+      <c r="Z7" s="35">
+        <f t="shared" si="1"/>
+        <v>1.3777777777777778</v>
+      </c>
+      <c r="AA7" s="35">
+        <f t="shared" si="1"/>
+        <v>1.5777777777777779</v>
+      </c>
+      <c r="AB7" s="35">
+        <f t="shared" si="1"/>
+        <v>1.7777777777777779</v>
+      </c>
+      <c r="AD7">
         <f t="shared" si="4"/>
-        <v>1.6222222222222222</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="5"/>
-        <v>1.4222222222222223</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="6"/>
-        <v>1.2222222222222223</v>
-      </c>
-      <c r="X7">
-        <f t="shared" si="7"/>
-        <v>1.0222222222222221</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="8"/>
-        <v>0.82222222222222219</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="9"/>
-        <v>0.62222222222222223</v>
-      </c>
-      <c r="AA7">
-        <f t="shared" si="10"/>
-        <v>0.42222222222222205</v>
-      </c>
-      <c r="AB7">
-        <f t="shared" si="11"/>
-        <v>0.2222222222222221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+        <v>0.22222222222222224</v>
+      </c>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="35">
+        <f t="shared" ref="AI7" si="13">U7/0.9*($Q7/0.9)</f>
+        <v>0.9327846364883402</v>
+      </c>
+      <c r="AJ7" s="35">
+        <f t="shared" ref="AJ7:AJ8" si="14">V7/0.9*($Q7/0.9)</f>
+        <v>1.4266117969821674</v>
+      </c>
+      <c r="AK7" s="35">
+        <f t="shared" ref="AK7:AK9" si="15">W7/0.9*($Q7/0.9)</f>
+        <v>1.9204389574759946</v>
+      </c>
+      <c r="AL7" s="35">
+        <f t="shared" ref="AL7:AL10" si="16">X7/0.9*($Q7/0.9)</f>
+        <v>2.4142661179698219</v>
+      </c>
+      <c r="AM7" s="35">
+        <f t="shared" ref="AM7:AM11" si="17">Y7/0.9*($Q7/0.9)</f>
+        <v>2.9080932784636491</v>
+      </c>
+      <c r="AN7" s="35">
+        <f t="shared" ref="AN7:AN12" si="18">Z7/0.9*($Q7/0.9)</f>
+        <v>3.4019204389574758</v>
+      </c>
+      <c r="AO7" s="35">
+        <f t="shared" ref="AO7:AO13" si="19">AA7/0.9*($Q7/0.9)</f>
+        <v>3.8957475994513038</v>
+      </c>
+      <c r="AP7" s="36">
+        <f t="shared" ref="AP7:AP13" si="20">AB7/0.9*($Q7/0.9)</f>
+        <v>4.3895747599451305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="20"/>
       <c r="B8" s="3">
         <v>3</v>
       </c>
       <c r="C8" s="16">
-        <f t="shared" ref="C8:C14" si="12">C$4-1*$B8/0.9</f>
+        <f t="shared" ref="C8:C14" si="21">C$4-1*$B8/0.9</f>
         <v>-3.333333333333333</v>
       </c>
       <c r="D8" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.333333333333333</v>
       </c>
-      <c r="E8" s="16">
-        <f t="shared" si="2"/>
+      <c r="E8" s="37">
+        <f t="shared" si="3"/>
         <v>-1.333333333333333</v>
       </c>
-      <c r="F8" s="16">
-        <f t="shared" si="2"/>
+      <c r="F8" s="38">
+        <f t="shared" si="3"/>
         <v>-0.33333333333333304</v>
       </c>
-      <c r="G8" s="16">
-        <f t="shared" si="2"/>
+      <c r="G8" s="38">
+        <f t="shared" si="3"/>
         <v>0.66666666666666696</v>
       </c>
-      <c r="H8" s="16">
-        <f t="shared" si="2"/>
+      <c r="H8" s="38">
+        <f t="shared" si="3"/>
         <v>1.666666666666667</v>
       </c>
-      <c r="I8" s="16">
-        <f t="shared" si="2"/>
+      <c r="I8" s="38">
+        <f t="shared" si="3"/>
         <v>2.666666666666667</v>
       </c>
-      <c r="J8" s="16">
-        <f t="shared" si="2"/>
+      <c r="J8" s="38">
+        <f t="shared" si="3"/>
         <v>3.666666666666667</v>
       </c>
-      <c r="K8" s="16">
-        <f t="shared" si="2"/>
+      <c r="K8" s="38">
+        <f t="shared" si="3"/>
         <v>4.666666666666667</v>
       </c>
-      <c r="L8" s="16">
-        <f t="shared" si="2"/>
+      <c r="L8" s="38">
+        <f t="shared" si="3"/>
         <v>5.666666666666667</v>
       </c>
-      <c r="M8" s="16">
-        <f t="shared" si="2"/>
+      <c r="M8" s="39">
+        <f t="shared" si="3"/>
         <v>6.666666666666667</v>
       </c>
       <c r="P8" s="20"/>
       <c r="Q8" s="7">
         <v>3</v>
       </c>
-      <c r="V8">
-        <f t="shared" si="5"/>
-        <v>1.5333333333333332</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="6"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="X8">
-        <f t="shared" si="7"/>
-        <v>1.1333333333333333</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="8"/>
-        <v>0.93333333333333313</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="9"/>
-        <v>0.73333333333333317</v>
-      </c>
-      <c r="AA8">
-        <f t="shared" si="10"/>
-        <v>0.53333333333333321</v>
-      </c>
-      <c r="AB8">
-        <f t="shared" si="11"/>
-        <v>0.33333333333333326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T8" s="34"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35">
+        <f>(G8+G$4)/($D$1)</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="W8" s="35">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="X8" s="35">
+        <f t="shared" si="1"/>
+        <v>0.86666666666666681</v>
+      </c>
+      <c r="Y8" s="35">
+        <f t="shared" si="1"/>
+        <v>1.0666666666666669</v>
+      </c>
+      <c r="Z8" s="35">
+        <f t="shared" si="1"/>
+        <v>1.2666666666666668</v>
+      </c>
+      <c r="AA8" s="35">
+        <f t="shared" si="1"/>
+        <v>1.4666666666666668</v>
+      </c>
+      <c r="AB8" s="35">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="35">
+        <f t="shared" si="14"/>
+        <v>1.7283950617283947</v>
+      </c>
+      <c r="AK8" s="35">
+        <f t="shared" si="15"/>
+        <v>2.4691358024691357</v>
+      </c>
+      <c r="AL8" s="35">
+        <f t="shared" si="16"/>
+        <v>3.209876543209877</v>
+      </c>
+      <c r="AM8" s="35">
+        <f t="shared" si="17"/>
+        <v>3.9506172839506175</v>
+      </c>
+      <c r="AN8" s="35">
+        <f t="shared" si="18"/>
+        <v>4.6913580246913584</v>
+      </c>
+      <c r="AO8" s="35">
+        <f t="shared" si="19"/>
+        <v>5.4320987654320989</v>
+      </c>
+      <c r="AP8" s="36">
+        <f t="shared" si="20"/>
+        <v>6.1728395061728394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="20"/>
       <c r="B9" s="3">
         <v>4</v>
       </c>
       <c r="C9" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>-4.4444444444444446</v>
       </c>
       <c r="D9" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.4444444444444446</v>
       </c>
-      <c r="E9" s="16">
-        <f t="shared" si="2"/>
+      <c r="E9" s="37">
+        <f t="shared" si="3"/>
         <v>-2.4444444444444446</v>
       </c>
-      <c r="F9" s="16">
-        <f t="shared" si="2"/>
+      <c r="F9" s="38">
+        <f t="shared" si="3"/>
         <v>-1.4444444444444446</v>
       </c>
-      <c r="G9" s="16">
-        <f t="shared" si="2"/>
+      <c r="G9" s="38">
+        <f t="shared" si="3"/>
         <v>-0.44444444444444464</v>
       </c>
-      <c r="H9" s="16">
-        <f t="shared" si="2"/>
+      <c r="H9" s="38">
+        <f t="shared" si="3"/>
         <v>0.55555555555555536</v>
       </c>
-      <c r="I9" s="16">
-        <f t="shared" si="2"/>
+      <c r="I9" s="38">
+        <f t="shared" si="3"/>
         <v>1.5555555555555554</v>
       </c>
-      <c r="J9" s="16">
-        <f t="shared" si="2"/>
+      <c r="J9" s="38">
+        <f t="shared" si="3"/>
         <v>2.5555555555555554</v>
       </c>
-      <c r="K9" s="16">
-        <f t="shared" si="2"/>
+      <c r="K9" s="38">
+        <f t="shared" si="3"/>
         <v>3.5555555555555554</v>
       </c>
-      <c r="L9" s="16">
-        <f t="shared" si="2"/>
+      <c r="L9" s="38">
+        <f t="shared" si="3"/>
         <v>4.5555555555555554</v>
       </c>
-      <c r="M9" s="16">
-        <f t="shared" si="2"/>
+      <c r="M9" s="39">
+        <f t="shared" si="3"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="P9" s="20"/>
       <c r="Q9" s="7">
         <v>4</v>
       </c>
-      <c r="W9">
-        <f t="shared" si="6"/>
-        <v>1.4444444444444444</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="7"/>
-        <v>1.2444444444444445</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="8"/>
-        <v>1.0444444444444445</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="9"/>
-        <v>0.84444444444444455</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="10"/>
-        <v>0.64444444444444438</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="11"/>
-        <v>0.44444444444444442</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T9" s="34"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35">
+        <f>(H9+H$4)/($D$1)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="X9" s="35">
+        <f t="shared" si="1"/>
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="Y9" s="35">
+        <f t="shared" si="1"/>
+        <v>0.95555555555555549</v>
+      </c>
+      <c r="Z9" s="35">
+        <f t="shared" si="1"/>
+        <v>1.1555555555555554</v>
+      </c>
+      <c r="AA9" s="35">
+        <f t="shared" si="1"/>
+        <v>1.3555555555555556</v>
+      </c>
+      <c r="AB9" s="35">
+        <f t="shared" si="1"/>
+        <v>1.5555555555555556</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="4"/>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35">
+        <f t="shared" si="15"/>
+        <v>2.7434842249657065</v>
+      </c>
+      <c r="AL9" s="35">
+        <f t="shared" si="16"/>
+        <v>3.7311385459533608</v>
+      </c>
+      <c r="AM9" s="35">
+        <f t="shared" si="17"/>
+        <v>4.7187928669410146</v>
+      </c>
+      <c r="AN9" s="35">
+        <f t="shared" si="18"/>
+        <v>5.7064471879286698</v>
+      </c>
+      <c r="AO9" s="35">
+        <f t="shared" si="19"/>
+        <v>6.6941015089163241</v>
+      </c>
+      <c r="AP9" s="36">
+        <f t="shared" si="20"/>
+        <v>7.6817558299039783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="20"/>
       <c r="B10" s="3">
         <v>5</v>
       </c>
       <c r="C10" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>-5.5555555555555554</v>
       </c>
       <c r="D10" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.5555555555555554</v>
       </c>
-      <c r="E10" s="16">
-        <f t="shared" si="2"/>
+      <c r="E10" s="37">
+        <f t="shared" si="3"/>
         <v>-3.5555555555555554</v>
       </c>
-      <c r="F10" s="16">
-        <f t="shared" si="2"/>
+      <c r="F10" s="38">
+        <f t="shared" si="3"/>
         <v>-2.5555555555555554</v>
       </c>
-      <c r="G10" s="16">
-        <f t="shared" si="2"/>
+      <c r="G10" s="38">
+        <f t="shared" si="3"/>
         <v>-1.5555555555555554</v>
       </c>
-      <c r="H10" s="16">
-        <f t="shared" si="2"/>
+      <c r="H10" s="38">
+        <f t="shared" si="3"/>
         <v>-0.55555555555555536</v>
       </c>
-      <c r="I10" s="16">
-        <f t="shared" si="2"/>
+      <c r="I10" s="38">
+        <f t="shared" si="3"/>
         <v>0.44444444444444464</v>
       </c>
-      <c r="J10" s="16">
-        <f t="shared" si="2"/>
+      <c r="J10" s="38">
+        <f t="shared" si="3"/>
         <v>1.4444444444444446</v>
       </c>
-      <c r="K10" s="16">
-        <f t="shared" si="2"/>
+      <c r="K10" s="38">
+        <f t="shared" si="3"/>
         <v>2.4444444444444446</v>
       </c>
-      <c r="L10" s="16">
-        <f t="shared" si="2"/>
+      <c r="L10" s="38">
+        <f t="shared" si="3"/>
         <v>3.4444444444444446</v>
       </c>
-      <c r="M10" s="16">
-        <f t="shared" si="2"/>
+      <c r="M10" s="39">
+        <f t="shared" si="3"/>
         <v>4.4444444444444446</v>
       </c>
       <c r="P10" s="20"/>
       <c r="Q10" s="7">
         <v>5</v>
       </c>
-      <c r="X10">
-        <f t="shared" si="7"/>
-        <v>1.3555555555555556</v>
-      </c>
-      <c r="Y10">
-        <f t="shared" si="8"/>
-        <v>1.1555555555555554</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" si="9"/>
-        <v>0.95555555555555549</v>
-      </c>
-      <c r="AA10">
-        <f t="shared" si="10"/>
-        <v>0.75555555555555554</v>
-      </c>
-      <c r="AB10">
-        <f t="shared" si="11"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35">
+        <f>(I10+I$4)/($D$1)</f>
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="Y10" s="35">
+        <f t="shared" si="1"/>
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="Z10" s="35">
+        <f t="shared" si="1"/>
+        <v>1.0444444444444445</v>
+      </c>
+      <c r="AA10" s="35">
+        <f t="shared" si="1"/>
+        <v>1.2444444444444445</v>
+      </c>
+      <c r="AB10" s="35">
+        <f t="shared" si="1"/>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="4"/>
         <v>0.55555555555555558</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="35"/>
+      <c r="AJ10" s="35"/>
+      <c r="AK10" s="35"/>
+      <c r="AL10" s="35">
+        <f t="shared" si="16"/>
+        <v>3.9780521262002746</v>
+      </c>
+      <c r="AM10" s="35">
+        <f t="shared" si="17"/>
+        <v>5.2126200274348422</v>
+      </c>
+      <c r="AN10" s="35">
+        <f t="shared" si="18"/>
+        <v>6.4471879286694103</v>
+      </c>
+      <c r="AO10" s="35">
+        <f t="shared" si="19"/>
+        <v>7.6817558299039774</v>
+      </c>
+      <c r="AP10" s="36">
+        <f t="shared" si="20"/>
+        <v>8.9163237311385455</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" s="20"/>
       <c r="B11" s="3">
         <v>6</v>
       </c>
       <c r="C11" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>-6.6666666666666661</v>
       </c>
       <c r="D11" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.6666666666666661</v>
       </c>
-      <c r="E11" s="16">
-        <f t="shared" si="2"/>
+      <c r="E11" s="37">
+        <f t="shared" si="3"/>
         <v>-4.6666666666666661</v>
       </c>
-      <c r="F11" s="16">
-        <f t="shared" si="2"/>
+      <c r="F11" s="38">
+        <f t="shared" si="3"/>
         <v>-3.6666666666666661</v>
       </c>
-      <c r="G11" s="16">
-        <f t="shared" si="2"/>
+      <c r="G11" s="38">
+        <f t="shared" si="3"/>
         <v>-2.6666666666666661</v>
       </c>
-      <c r="H11" s="16">
-        <f t="shared" si="2"/>
+      <c r="H11" s="38">
+        <f t="shared" si="3"/>
         <v>-1.6666666666666661</v>
       </c>
-      <c r="I11" s="16">
-        <f t="shared" si="2"/>
+      <c r="I11" s="38">
+        <f t="shared" si="3"/>
         <v>-0.66666666666666607</v>
       </c>
-      <c r="J11" s="16">
-        <f t="shared" si="2"/>
+      <c r="J11" s="38">
+        <f t="shared" si="3"/>
         <v>0.33333333333333393</v>
       </c>
-      <c r="K11" s="16">
-        <f t="shared" si="2"/>
+      <c r="K11" s="38">
+        <f t="shared" si="3"/>
         <v>1.3333333333333339</v>
       </c>
-      <c r="L11" s="16">
-        <f t="shared" si="2"/>
+      <c r="L11" s="38">
+        <f t="shared" si="3"/>
         <v>2.3333333333333339</v>
       </c>
-      <c r="M11" s="16">
-        <f t="shared" si="2"/>
+      <c r="M11" s="39">
+        <f t="shared" si="3"/>
         <v>3.3333333333333339</v>
       </c>
       <c r="P11" s="20"/>
       <c r="Q11" s="7">
         <v>6</v>
       </c>
-      <c r="Y11">
-        <f t="shared" si="8"/>
-        <v>1.2666666666666666</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" si="9"/>
-        <v>1.0666666666666667</v>
-      </c>
-      <c r="AA11">
-        <f t="shared" si="10"/>
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="AB11">
-        <f t="shared" si="11"/>
-        <v>0.66666666666666652</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T11" s="34"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35">
+        <f>(J11+J$4)/($D$1)</f>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="Z11" s="35">
+        <f t="shared" si="1"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="AA11" s="35">
+        <f t="shared" si="1"/>
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="AB11" s="35">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="35"/>
+      <c r="AM11" s="35">
+        <f t="shared" si="17"/>
+        <v>5.4320987654320989</v>
+      </c>
+      <c r="AN11" s="35">
+        <f t="shared" si="18"/>
+        <v>6.913580246913579</v>
+      </c>
+      <c r="AO11" s="35">
+        <f t="shared" si="19"/>
+        <v>8.3950617283950617</v>
+      </c>
+      <c r="AP11" s="36">
+        <f t="shared" si="20"/>
+        <v>9.8765432098765427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" s="20"/>
       <c r="B12" s="3">
         <v>7</v>
@@ -5393,170 +5931,224 @@
         <v>-7.7777777777777777</v>
       </c>
       <c r="D12" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.7777777777777777</v>
       </c>
-      <c r="E12" s="16">
-        <f t="shared" si="2"/>
+      <c r="E12" s="37">
+        <f t="shared" si="3"/>
         <v>-5.7777777777777777</v>
       </c>
-      <c r="F12" s="16">
-        <f t="shared" si="2"/>
+      <c r="F12" s="38">
+        <f t="shared" si="3"/>
         <v>-4.7777777777777777</v>
       </c>
-      <c r="G12" s="16">
-        <f t="shared" si="2"/>
+      <c r="G12" s="38">
+        <f t="shared" si="3"/>
         <v>-3.7777777777777777</v>
       </c>
-      <c r="H12" s="16">
-        <f t="shared" si="2"/>
+      <c r="H12" s="38">
+        <f t="shared" si="3"/>
         <v>-2.7777777777777777</v>
       </c>
-      <c r="I12" s="16">
-        <f t="shared" si="2"/>
+      <c r="I12" s="38">
+        <f t="shared" si="3"/>
         <v>-1.7777777777777777</v>
       </c>
-      <c r="J12" s="16">
-        <f t="shared" si="2"/>
+      <c r="J12" s="38">
+        <f t="shared" si="3"/>
         <v>-0.77777777777777768</v>
       </c>
-      <c r="K12" s="16">
-        <f t="shared" si="2"/>
+      <c r="K12" s="38">
+        <f t="shared" si="3"/>
         <v>0.22222222222222232</v>
       </c>
-      <c r="L12" s="16">
-        <f t="shared" si="2"/>
+      <c r="L12" s="38">
+        <f t="shared" si="3"/>
         <v>1.2222222222222223</v>
       </c>
-      <c r="M12" s="16">
-        <f t="shared" si="2"/>
+      <c r="M12" s="39">
+        <f t="shared" si="3"/>
         <v>2.2222222222222223</v>
       </c>
       <c r="P12" s="20"/>
       <c r="Q12" s="7">
         <v>7</v>
       </c>
-      <c r="Z12">
-        <f t="shared" si="9"/>
-        <v>1.1777777777777778</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="10"/>
-        <v>0.97777777777777786</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" si="11"/>
-        <v>0.7777777777777779</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T12" s="34"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35">
+        <f>(K12+K$4)/($D$1)</f>
+        <v>0.82222222222222219</v>
+      </c>
+      <c r="AA12" s="35">
+        <f t="shared" si="1"/>
+        <v>1.0222222222222221</v>
+      </c>
+      <c r="AB12" s="35">
+        <f t="shared" si="1"/>
+        <v>1.2222222222222221</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="4"/>
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="AH12" s="34"/>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="35"/>
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="35"/>
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="35">
+        <f t="shared" si="18"/>
+        <v>7.1056241426611795</v>
+      </c>
+      <c r="AO12" s="35">
+        <f t="shared" si="19"/>
+        <v>8.8340192043895733</v>
+      </c>
+      <c r="AP12" s="36">
+        <f t="shared" si="20"/>
+        <v>10.562414266117969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="3">
         <v>8</v>
       </c>
       <c r="C13" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>-8.8888888888888893</v>
       </c>
       <c r="D13" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.8888888888888893</v>
       </c>
-      <c r="E13" s="16">
-        <f t="shared" si="2"/>
+      <c r="E13" s="37">
+        <f t="shared" si="3"/>
         <v>-6.8888888888888893</v>
       </c>
-      <c r="F13" s="16">
-        <f t="shared" si="2"/>
+      <c r="F13" s="38">
+        <f t="shared" si="3"/>
         <v>-5.8888888888888893</v>
       </c>
-      <c r="G13" s="16">
-        <f t="shared" si="2"/>
+      <c r="G13" s="38">
+        <f t="shared" si="3"/>
         <v>-4.8888888888888893</v>
       </c>
-      <c r="H13" s="16">
-        <f t="shared" si="2"/>
+      <c r="H13" s="38">
+        <f t="shared" si="3"/>
         <v>-3.8888888888888893</v>
       </c>
-      <c r="I13" s="16">
-        <f t="shared" si="2"/>
+      <c r="I13" s="38">
+        <f t="shared" si="3"/>
         <v>-2.8888888888888893</v>
       </c>
-      <c r="J13" s="16">
-        <f t="shared" si="2"/>
+      <c r="J13" s="38">
+        <f t="shared" si="3"/>
         <v>-1.8888888888888893</v>
       </c>
-      <c r="K13" s="16">
-        <f t="shared" si="2"/>
+      <c r="K13" s="38">
+        <f t="shared" si="3"/>
         <v>-0.88888888888888928</v>
       </c>
-      <c r="L13" s="16">
-        <f t="shared" si="2"/>
+      <c r="L13" s="38">
+        <f t="shared" si="3"/>
         <v>0.11111111111111072</v>
       </c>
-      <c r="M13" s="16">
-        <f t="shared" si="2"/>
+      <c r="M13" s="39">
+        <f t="shared" si="3"/>
         <v>1.1111111111111107</v>
       </c>
       <c r="P13" s="20"/>
       <c r="Q13" s="7">
         <v>8</v>
       </c>
-      <c r="AA13">
-        <f t="shared" si="10"/>
-        <v>1.088888888888889</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" si="11"/>
-        <v>0.88888888888888884</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T13" s="34"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35">
+        <f>(L13+L$4)/($D$1)</f>
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="AB13" s="35">
+        <f>(M13+M$4)/($D$1)</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="4"/>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="35"/>
+      <c r="AJ13" s="35"/>
+      <c r="AK13" s="35"/>
+      <c r="AL13" s="35"/>
+      <c r="AM13" s="35"/>
+      <c r="AN13" s="35"/>
+      <c r="AO13" s="35">
+        <f t="shared" si="19"/>
+        <v>8.9986282578875176</v>
+      </c>
+      <c r="AP13" s="36">
+        <f t="shared" si="20"/>
+        <v>10.973936899862826</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" s="20"/>
       <c r="B14" s="3">
         <v>9</v>
       </c>
       <c r="C14" s="16">
-        <f t="shared" si="12"/>
+        <f t="shared" si="21"/>
         <v>-10</v>
       </c>
       <c r="D14" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9</v>
       </c>
-      <c r="E14" s="16">
-        <f t="shared" si="2"/>
+      <c r="E14" s="37">
+        <f t="shared" si="3"/>
         <v>-8</v>
       </c>
-      <c r="F14" s="16">
-        <f t="shared" si="2"/>
+      <c r="F14" s="38">
+        <f t="shared" si="3"/>
         <v>-7</v>
       </c>
-      <c r="G14" s="16">
-        <f t="shared" si="2"/>
+      <c r="G14" s="38">
+        <f t="shared" si="3"/>
         <v>-6</v>
       </c>
-      <c r="H14" s="16">
-        <f t="shared" si="2"/>
+      <c r="H14" s="38">
+        <f t="shared" si="3"/>
         <v>-5</v>
       </c>
-      <c r="I14" s="16">
-        <f t="shared" si="2"/>
+      <c r="I14" s="38">
+        <f t="shared" si="3"/>
         <v>-4</v>
       </c>
-      <c r="J14" s="16">
-        <f t="shared" si="2"/>
+      <c r="J14" s="38">
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
-      <c r="K14" s="16">
-        <f t="shared" si="2"/>
+      <c r="K14" s="38">
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
-      <c r="L14" s="16">
-        <f t="shared" si="2"/>
+      <c r="L14" s="38">
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="M14" s="16">
+      <c r="M14" s="39">
         <f>M$4-1*$B14/0.9</f>
         <v>0</v>
       </c>
@@ -5564,12 +6156,36 @@
       <c r="Q14" s="7">
         <v>9</v>
       </c>
-      <c r="AB14">
-        <f t="shared" si="11"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
+      <c r="X14" s="47"/>
+      <c r="Y14" s="47"/>
+      <c r="Z14" s="47"/>
+      <c r="AA14" s="47"/>
+      <c r="AB14" s="48">
+        <f>(M14+M$4)/($D$1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AD14">
+        <f>Q14/10/0.9</f>
+        <v>1</v>
+      </c>
+      <c r="AH14" s="34"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="35"/>
+      <c r="AK14" s="35"/>
+      <c r="AL14" s="35"/>
+      <c r="AM14" s="35"/>
+      <c r="AN14" s="35"/>
+      <c r="AO14" s="35"/>
+      <c r="AP14" s="36">
+        <f>AB14/0.9*($Q14/0.9)</f>
+        <v>11.111111111111111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="3">
         <v>10</v>
@@ -5579,42 +6195,42 @@
         <v>-11.111111111111111</v>
       </c>
       <c r="D15" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-10.111111111111111</v>
       </c>
-      <c r="E15" s="16">
-        <f t="shared" si="2"/>
+      <c r="E15" s="40">
+        <f t="shared" si="3"/>
         <v>-9.1111111111111107</v>
       </c>
-      <c r="F15" s="16">
-        <f t="shared" si="2"/>
+      <c r="F15" s="41">
+        <f t="shared" si="3"/>
         <v>-8.1111111111111107</v>
       </c>
-      <c r="G15" s="16">
-        <f t="shared" si="2"/>
+      <c r="G15" s="41">
+        <f t="shared" si="3"/>
         <v>-7.1111111111111107</v>
       </c>
-      <c r="H15" s="16">
-        <f t="shared" si="2"/>
+      <c r="H15" s="41">
+        <f t="shared" si="3"/>
         <v>-6.1111111111111107</v>
       </c>
-      <c r="I15" s="16">
-        <f t="shared" si="2"/>
+      <c r="I15" s="41">
+        <f t="shared" si="3"/>
         <v>-5.1111111111111107</v>
       </c>
-      <c r="J15" s="16">
-        <f t="shared" si="2"/>
+      <c r="J15" s="41">
+        <f t="shared" si="3"/>
         <v>-4.1111111111111107</v>
       </c>
-      <c r="K15" s="16">
-        <f t="shared" si="2"/>
+      <c r="K15" s="41">
+        <f t="shared" si="3"/>
         <v>-3.1111111111111107</v>
       </c>
-      <c r="L15" s="16">
-        <f t="shared" si="2"/>
+      <c r="L15" s="41">
+        <f t="shared" si="3"/>
         <v>-2.1111111111111107</v>
       </c>
-      <c r="M15" s="16">
+      <c r="M15" s="42">
         <f>M$4-1*$B15/0.9</f>
         <v>-1.1111111111111107</v>
       </c>
@@ -5622,8 +6238,36 @@
       <c r="Q15" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="AD15">
+        <f t="shared" si="4"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="47"/>
+      <c r="AJ15" s="47"/>
+      <c r="AK15" s="47"/>
+      <c r="AL15" s="47"/>
+      <c r="AM15" s="47"/>
+      <c r="AN15" s="47"/>
+      <c r="AO15" s="47"/>
+      <c r="AP15" s="48"/>
+    </row>
+    <row r="17" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="AF17" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="29"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="29"/>
+      <c r="AL17" s="29"/>
+      <c r="AM17" s="29"/>
+      <c r="AN17" s="29"/>
+      <c r="AO17" s="29"/>
+      <c r="AP17" s="29"/>
+    </row>
+    <row r="18" spans="2:42" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>3</v>
       </c>
@@ -5631,31 +6275,113 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
         <v>4</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C20" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="J20" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="AF19" s="5">
+        <f>R$5/0.9*($AD5/0.9)</f>
+        <v>0</v>
+      </c>
+      <c r="AG19" s="5">
+        <f>S$5*($AD5/0.9)</f>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="49">
+        <f>T$5*($AD5)</f>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="49">
+        <f t="shared" ref="AI19:AP19" si="22">U$5*($AD5)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="49">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="49">
+        <f>W$5*($AD5)</f>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="49">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AM19" s="49">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AN19" s="49">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="49">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AP19" s="49">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="C20" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="J20" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="50">
+        <f>T$6*($AD6)</f>
+        <v>3.2098765432098768E-2</v>
+      </c>
+      <c r="AI20" s="50">
+        <f t="shared" ref="AI20:AP20" si="23">U$6*($AD6)</f>
+        <v>5.4320987654320994E-2</v>
+      </c>
+      <c r="AJ20" s="50">
+        <f t="shared" si="23"/>
+        <v>7.6543209876543214E-2</v>
+      </c>
+      <c r="AK20" s="50">
+        <f t="shared" si="23"/>
+        <v>9.876543209876544E-2</v>
+      </c>
+      <c r="AL20" s="50">
+        <f t="shared" si="23"/>
+        <v>0.12098765432098768</v>
+      </c>
+      <c r="AM20" s="50">
+        <f t="shared" si="23"/>
+        <v>0.14320987654320991</v>
+      </c>
+      <c r="AN20" s="50">
+        <f t="shared" si="23"/>
+        <v>0.16543209876543211</v>
+      </c>
+      <c r="AO20" s="50">
+        <f t="shared" si="23"/>
+        <v>0.18765432098765433</v>
+      </c>
+      <c r="AP20" s="50">
+        <f t="shared" si="23"/>
+        <v>0.20987654320987656</v>
+      </c>
+    </row>
+    <row r="21" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>2</v>
       </c>
@@ -5692,25 +6418,60 @@
       <c r="N21" s="9">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="50"/>
+      <c r="AI21" s="51">
+        <f>U$7*($AD7)</f>
+        <v>8.3950617283950618E-2</v>
+      </c>
+      <c r="AJ21" s="51">
+        <f t="shared" ref="AJ21:AP21" si="24">V$7*($AD7)</f>
+        <v>0.12839506172839507</v>
+      </c>
+      <c r="AK21" s="51">
+        <f t="shared" si="24"/>
+        <v>0.17283950617283952</v>
+      </c>
+      <c r="AL21" s="51">
+        <f t="shared" si="24"/>
+        <v>0.21728395061728398</v>
+      </c>
+      <c r="AM21" s="51">
+        <f t="shared" si="24"/>
+        <v>0.2617283950617284</v>
+      </c>
+      <c r="AN21" s="51">
+        <f t="shared" si="24"/>
+        <v>0.30617283950617286</v>
+      </c>
+      <c r="AO21" s="51">
+        <f t="shared" si="24"/>
+        <v>0.35061728395061736</v>
+      </c>
+      <c r="AP21" s="51">
+        <f t="shared" si="24"/>
+        <v>0.39506172839506176</v>
+      </c>
+    </row>
+    <row r="22" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>0</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:E23" si="13">C$21-1*$B22/0.9</f>
+        <f t="shared" ref="C22:E23" si="25">C$21-1*$B22/0.9</f>
         <v>0</v>
       </c>
       <c r="D22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>2.5</v>
       </c>
       <c r="E22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="F22">
-        <f t="shared" ref="F22:G32" si="14">F$21-1*$B22/0.9</f>
+        <f t="shared" ref="F22:G32" si="26">F$21-1*$B22/0.9</f>
         <v>7.5</v>
       </c>
       <c r="G22">
@@ -5725,40 +6486,72 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <f t="shared" ref="K22:N27" si="15">K$21-1*$I22/0.9</f>
+        <f t="shared" ref="K22:N27" si="27">K$21-1*$I22/0.9</f>
         <v>2.5</v>
       </c>
       <c r="L22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="M22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>7.5</v>
       </c>
       <c r="N22">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="50"/>
+      <c r="AI22" s="51"/>
+      <c r="AJ22" s="51">
+        <f>V$8*($AD8)</f>
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="AK22" s="51">
+        <f t="shared" ref="AK22:AP22" si="28">W$8*($AD8)</f>
+        <v>0.22222222222222224</v>
+      </c>
+      <c r="AL22" s="51">
+        <f t="shared" si="28"/>
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="AM22" s="51">
+        <f t="shared" si="28"/>
+        <v>0.35555555555555562</v>
+      </c>
+      <c r="AN22" s="51">
+        <f t="shared" si="28"/>
+        <v>0.42222222222222228</v>
+      </c>
+      <c r="AO22" s="51">
+        <f t="shared" si="28"/>
+        <v>0.48888888888888893</v>
+      </c>
+      <c r="AP22" s="51">
+        <f t="shared" si="28"/>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="23" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>1</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>-1.1111111111111112</v>
       </c>
       <c r="D23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>1.3888888888888888</v>
       </c>
       <c r="E23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="25"/>
         <v>3.8888888888888888</v>
       </c>
       <c r="F23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>6.3888888888888893</v>
       </c>
       <c r="G23">
@@ -5769,337 +6562,490 @@
         <v>2</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J23:J27" si="16">J$21-1*$I23/0.9</f>
+        <f t="shared" ref="J23:J27" si="29">J$21-1*$I23/0.9</f>
         <v>-2.2222222222222223</v>
       </c>
       <c r="K23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>0.27777777777777768</v>
       </c>
       <c r="L23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>2.7777777777777777</v>
       </c>
       <c r="M23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>5.2777777777777777</v>
       </c>
       <c r="N23">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>7.7777777777777777</v>
       </c>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="50"/>
+      <c r="AI23" s="51"/>
+      <c r="AJ23" s="51"/>
+      <c r="AK23" s="51">
+        <f>W$9*($AD9)</f>
+        <v>0.24691358024691362</v>
+      </c>
+      <c r="AL23" s="51">
+        <f t="shared" ref="AL23:AP23" si="30">X$9*($AD9)</f>
+        <v>0.33580246913580247</v>
+      </c>
+      <c r="AM23" s="51">
+        <f t="shared" si="30"/>
+        <v>0.42469135802469138</v>
+      </c>
+      <c r="AN23" s="51">
+        <f t="shared" si="30"/>
+        <v>0.51358024691358029</v>
+      </c>
+      <c r="AO23" s="51">
+        <f t="shared" si="30"/>
+        <v>0.60246913580246919</v>
+      </c>
+      <c r="AP23" s="51">
+        <f t="shared" si="30"/>
+        <v>0.6913580246913581</v>
+      </c>
+    </row>
+    <row r="24" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
         <v>2</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" ref="C24:E32" si="17">C$21-1*$B24/0.9</f>
+        <f t="shared" ref="C24:E32" si="31">C$21-1*$B24/0.9</f>
         <v>-2.2222222222222223</v>
       </c>
       <c r="D24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>0.27777777777777768</v>
       </c>
       <c r="E24">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>2.7777777777777777</v>
       </c>
       <c r="F24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>5.2777777777777777</v>
       </c>
       <c r="G24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>7.7777777777777777</v>
       </c>
       <c r="I24" s="4">
         <v>4</v>
       </c>
       <c r="J24">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>-4.4444444444444446</v>
       </c>
       <c r="K24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-1.9444444444444446</v>
       </c>
       <c r="L24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>0.55555555555555536</v>
       </c>
       <c r="M24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>3.0555555555555554</v>
       </c>
       <c r="N24">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>5.5555555555555554</v>
       </c>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="50"/>
+      <c r="AI24" s="51"/>
+      <c r="AJ24" s="51"/>
+      <c r="AK24" s="51"/>
+      <c r="AL24" s="51">
+        <f>X$10*($AD10)</f>
+        <v>0.35802469135802473</v>
+      </c>
+      <c r="AM24" s="51">
+        <f t="shared" ref="AM24:AP24" si="32">Y$10*($AD10)</f>
+        <v>0.46913580246913583</v>
+      </c>
+      <c r="AN24" s="51">
+        <f t="shared" si="32"/>
+        <v>0.58024691358024694</v>
+      </c>
+      <c r="AO24" s="51">
+        <f t="shared" si="32"/>
+        <v>0.6913580246913581</v>
+      </c>
+      <c r="AP24" s="51">
+        <f t="shared" si="32"/>
+        <v>0.80246913580246915</v>
+      </c>
+    </row>
+    <row r="25" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
         <v>3</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>-3.333333333333333</v>
       </c>
       <c r="D25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>-0.83333333333333304</v>
       </c>
       <c r="E25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>1.666666666666667</v>
       </c>
       <c r="F25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>4.166666666666667</v>
       </c>
       <c r="G25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>6.666666666666667</v>
       </c>
       <c r="I25" s="4">
         <v>6</v>
       </c>
       <c r="J25">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>-6.6666666666666661</v>
       </c>
       <c r="K25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-4.1666666666666661</v>
       </c>
       <c r="L25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-1.6666666666666661</v>
       </c>
       <c r="M25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>0.83333333333333393</v>
       </c>
       <c r="N25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>3.3333333333333339</v>
       </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="50"/>
+      <c r="AI25" s="51"/>
+      <c r="AJ25" s="51"/>
+      <c r="AK25" s="51"/>
+      <c r="AL25" s="51"/>
+      <c r="AM25" s="51">
+        <f>Y$11*($AD11)</f>
+        <v>0.48888888888888893</v>
+      </c>
+      <c r="AN25" s="51">
+        <f t="shared" ref="AN25:AP25" si="33">Z$11*($AD11)</f>
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="AO25" s="51">
+        <f t="shared" si="33"/>
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="AP25" s="51">
+        <f t="shared" si="33"/>
+        <v>0.88888888888888895</v>
+      </c>
+    </row>
+    <row r="26" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>4</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>-4.4444444444444446</v>
       </c>
       <c r="D26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>-1.9444444444444446</v>
       </c>
       <c r="E26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>0.55555555555555536</v>
       </c>
       <c r="F26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>3.0555555555555554</v>
       </c>
       <c r="G26">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>5.5555555555555554</v>
       </c>
       <c r="I26" s="4">
         <v>8</v>
       </c>
       <c r="J26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>-8.8888888888888893</v>
       </c>
       <c r="K26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-6.3888888888888893</v>
       </c>
       <c r="L26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-3.8888888888888893</v>
       </c>
       <c r="M26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-1.3888888888888893</v>
       </c>
       <c r="N26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>1.1111111111111107</v>
       </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="50"/>
+      <c r="AI26" s="51"/>
+      <c r="AJ26" s="51"/>
+      <c r="AK26" s="51"/>
+      <c r="AL26" s="51"/>
+      <c r="AM26" s="51"/>
+      <c r="AN26" s="51">
+        <f>Z$12*($AD12)</f>
+        <v>0.63950617283950606</v>
+      </c>
+      <c r="AO26" s="51">
+        <f t="shared" ref="AO26:AP26" si="34">AA$12*($AD12)</f>
+        <v>0.79506172839506162</v>
+      </c>
+      <c r="AP26" s="51">
+        <f t="shared" si="34"/>
+        <v>0.95061728395061706</v>
+      </c>
+    </row>
+    <row r="27" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
         <v>5</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>-5.5555555555555554</v>
       </c>
       <c r="D27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>-3.0555555555555554</v>
       </c>
       <c r="E27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>-0.55555555555555536</v>
       </c>
       <c r="F27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1.9444444444444446</v>
       </c>
       <c r="G27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>4.4444444444444446</v>
       </c>
       <c r="I27" s="4">
         <v>10</v>
       </c>
       <c r="J27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="29"/>
         <v>-11.111111111111111</v>
       </c>
       <c r="K27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-8.6111111111111107</v>
       </c>
       <c r="L27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-6.1111111111111107</v>
       </c>
       <c r="M27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-3.6111111111111107</v>
       </c>
       <c r="N27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>-1.1111111111111107</v>
       </c>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="50"/>
+      <c r="AI27" s="51"/>
+      <c r="AJ27" s="51"/>
+      <c r="AK27" s="51"/>
+      <c r="AL27" s="51"/>
+      <c r="AM27" s="51"/>
+      <c r="AN27" s="51"/>
+      <c r="AO27" s="51">
+        <f>AA$13*($AD13)</f>
+        <v>0.80987654320987656</v>
+      </c>
+      <c r="AP27" s="51">
+        <f>AB$13*($AD13)</f>
+        <v>0.98765432098765449</v>
+      </c>
+    </row>
+    <row r="28" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
         <v>6</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>-6.6666666666666661</v>
       </c>
       <c r="D28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>-4.1666666666666661</v>
       </c>
       <c r="E28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>-1.6666666666666661</v>
       </c>
       <c r="F28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0.83333333333333393</v>
       </c>
       <c r="G28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>3.3333333333333339</v>
       </c>
       <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="50"/>
+      <c r="AI28" s="51"/>
+      <c r="AJ28" s="51"/>
+      <c r="AK28" s="51"/>
+      <c r="AL28" s="51"/>
+      <c r="AM28" s="51"/>
+      <c r="AN28" s="51"/>
+      <c r="AO28" s="51"/>
+      <c r="AP28" s="52">
+        <f>AB$14*($AD14)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
         <v>7</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>-7.7777777777777777</v>
       </c>
       <c r="D29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>-5.2777777777777777</v>
       </c>
       <c r="E29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>-2.7777777777777777</v>
       </c>
       <c r="F29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-0.27777777777777768</v>
       </c>
       <c r="G29">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>2.2222222222222223</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="AH29" s="34"/>
+      <c r="AI29" s="35"/>
+      <c r="AJ29" s="35"/>
+      <c r="AK29" s="35"/>
+      <c r="AL29" s="35"/>
+      <c r="AM29" s="35"/>
+      <c r="AN29" s="35"/>
+      <c r="AO29" s="51"/>
+      <c r="AP29" s="53">
+        <f>AP28^0.5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
         <v>8</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>-8.8888888888888893</v>
       </c>
       <c r="D30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>-6.3888888888888893</v>
       </c>
       <c r="E30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>-3.8888888888888893</v>
       </c>
       <c r="F30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-1.3888888888888893</v>
       </c>
       <c r="G30">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>1.1111111111111107</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
+      <c r="J30" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
       <c r="P30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q30" s="24" t="s">
+      <c r="Q30" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="AH30" s="46"/>
+      <c r="AI30" s="47"/>
+      <c r="AJ30" s="47"/>
+      <c r="AK30" s="47"/>
+      <c r="AL30" s="47"/>
+      <c r="AM30" s="47"/>
+      <c r="AN30" s="47"/>
+      <c r="AO30" s="51"/>
+      <c r="AP30" s="48">
+        <f>AP29/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="31" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
         <v>9</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>-10</v>
       </c>
       <c r="D31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>-7.5</v>
       </c>
       <c r="E31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>-5</v>
       </c>
       <c r="F31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-2.5</v>
       </c>
       <c r="G31">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -6138,29 +7084,49 @@
       <c r="U31" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W31">
+        <f>Q31*$P31</f>
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <f t="shared" ref="X31:Z31" si="35">R31*$P31</f>
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <f>U31*$P31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
         <v>10</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>-11.111111111111111</v>
       </c>
       <c r="D32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>-8.6111111111111107</v>
       </c>
       <c r="E32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>-6.1111111111111107</v>
       </c>
       <c r="F32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-3.6111111111111107</v>
       </c>
       <c r="G32">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>-1.1111111111111107</v>
       </c>
       <c r="I32" s="4">
@@ -6171,15 +7137,15 @@
         <v>2</v>
       </c>
       <c r="K32" s="11">
-        <f t="shared" ref="K32:M32" si="18">2-(K22+K21)/$D$1</f>
+        <f t="shared" ref="K32:M32" si="36">2-(K22+K21)/$D$1</f>
         <v>1.5</v>
       </c>
       <c r="L32" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="M32" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="36"/>
         <v>0.5</v>
       </c>
       <c r="N32" s="11">
@@ -6189,25 +7155,41 @@
       <c r="P32" s="4">
         <v>2</v>
       </c>
-      <c r="Q32" s="29">
+      <c r="Q32" s="19">
         <f>K33</f>
         <v>1.7222222222222223</v>
       </c>
-      <c r="R32" s="29">
-        <f t="shared" ref="R32:T32" si="19">L33</f>
+      <c r="R32" s="19">
+        <f t="shared" ref="R32:T32" si="37">L33</f>
         <v>1.2222222222222223</v>
       </c>
-      <c r="S32" s="29">
-        <f t="shared" si="19"/>
+      <c r="S32" s="19">
+        <f t="shared" si="37"/>
         <v>0.7222222222222221</v>
       </c>
-      <c r="T32" s="29">
-        <f t="shared" si="19"/>
+      <c r="T32" s="19">
+        <f t="shared" si="37"/>
         <v>0.2222222222222221</v>
       </c>
-      <c r="U32" s="29"/>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="U32" s="19"/>
+      <c r="W32">
+        <f>Q32*$P32</f>
+        <v>3.4444444444444446</v>
+      </c>
+      <c r="X32">
+        <f t="shared" ref="X32" si="38">R32*$P32</f>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="Y32">
+        <f t="shared" ref="Y32" si="39">S32*$P32</f>
+        <v>1.4444444444444442</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" ref="Z32" si="40">T32*$P32</f>
+        <v>0.4444444444444442</v>
+      </c>
+    </row>
+    <row r="33" spans="2:41" x14ac:dyDescent="0.25">
       <c r="I33" s="4">
         <v>2</v>
       </c>
@@ -6220,36 +7202,87 @@
         <v>1.7222222222222223</v>
       </c>
       <c r="L33" s="11">
-        <f t="shared" ref="L33:N33" si="20">2-(L23+L$21)/$D$1</f>
+        <f t="shared" ref="L33:N33" si="41">2-(L23+L$21)/$D$1</f>
         <v>1.2222222222222223</v>
       </c>
       <c r="M33" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="41"/>
         <v>0.7222222222222221</v>
       </c>
       <c r="N33" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="41"/>
         <v>0.2222222222222221</v>
       </c>
       <c r="P33" s="4">
         <v>4</v>
       </c>
-      <c r="Q33" s="29">
+      <c r="Q33" s="19">
         <f>L34</f>
         <v>1.4444444444444444</v>
       </c>
-      <c r="R33" s="29">
-        <f t="shared" ref="R33:S33" si="21">M34</f>
+      <c r="R33" s="19">
+        <f t="shared" ref="R33:S33" si="42">M34</f>
         <v>0.94444444444444442</v>
       </c>
-      <c r="S33" s="29">
-        <f t="shared" si="21"/>
+      <c r="S33" s="19">
+        <f t="shared" si="42"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="T33" s="29"/>
-      <c r="U33" s="29"/>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="W33">
+        <f t="shared" ref="W33:W35" si="43">Q33*$P33</f>
+        <v>5.7777777777777777</v>
+      </c>
+      <c r="X33">
+        <f t="shared" ref="X33:X34" si="44">R33*$P33</f>
+        <v>3.7777777777777777</v>
+      </c>
+      <c r="Y33">
+        <f t="shared" ref="Y33" si="45">S33*$P33</f>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="5">
+        <f>AF33+$AP$30</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AH33" s="5">
+        <f t="shared" ref="AH33:AP33" si="46">AG33+$AP$30</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="AI33" s="5">
+        <f t="shared" si="46"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AJ33" s="5">
+        <f t="shared" si="46"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="AK33" s="5">
+        <f t="shared" si="46"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="AL33" s="5">
+        <f t="shared" si="46"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="AM33" s="5">
+        <f t="shared" si="46"/>
+        <v>0.7777777777777779</v>
+      </c>
+      <c r="AN33" s="5">
+        <f t="shared" si="46"/>
+        <v>0.88888888888888906</v>
+      </c>
+      <c r="AO33" s="5">
+        <f t="shared" si="46"/>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>1</v>
       </c>
@@ -6257,84 +7290,96 @@
         <v>4</v>
       </c>
       <c r="J34">
-        <f t="shared" ref="J34:N37" si="22">2-(J24+J$21)/$D$1</f>
+        <f t="shared" ref="J34:N37" si="47">2-(J24+J$21)/$D$1</f>
         <v>2.4444444444444446</v>
       </c>
       <c r="K34">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>1.9444444444444444</v>
       </c>
       <c r="L34" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>1.4444444444444444</v>
       </c>
       <c r="M34" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>0.94444444444444442</v>
       </c>
       <c r="N34" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="P34" s="4">
         <v>6</v>
       </c>
-      <c r="Q34" s="29">
+      <c r="Q34" s="19">
         <f>M35</f>
         <v>1.1666666666666665</v>
       </c>
-      <c r="R34" s="29">
+      <c r="R34" s="19">
         <f>N35</f>
         <v>0.66666666666666652</v>
       </c>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C35" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="W34">
+        <f t="shared" si="43"/>
+        <v>6.9999999999999991</v>
+      </c>
+      <c r="X34">
+        <f t="shared" si="44"/>
+        <v>3.9999999999999991</v>
+      </c>
+    </row>
+    <row r="35" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="C35" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
       <c r="I35" s="4">
         <v>6</v>
       </c>
       <c r="J35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="K35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="L35">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>1.6666666666666665</v>
       </c>
       <c r="M35" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>1.1666666666666665</v>
       </c>
       <c r="N35" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>0.66666666666666652</v>
       </c>
       <c r="P35" s="4">
         <v>8</v>
       </c>
-      <c r="Q35" s="29">
+      <c r="Q35" s="19">
         <f>N36</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-    </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="W35">
+        <f t="shared" si="43"/>
+        <v>7.1111111111111107</v>
+      </c>
+    </row>
+    <row r="36" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
         <v>2</v>
       </c>
@@ -6357,15 +7402,15 @@
         <v>8</v>
       </c>
       <c r="J36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>2.8888888888888888</v>
       </c>
       <c r="K36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>2.3888888888888888</v>
       </c>
       <c r="L36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>1.8888888888888888</v>
       </c>
       <c r="M36">
@@ -6373,7 +7418,7 @@
         <v>1.3888888888888888</v>
       </c>
       <c r="N36" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>0.88888888888888884</v>
       </c>
       <c r="P36" s="4">
@@ -6386,8 +7431,11 @@
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
       <c r="U36" s="1"/>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
         <v>0</v>
       </c>
@@ -6400,11 +7448,11 @@
         <v>1.5</v>
       </c>
       <c r="E37" s="11">
-        <f t="shared" ref="E37:F37" si="23">2-(E22+E$36)/$D$18</f>
+        <f t="shared" ref="E37:F37" si="48">2-(E22+E$36)/$D$18</f>
         <v>1</v>
       </c>
       <c r="F37" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>0.5</v>
       </c>
       <c r="G37" s="11">
@@ -6415,23 +7463,23 @@
         <v>10</v>
       </c>
       <c r="J37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>3.1111111111111112</v>
       </c>
       <c r="K37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>2.6111111111111112</v>
       </c>
       <c r="L37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>2.1111111111111112</v>
       </c>
       <c r="M37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>1.6111111111111112</v>
       </c>
       <c r="N37">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="Q37" s="1"/>
@@ -6440,253 +7488,257 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <v>1</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" ref="C38:G38" si="24">2-(C23+C$36)/$D$18</f>
+        <f t="shared" ref="C38:G38" si="49">2-(C23+C$36)/$D$18</f>
         <v>2.1111111111111112</v>
       </c>
       <c r="D38" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>1.6111111111111112</v>
       </c>
       <c r="E38" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="F38" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>0.61111111111111116</v>
       </c>
       <c r="G38" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>0.11111111111111116</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
         <v>2</v>
       </c>
       <c r="C39" s="5">
-        <f t="shared" ref="C39:G39" si="25">2-(C24+C$36)/$D$18</f>
+        <f t="shared" ref="C39:G39" si="50">2-(C24+C$36)/$D$18</f>
         <v>2.2222222222222223</v>
       </c>
       <c r="D39" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="50"/>
         <v>1.7222222222222223</v>
       </c>
       <c r="E39" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="50"/>
         <v>1.2222222222222223</v>
       </c>
       <c r="F39" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="50"/>
         <v>0.7222222222222221</v>
       </c>
       <c r="G39" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="50"/>
         <v>0.2222222222222221</v>
       </c>
     </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
         <v>3</v>
       </c>
       <c r="C40" s="5">
-        <f t="shared" ref="C40:G40" si="26">2-(C25+C$36)/$D$18</f>
+        <f t="shared" ref="C40:G40" si="51">2-(C25+C$36)/$D$18</f>
         <v>2.3333333333333335</v>
       </c>
       <c r="D40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="51"/>
         <v>1.8333333333333333</v>
       </c>
       <c r="E40" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="51"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="F40" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="51"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="G40" s="11">
-        <f t="shared" si="26"/>
+        <f t="shared" si="51"/>
         <v>0.33333333333333326</v>
       </c>
     </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
         <v>4</v>
       </c>
       <c r="C41" s="5">
-        <f t="shared" ref="C41:G41" si="27">2-(C26+C$36)/$D$18</f>
+        <f t="shared" ref="C41:G41" si="52">2-(C26+C$36)/$D$18</f>
         <v>2.4444444444444446</v>
       </c>
       <c r="D41">
-        <f t="shared" si="27"/>
+        <f t="shared" si="52"/>
         <v>1.9444444444444444</v>
       </c>
       <c r="E41" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="52"/>
         <v>1.4444444444444444</v>
       </c>
       <c r="F41" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="52"/>
         <v>0.94444444444444442</v>
       </c>
       <c r="G41" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="52"/>
         <v>0.44444444444444442</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="AF41">
+        <f>0.8/0.9</f>
+        <v>0.88888888888888895</v>
+      </c>
+    </row>
+    <row r="42" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
         <v>5</v>
       </c>
       <c r="C42" s="5">
-        <f t="shared" ref="C42:G42" si="28">2-(C27+C$36)/$D$18</f>
+        <f t="shared" ref="C42:G42" si="53">2-(C27+C$36)/$D$18</f>
         <v>2.5555555555555554</v>
       </c>
       <c r="D42">
-        <f t="shared" si="28"/>
+        <f t="shared" si="53"/>
         <v>2.0555555555555554</v>
       </c>
       <c r="E42">
-        <f t="shared" si="28"/>
+        <f t="shared" si="53"/>
         <v>1.5555555555555556</v>
       </c>
       <c r="F42" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="53"/>
         <v>1.0555555555555556</v>
       </c>
       <c r="G42" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="53"/>
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
         <v>6</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" ref="C43:G43" si="29">2-(C28+C$36)/$D$18</f>
+        <f t="shared" ref="C43:G43" si="54">2-(C28+C$36)/$D$18</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="D43">
-        <f t="shared" si="29"/>
+        <f t="shared" si="54"/>
         <v>2.1666666666666665</v>
       </c>
       <c r="E43">
-        <f t="shared" si="29"/>
+        <f t="shared" si="54"/>
         <v>1.6666666666666665</v>
       </c>
       <c r="F43" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="54"/>
         <v>1.1666666666666665</v>
       </c>
       <c r="G43" s="11">
-        <f t="shared" si="29"/>
+        <f t="shared" si="54"/>
         <v>0.66666666666666652</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
         <v>7</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" ref="C44:G44" si="30">2-(C29+C$36)/$D$18</f>
+        <f t="shared" ref="C44:G44" si="55">2-(C29+C$36)/$D$18</f>
         <v>2.7777777777777777</v>
       </c>
       <c r="D44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="55"/>
         <v>2.2777777777777777</v>
       </c>
       <c r="E44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="55"/>
         <v>1.7777777777777777</v>
       </c>
       <c r="F44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="55"/>
         <v>1.2777777777777777</v>
       </c>
       <c r="G44" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="55"/>
         <v>0.7777777777777779</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <v>8</v>
       </c>
       <c r="C45" s="5">
-        <f t="shared" ref="C45:G45" si="31">2-(C30+C$36)/$D$18</f>
+        <f t="shared" ref="C45:G45" si="56">2-(C30+C$36)/$D$18</f>
         <v>2.8888888888888888</v>
       </c>
       <c r="D45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="56"/>
         <v>2.3888888888888888</v>
       </c>
       <c r="E45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="56"/>
         <v>1.8888888888888888</v>
       </c>
       <c r="F45">
-        <f t="shared" si="31"/>
+        <f t="shared" si="56"/>
         <v>1.3888888888888888</v>
       </c>
       <c r="G45" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="56"/>
         <v>0.88888888888888884</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
         <v>9</v>
       </c>
       <c r="C46" s="5">
-        <f t="shared" ref="C46:G46" si="32">2-(C31+C$36)/$D$18</f>
+        <f t="shared" ref="C46:G46" si="57">2-(C31+C$36)/$D$18</f>
         <v>3</v>
       </c>
       <c r="D46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="57"/>
         <v>2.5</v>
       </c>
       <c r="E46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="57"/>
         <v>2</v>
       </c>
       <c r="F46">
-        <f t="shared" si="32"/>
+        <f t="shared" si="57"/>
         <v>1.5</v>
       </c>
       <c r="G46" s="11">
-        <f t="shared" si="32"/>
+        <f t="shared" si="57"/>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
         <v>10</v>
       </c>
       <c r="C47" s="5">
-        <f t="shared" ref="C47:G47" si="33">2-(C32+C$36)/$D$18</f>
+        <f t="shared" ref="C47:G47" si="58">2-(C32+C$36)/$D$18</f>
         <v>3.1111111111111112</v>
       </c>
       <c r="D47">
-        <f t="shared" si="33"/>
+        <f t="shared" si="58"/>
         <v>2.6111111111111112</v>
       </c>
       <c r="E47">
-        <f t="shared" si="33"/>
+        <f t="shared" si="58"/>
         <v>2.1111111111111112</v>
       </c>
       <c r="F47">
-        <f t="shared" si="33"/>
+        <f t="shared" si="58"/>
         <v>1.6111111111111112</v>
       </c>
       <c r="G47">
-        <f t="shared" si="33"/>
+        <f t="shared" si="58"/>
         <v>1.1111111111111112</v>
       </c>
     </row>
@@ -6694,13 +7746,13 @@
       <c r="B50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="4">
@@ -6712,25 +7764,25 @@
         <v>2</v>
       </c>
       <c r="D51" s="5">
-        <f t="shared" ref="D51:G51" si="34">D37</f>
+        <f t="shared" ref="D51:G51" si="59">D37</f>
         <v>1.5</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="59"/>
         <v>1</v>
       </c>
       <c r="F51" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="59"/>
         <v>0.5</v>
       </c>
       <c r="G51" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="4">
-        <f t="shared" ref="B52:F61" si="35">B38</f>
+        <f t="shared" ref="B52:F61" si="60">B38</f>
         <v>1</v>
       </c>
       <c r="C52" s="5">
@@ -6738,22 +7790,22 @@
         <v>1.6111111111111112</v>
       </c>
       <c r="D52" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="60"/>
         <v>1.6111111111111112</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="60"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="F52" s="5">
-        <f t="shared" si="35"/>
+        <f t="shared" si="60"/>
         <v>0.61111111111111116</v>
       </c>
       <c r="G52" s="5"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="60"/>
         <v>2</v>
       </c>
       <c r="C53" s="5">
@@ -6761,22 +7813,22 @@
         <v>1.7222222222222223</v>
       </c>
       <c r="D53" s="5">
-        <f t="shared" ref="D53:F53" si="36">E39</f>
+        <f t="shared" ref="D53:F53" si="61">E39</f>
         <v>1.2222222222222223</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="61"/>
         <v>0.7222222222222221</v>
       </c>
       <c r="F53" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="61"/>
         <v>0.2222222222222221</v>
       </c>
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="60"/>
         <v>3</v>
       </c>
       <c r="C54" s="5">
@@ -6784,11 +7836,11 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="D54" s="5">
-        <f t="shared" ref="D54:E54" si="37">F40</f>
+        <f t="shared" ref="D54:E54" si="62">F40</f>
         <v>0.83333333333333326</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="37"/>
+        <f t="shared" si="62"/>
         <v>0.33333333333333326</v>
       </c>
       <c r="F54" s="5"/>
@@ -6796,7 +7848,7 @@
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="C55" s="5">
@@ -6804,11 +7856,11 @@
         <v>1.4444444444444444</v>
       </c>
       <c r="D55" s="5">
-        <f t="shared" ref="D55:E55" si="38">F41</f>
+        <f t="shared" ref="D55:E55" si="63">F41</f>
         <v>0.94444444444444442</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="63"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="F55" s="5"/>
@@ -6816,7 +7868,7 @@
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="60"/>
         <v>5</v>
       </c>
       <c r="C56" s="5">
@@ -6833,7 +7885,7 @@
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="60"/>
         <v>6</v>
       </c>
       <c r="C57" s="5">
@@ -6850,7 +7902,7 @@
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="60"/>
         <v>7</v>
       </c>
       <c r="C58" s="5">
@@ -6864,7 +7916,7 @@
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="60"/>
         <v>8</v>
       </c>
       <c r="C59" s="5">
@@ -6878,7 +7930,7 @@
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="60"/>
         <v>9</v>
       </c>
       <c r="C60" s="5">
@@ -6892,7 +7944,7 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="60"/>
         <v>10</v>
       </c>
       <c r="C61" s="5"/>
@@ -6905,17 +7957,19 @@
       <c r="C62" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="AF3:AP3"/>
+    <mergeCell ref="AF17:AP17"/>
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="P5:P15"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="J20:N20"/>
+    <mergeCell ref="J30:N30"/>
     <mergeCell ref="Q30:U30"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="C50:G50"/>
     <mergeCell ref="C3:M3"/>
     <mergeCell ref="R3:AB3"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="P5:P15"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="J30:N30"/>
   </mergeCells>
   <conditionalFormatting sqref="C22:G32">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
@@ -6940,7 +7994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81AE990D-454C-447B-B044-D740251E2CE7}">
   <dimension ref="A1:AA57"/>
   <sheetViews>
@@ -6966,35 +8020,35 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C3" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="C3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="H3">
         <f>(10+B5*1/0.9)/4</f>
         <v>2.5</v>
       </c>
-      <c r="L3" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
+      <c r="L3" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -7108,24 +8162,24 @@
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="C7" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="1">
         <f>(10-B9/0.9)/4</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="L7" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
+      <c r="L7" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -7263,13 +8317,13 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
+      <c r="C11" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="1">
         <f>(10-B13/0.9)/4</f>
         <v>1.9444444444444444</v>
@@ -7277,13 +8331,13 @@
       <c r="I11" s="1"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
+      <c r="L11" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -7422,13 +8476,13 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
-      <c r="C15" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="C15" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="1">
         <f>(10-B17/0.9)/4</f>
         <v>1.6666666666666667</v>
@@ -7436,13 +8490,13 @@
       <c r="I15" s="1"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
+      <c r="L15" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -7580,13 +8634,13 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
-      <c r="C19" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="C19" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
       <c r="H19" s="1">
         <f>(10-B21/0.9)/4</f>
         <v>1.3888888888888888</v>
@@ -7594,13 +8648,13 @@
       <c r="I19" s="1"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
+      <c r="L19" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -7739,13 +8793,13 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
-      <c r="C23" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
+      <c r="C23" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="1">
         <f>(10-B25/0.9)/4</f>
         <v>1.1111111111111112</v>
@@ -7753,13 +8807,13 @@
       <c r="I23" s="1"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
+      <c r="L23" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -7890,21 +8944,21 @@
       <c r="M26" s="12"/>
       <c r="N26" s="1"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
-      <c r="C27" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
+      <c r="C27" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
       <c r="H27" s="1">
         <f>(10-B29/0.9)/4</f>
         <v>0.83333333333333348</v>
@@ -7912,13 +8966,13 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
+      <c r="L27" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
@@ -8056,13 +9110,13 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C31" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
+      <c r="C31" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
       <c r="H31" s="1">
         <f>(10-B33/0.9)/4</f>
         <v>0.55555555555555558</v>
@@ -8070,13 +9124,13 @@
       <c r="I31" s="1"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
+      <c r="L31" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -8215,13 +9269,13 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
-      <c r="C35" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
+      <c r="C35" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
       <c r="H35" s="1">
         <f>(10-B37/0.9)/4</f>
         <v>0.27777777777777768</v>
@@ -8229,13 +9283,13 @@
       <c r="I35" s="1"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
+      <c r="L35" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -8374,13 +9428,13 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
-      <c r="C39" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
+      <c r="C39" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
       <c r="H39" s="1">
         <f>(10-B41/0.9)/4</f>
         <v>0</v>
@@ -8388,13 +9442,13 @@
       <c r="I39" s="1"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
+      <c r="L39" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -8531,13 +9585,13 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
-      <c r="C43" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
+      <c r="C43" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
       <c r="H43">
         <f>(10-B45/0.9)/4</f>
         <v>-0.27777777777777768</v>
@@ -8545,13 +9599,13 @@
       <c r="I43" s="1"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
+      <c r="L43" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -8702,6 +9756,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="Q3:AA3"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="L23:P23"/>
     <mergeCell ref="C39:G39"/>
     <mergeCell ref="L39:P39"/>
     <mergeCell ref="C43:G43"/>
@@ -8713,19 +9780,6 @@
     <mergeCell ref="L31:P31"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="L35:P35"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="Q3:AA3"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="L7:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/N-charge vs aux.xlsx
+++ b/N-charge vs aux.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitSource-Batteries\Batteries-long-optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE61BED3-B99D-43A4-ADC1-3A761130CBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195CE03F-D41D-4E2B-88D2-5986901C1E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="3" xr2:uid="{07A2B37E-C981-48DC-B40F-DAC0293FFA96}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="22">
   <si>
     <t>SOC(t)</t>
   </si>
@@ -99,13 +99,13 @@
     <t>deg_5</t>
   </si>
   <si>
-    <t>Pdis/0.9*Aux(t)</t>
-  </si>
-  <si>
     <t>P_aux_dis</t>
   </si>
   <si>
-    <t>Paux/0.9*Aux(t)</t>
+    <t>Pd</t>
+  </si>
+  <si>
+    <t>Paux*Aux(t)</t>
   </si>
 </sst>
 </file>
@@ -114,7 +114,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.00000000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -139,7 +139,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,6 +185,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -324,36 +336,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -365,25 +347,67 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,32 +900,32 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="R3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
+      <c r="C3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="R3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -978,7 +1002,7 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="39" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -1028,7 +1052,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="39" t="s">
         <v>1</v>
       </c>
       <c r="Q5" s="7">
@@ -1080,7 +1104,7 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="39"/>
       <c r="B6" s="3">
         <v>1</v>
       </c>
@@ -1128,7 +1152,7 @@
         <f t="shared" si="2"/>
         <v>10.9</v>
       </c>
-      <c r="P6" s="20"/>
+      <c r="P6" s="39"/>
       <c r="Q6" s="7">
         <v>1</v>
       </c>
@@ -1174,7 +1198,7 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="3">
         <v>2</v>
       </c>
@@ -1222,7 +1246,7 @@
         <f t="shared" ref="M7:M15" si="4">2-(2*M$4+$B7*0.9/1)/($D$1)</f>
         <v>-0.18000000000000016</v>
       </c>
-      <c r="P7" s="20"/>
+      <c r="P7" s="39"/>
       <c r="Q7" s="7">
         <v>2</v>
       </c>
@@ -1264,7 +1288,7 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="3">
         <v>3</v>
       </c>
@@ -1312,7 +1336,7 @@
         <f t="shared" si="4"/>
         <v>-0.27</v>
       </c>
-      <c r="P8" s="20"/>
+      <c r="P8" s="39"/>
       <c r="Q8" s="7">
         <v>3</v>
       </c>
@@ -1350,7 +1374,7 @@
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="39"/>
       <c r="B9" s="3">
         <v>4</v>
       </c>
@@ -1398,7 +1422,7 @@
         <f t="shared" si="4"/>
         <v>-0.36000000000000032</v>
       </c>
-      <c r="P9" s="20"/>
+      <c r="P9" s="39"/>
       <c r="Q9" s="7">
         <v>4</v>
       </c>
@@ -1432,7 +1456,7 @@
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="3">
         <v>5</v>
       </c>
@@ -1480,7 +1504,7 @@
         <f t="shared" si="4"/>
         <v>-0.45000000000000018</v>
       </c>
-      <c r="P10" s="20"/>
+      <c r="P10" s="39"/>
       <c r="Q10" s="7">
         <v>5</v>
       </c>
@@ -1510,7 +1534,7 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="39"/>
       <c r="B11" s="3">
         <v>6</v>
       </c>
@@ -1558,7 +1582,7 @@
         <f t="shared" si="4"/>
         <v>-0.54</v>
       </c>
-      <c r="P11" s="20"/>
+      <c r="P11" s="39"/>
       <c r="Q11" s="7">
         <v>6</v>
       </c>
@@ -1584,7 +1608,7 @@
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="39"/>
       <c r="B12" s="3">
         <v>7</v>
       </c>
@@ -1632,7 +1656,7 @@
         <f t="shared" si="4"/>
         <v>-0.62999999999999989</v>
       </c>
-      <c r="P12" s="20"/>
+      <c r="P12" s="39"/>
       <c r="Q12" s="7">
         <v>7</v>
       </c>
@@ -1654,7 +1678,7 @@
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="3">
         <v>8</v>
       </c>
@@ -1702,7 +1726,7 @@
         <f t="shared" si="4"/>
         <v>-0.71999999999999975</v>
       </c>
-      <c r="P13" s="20"/>
+      <c r="P13" s="39"/>
       <c r="Q13" s="7">
         <v>8</v>
       </c>
@@ -1720,7 +1744,7 @@
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="3">
         <v>9</v>
       </c>
@@ -1768,7 +1792,7 @@
         <f t="shared" si="4"/>
         <v>-0.81</v>
       </c>
-      <c r="P14" s="20"/>
+      <c r="P14" s="39"/>
       <c r="Q14" s="7">
         <v>9</v>
       </c>
@@ -1782,7 +1806,7 @@
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="3">
         <v>10</v>
       </c>
@@ -1830,7 +1854,7 @@
         <f t="shared" si="4"/>
         <v>-0.89999999999999991</v>
       </c>
-      <c r="P15" s="20"/>
+      <c r="P15" s="39"/>
       <c r="Q15" s="7">
         <v>10</v>
       </c>
@@ -1860,20 +1884,20 @@
       </c>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C20" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="J20" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
+      <c r="C20" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="J20" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
@@ -2280,23 +2304,23 @@
         <v>17.2</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
+      <c r="J30" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
       <c r="P30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Q30" s="22" t="s">
+      <c r="Q30" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
@@ -2508,13 +2532,13 @@
       <c r="U34" s="1"/>
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="C35" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
+      <c r="C35" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
       <c r="I35" s="4">
         <v>6</v>
       </c>
@@ -2914,13 +2938,13 @@
       <c r="B50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="4">
@@ -3110,16 +3134,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:A15"/>
+    <mergeCell ref="J30:N30"/>
+    <mergeCell ref="Q30:U30"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C50:G50"/>
     <mergeCell ref="R3:AB3"/>
     <mergeCell ref="P5:P15"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="J20:N20"/>
     <mergeCell ref="C3:M3"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C50:G50"/>
   </mergeCells>
   <conditionalFormatting sqref="C22:G32">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="between">
@@ -3166,35 +3190,35 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="C3" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
       <c r="H3">
         <f>(10-B5*1*0.9)/4</f>
         <v>2.5</v>
       </c>
-      <c r="L3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
+      <c r="L3" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -3300,24 +3324,24 @@
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="C7" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
       <c r="H7" s="1">
         <f>(10-1*1*0.9)/4</f>
         <v>2.2749999999999999</v>
       </c>
-      <c r="L7" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
+      <c r="L7" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -3454,13 +3478,13 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="C11" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="1">
         <f>(10-B13*1*0.9)/4</f>
         <v>2.0499999999999998</v>
@@ -3468,13 +3492,13 @@
       <c r="I11" s="1"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
+      <c r="L11" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -3612,13 +3636,13 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
-      <c r="C15" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
+      <c r="C15" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="1">
         <f>(10-B17*1*0.9)/4</f>
         <v>1.825</v>
@@ -3626,13 +3650,13 @@
       <c r="I15" s="1"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
+      <c r="L15" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -3769,13 +3793,13 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
-      <c r="C19" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="C19" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
       <c r="H19" s="1">
         <f>(10-B21*1*0.9)/4</f>
         <v>1.6</v>
@@ -3783,13 +3807,13 @@
       <c r="I19" s="1"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
+      <c r="L19" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -3927,13 +3951,13 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
-      <c r="C23" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
+      <c r="C23" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
       <c r="H23" s="1">
         <f>(10-B25*1*0.9)/4</f>
         <v>1.375</v>
@@ -3941,13 +3965,13 @@
       <c r="I23" s="1"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
+      <c r="L23" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -4077,21 +4101,21 @@
       <c r="M26" s="12"/>
       <c r="N26" s="1"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
-      <c r="C27" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
+      <c r="C27" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
       <c r="H27" s="1">
         <f>(10-B29*1*0.9)/4</f>
         <v>1.1499999999999999</v>
@@ -4099,13 +4123,13 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
+      <c r="L27" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
@@ -4242,13 +4266,13 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C31" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
+      <c r="C31" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
       <c r="H31" s="1">
         <f>(10-B33*1*0.9)/4</f>
         <v>0.92500000000000004</v>
@@ -4256,13 +4280,13 @@
       <c r="I31" s="1"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
+      <c r="L31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -4400,13 +4424,13 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
-      <c r="C35" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
+      <c r="C35" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
       <c r="H35" s="1">
         <f>(10-B37*1*0.9)/4</f>
         <v>0.7</v>
@@ -4414,13 +4438,13 @@
       <c r="I35" s="1"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
+      <c r="L35" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -4558,13 +4582,13 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
-      <c r="C39" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
+      <c r="C39" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
       <c r="H39" s="1">
         <f>(10-B41*1*0.9)/4</f>
         <v>0.47500000000000009</v>
@@ -4572,13 +4596,13 @@
       <c r="I39" s="1"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
+      <c r="L39" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -4714,13 +4738,13 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
-      <c r="C43" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
+      <c r="C43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
       <c r="H43">
         <f>(10-B45*1*0.9)/4</f>
         <v>0.25</v>
@@ -4728,13 +4752,13 @@
       <c r="I43" s="1"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
+      <c r="L43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -4884,14 +4908,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C23:G23"/>
     <mergeCell ref="C43:G43"/>
     <mergeCell ref="L3:P3"/>
     <mergeCell ref="L7:P7"/>
@@ -4908,6 +4924,14 @@
     <mergeCell ref="C31:G31"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="Q3:AA3"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4916,10 +4940,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145322F6-4020-4BBA-9C6E-7E31B08FA980}">
-  <dimension ref="A1:AP62"/>
+  <dimension ref="A2:AQ63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25"/>
+      <selection activeCell="AP29" sqref="AP29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4929,2972 +4953,2859 @@
     <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="27" width="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="27" width="11" bestFit="1" customWidth="1"/>
     <col min="32" max="34" width="11" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="10" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="11" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R2" t="s">
         <v>3</v>
       </c>
-      <c r="S1">
+      <c r="S2">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="C3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="R3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AF3" s="29" t="s">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="C4" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="R4" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="56"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="21">
+        <v>2</v>
+      </c>
+      <c r="F5" s="22">
+        <v>3</v>
+      </c>
+      <c r="G5" s="22">
+        <v>4</v>
+      </c>
+      <c r="H5" s="22">
+        <v>5</v>
+      </c>
+      <c r="I5" s="22">
+        <v>6</v>
+      </c>
+      <c r="J5" s="22">
+        <v>7</v>
+      </c>
+      <c r="K5" s="22">
+        <v>8</v>
+      </c>
+      <c r="L5" s="22">
+        <v>9</v>
+      </c>
+      <c r="M5" s="23">
+        <v>10</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="49">
+        <v>0</v>
+      </c>
+      <c r="S5" s="49">
+        <v>1</v>
+      </c>
+      <c r="T5" s="50">
+        <v>2</v>
+      </c>
+      <c r="U5" s="51">
+        <v>3</v>
+      </c>
+      <c r="V5" s="51">
+        <v>4</v>
+      </c>
+      <c r="W5" s="51">
+        <v>5</v>
+      </c>
+      <c r="X5" s="51">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="51">
+        <v>7</v>
+      </c>
+      <c r="Z5" s="51">
+        <v>8</v>
+      </c>
+      <c r="AA5" s="51">
+        <v>9</v>
+      </c>
+      <c r="AB5" s="52">
+        <v>10</v>
+      </c>
+      <c r="AD5" t="s">
         <v>19</v>
       </c>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="29"/>
-      <c r="AP3" s="29"/>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="AF5" s="56"/>
+      <c r="AG5" s="56"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="56"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>C5-1*$B6/0.9</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>D5-1*$B6/0.9</f>
+        <v>1</v>
+      </c>
+      <c r="E6" s="24">
+        <f>E5-1*$B6/0.9</f>
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="31">
-        <v>2</v>
-      </c>
-      <c r="F4" s="32">
+      <c r="F6">
+        <f t="shared" ref="F6:M6" si="0">F5-1*$B6/0.9</f>
         <v>3</v>
       </c>
-      <c r="G4" s="32">
-        <v>4</v>
-      </c>
-      <c r="H4" s="32">
-        <v>5</v>
-      </c>
-      <c r="I4" s="32">
-        <v>6</v>
-      </c>
-      <c r="J4" s="32">
-        <v>7</v>
-      </c>
-      <c r="K4" s="32">
-        <v>8</v>
-      </c>
-      <c r="L4" s="32">
-        <v>9</v>
-      </c>
-      <c r="M4" s="33">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4" s="43">
-        <v>2</v>
-      </c>
-      <c r="U4" s="44">
-        <v>3</v>
-      </c>
-      <c r="V4" s="44">
-        <v>4</v>
-      </c>
-      <c r="W4" s="44">
-        <v>5</v>
-      </c>
-      <c r="X4" s="44">
-        <v>6</v>
-      </c>
-      <c r="Y4" s="44">
-        <v>7</v>
-      </c>
-      <c r="Z4" s="44">
-        <v>8</v>
-      </c>
-      <c r="AA4" s="44">
-        <v>9</v>
-      </c>
-      <c r="AB4" s="45">
-        <v>10</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <f>C4-1*$B5/0.9</f>
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <f>D4-1*$B5/0.9</f>
-        <v>1</v>
-      </c>
-      <c r="E5" s="34">
-        <f t="shared" ref="E5:M5" si="0">E4-1*$B5/0.9</f>
-        <v>2</v>
-      </c>
-      <c r="F5" s="35">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G5" s="35">
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J5" s="35">
+      <c r="J6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="K5" s="35">
+      <c r="K6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L5" s="35">
+      <c r="L6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M5" s="36">
+      <c r="M6" s="25">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P6" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="30">
-        <f>2-(C5+C$4)/($D$1)</f>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="20">
+        <f>(C6+C$5)/($D$2)</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f>(D6+D$5)/($D$2)</f>
+        <v>0.2</v>
+      </c>
+      <c r="T6" s="24">
+        <f>(E6+E$5)/($D$2)</f>
+        <v>0.4</v>
+      </c>
+      <c r="U6" s="24">
+        <f>(F6+F$5)/($D$2)</f>
+        <v>0.6</v>
+      </c>
+      <c r="V6" s="24">
+        <f>(G6+G$5)/($D$2)</f>
+        <v>0.8</v>
+      </c>
+      <c r="W6" s="24">
+        <f>(H6+H$5)/($D$2)</f>
+        <v>1</v>
+      </c>
+      <c r="X6" s="24">
+        <f>(I6+I$5)/($D$2)</f>
+        <v>1.2</v>
+      </c>
+      <c r="Y6" s="24">
+        <f>(J6+J$5)/($D$2)</f>
+        <v>1.4</v>
+      </c>
+      <c r="Z6" s="24">
+        <f>(K6+K$5)/($D$2)</f>
+        <v>1.6</v>
+      </c>
+      <c r="AA6" s="24">
+        <f>(L6+L$5)/($D$2)</f>
+        <v>1.8</v>
+      </c>
+      <c r="AB6" s="48">
+        <f>(M6+M$5)/($D$2)</f>
         <v>2</v>
       </c>
-      <c r="S5">
-        <f>2-(D5+D$4)/($D$1)</f>
-        <v>1.8</v>
-      </c>
-      <c r="T5" s="34">
-        <f>(E5+E$4)/($D$1)</f>
-        <v>0.4</v>
-      </c>
-      <c r="U5" s="34">
-        <f t="shared" ref="U5:AB12" si="1">(F5+F$4)/($D$1)</f>
-        <v>0.6</v>
-      </c>
-      <c r="V5" s="34">
+      <c r="AD6">
+        <f>(Q6/10)/0.9</f>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="56"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="56"/>
+      <c r="AK6" s="56"/>
+      <c r="AL6" s="56"/>
+      <c r="AM6" s="56"/>
+      <c r="AN6" s="56"/>
+      <c r="AO6" s="56"/>
+      <c r="AP6" s="56"/>
+      <c r="AQ6" s="54"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" s="39"/>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="16">
+        <f>C$5-1*$B7/0.9</f>
+        <v>-1.1111111111111112</v>
+      </c>
+      <c r="D7" s="16">
+        <f>D$5-1*$B7/0.9</f>
+        <v>-0.11111111111111116</v>
+      </c>
+      <c r="E7" s="26">
+        <f>E$5-1*$B7/0.9</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="F7" s="16">
+        <f>F$5-1*$B7/0.9</f>
+        <v>1.8888888888888888</v>
+      </c>
+      <c r="G7" s="16">
+        <f>G$5-1*$B7/0.9</f>
+        <v>2.8888888888888888</v>
+      </c>
+      <c r="H7" s="16">
+        <f>H$5-1*$B7/0.9</f>
+        <v>3.8888888888888888</v>
+      </c>
+      <c r="I7" s="16">
+        <f>I$5-1*$B7/0.9</f>
+        <v>4.8888888888888893</v>
+      </c>
+      <c r="J7" s="16">
+        <f>J$5-1*$B7/0.9</f>
+        <v>5.8888888888888893</v>
+      </c>
+      <c r="K7" s="16">
+        <f>K$5-1*$B7/0.9</f>
+        <v>6.8888888888888893</v>
+      </c>
+      <c r="L7" s="16">
+        <f>L$5-1*$B7/0.9</f>
+        <v>7.8888888888888893</v>
+      </c>
+      <c r="M7" s="27">
+        <f>M$5-1*$B7/0.9</f>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="7">
+        <v>1</v>
+      </c>
+      <c r="T7" s="24">
+        <f>(E7+E$5)/($D$2)</f>
+        <v>0.28888888888888886</v>
+      </c>
+      <c r="U7" s="24">
+        <f>(F7+F$5)/($D$2)</f>
+        <v>0.48888888888888893</v>
+      </c>
+      <c r="V7" s="24">
+        <f>(G7+G$5)/($D$2)</f>
+        <v>0.68888888888888888</v>
+      </c>
+      <c r="W7" s="24">
+        <f>(H7+H$5)/($D$2)</f>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="X7" s="24">
+        <f>(I7+I$5)/($D$2)</f>
+        <v>1.088888888888889</v>
+      </c>
+      <c r="Y7" s="24">
+        <f>(J7+J$5)/($D$2)</f>
+        <v>1.288888888888889</v>
+      </c>
+      <c r="Z7" s="24">
+        <f>(K7+K$5)/($D$2)</f>
+        <v>1.4888888888888889</v>
+      </c>
+      <c r="AA7" s="24">
+        <f>(L7+L$5)/($D$2)</f>
+        <v>1.6888888888888889</v>
+      </c>
+      <c r="AB7" s="24">
+        <f>(M7+M$5)/($D$2)</f>
+        <v>1.8888888888888888</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" ref="AD7:AD16" si="1">(Q7/10)/0.9</f>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="56"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="56"/>
+      <c r="AN7" s="56"/>
+      <c r="AO7" s="56"/>
+      <c r="AP7" s="56"/>
+      <c r="AQ7" s="54"/>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="16">
+        <f>C$5-1*$B8/0.9</f>
+        <v>-2.2222222222222223</v>
+      </c>
+      <c r="D8" s="16">
+        <f>D$5-1*$B8/0.9</f>
+        <v>-1.2222222222222223</v>
+      </c>
+      <c r="E8" s="26">
+        <f>E$5-1*$B8/0.9</f>
+        <v>-0.22222222222222232</v>
+      </c>
+      <c r="F8" s="16">
+        <f>F$5-1*$B8/0.9</f>
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="G8" s="16">
+        <f>G$5-1*$B8/0.9</f>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="H8" s="16">
+        <f>H$5-1*$B8/0.9</f>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="I8" s="16">
+        <f>I$5-1*$B8/0.9</f>
+        <v>3.7777777777777777</v>
+      </c>
+      <c r="J8" s="16">
+        <f>J$5-1*$B8/0.9</f>
+        <v>4.7777777777777777</v>
+      </c>
+      <c r="K8" s="16">
+        <f>K$5-1*$B8/0.9</f>
+        <v>5.7777777777777777</v>
+      </c>
+      <c r="L8" s="16">
+        <f>L$5-1*$B8/0.9</f>
+        <v>6.7777777777777777</v>
+      </c>
+      <c r="M8" s="27">
+        <f>M$5-1*$B8/0.9</f>
+        <v>7.7777777777777777</v>
+      </c>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="7">
+        <v>2</v>
+      </c>
+      <c r="T8" s="24"/>
+      <c r="U8">
+        <f>(F8+F$5)/($D$2)</f>
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="V8">
+        <f>(G8+G$5)/($D$2)</f>
+        <v>0.57777777777777772</v>
+      </c>
+      <c r="W8">
+        <f>(H8+H$5)/($D$2)</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="X8">
+        <f>(I8+I$5)/($D$2)</f>
+        <v>0.97777777777777786</v>
+      </c>
+      <c r="Y8">
+        <f>(J8+J$5)/($D$2)</f>
+        <v>1.1777777777777778</v>
+      </c>
+      <c r="Z8">
+        <f>(K8+K$5)/($D$2)</f>
+        <v>1.3777777777777778</v>
+      </c>
+      <c r="AA8">
+        <f>(L8+L$5)/($D$2)</f>
+        <v>1.5777777777777779</v>
+      </c>
+      <c r="AB8">
+        <f>(M8+M$5)/($D$2)</f>
+        <v>1.7777777777777779</v>
+      </c>
+      <c r="AD8">
         <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="W5" s="34">
+        <v>0.22222222222222224</v>
+      </c>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
+      <c r="AN8" s="56"/>
+      <c r="AO8" s="56"/>
+      <c r="AP8" s="56"/>
+      <c r="AQ8" s="54"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="16">
+        <f t="shared" ref="C9:C15" si="2">C$5-1*$B9/0.9</f>
+        <v>-3.333333333333333</v>
+      </c>
+      <c r="D9" s="16">
+        <f>D$5-1*$B9/0.9</f>
+        <v>-2.333333333333333</v>
+      </c>
+      <c r="E9" s="26">
+        <f>E$5-1*$B9/0.9</f>
+        <v>-1.333333333333333</v>
+      </c>
+      <c r="F9" s="16">
+        <f>F$5-1*$B9/0.9</f>
+        <v>-0.33333333333333304</v>
+      </c>
+      <c r="G9" s="16">
+        <f>G$5-1*$B9/0.9</f>
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="H9" s="16">
+        <f>H$5-1*$B9/0.9</f>
+        <v>1.666666666666667</v>
+      </c>
+      <c r="I9" s="16">
+        <f>I$5-1*$B9/0.9</f>
+        <v>2.666666666666667</v>
+      </c>
+      <c r="J9" s="16">
+        <f>J$5-1*$B9/0.9</f>
+        <v>3.666666666666667</v>
+      </c>
+      <c r="K9" s="16">
+        <f>K$5-1*$B9/0.9</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="L9" s="16">
+        <f>L$5-1*$B9/0.9</f>
+        <v>5.666666666666667</v>
+      </c>
+      <c r="M9" s="27">
+        <f>M$5-1*$B9/0.9</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="7">
+        <v>3</v>
+      </c>
+      <c r="T9" s="24"/>
+      <c r="V9">
+        <f>(G9+G$5)/($D$2)</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="W9">
+        <f>(H9+H$5)/($D$2)</f>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="X9">
+        <f>(I9+I$5)/($D$2)</f>
+        <v>0.86666666666666681</v>
+      </c>
+      <c r="Y9">
+        <f>(J9+J$5)/($D$2)</f>
+        <v>1.0666666666666669</v>
+      </c>
+      <c r="Z9">
+        <f>(K9+K$5)/($D$2)</f>
+        <v>1.2666666666666668</v>
+      </c>
+      <c r="AA9">
+        <f>(L9+L$5)/($D$2)</f>
+        <v>1.4666666666666668</v>
+      </c>
+      <c r="AB9">
+        <f>(M9+M$5)/($D$2)</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="AD9">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X5" s="34">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="56"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="56"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="56"/>
+      <c r="AN9" s="56"/>
+      <c r="AO9" s="56"/>
+      <c r="AP9" s="56"/>
+      <c r="AQ9" s="54"/>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" s="16">
+        <f t="shared" si="2"/>
+        <v>-4.4444444444444446</v>
+      </c>
+      <c r="D10" s="16">
+        <f>D$5-1*$B10/0.9</f>
+        <v>-3.4444444444444446</v>
+      </c>
+      <c r="E10" s="26">
+        <f>E$5-1*$B10/0.9</f>
+        <v>-2.4444444444444446</v>
+      </c>
+      <c r="F10" s="16">
+        <f>F$5-1*$B10/0.9</f>
+        <v>-1.4444444444444446</v>
+      </c>
+      <c r="G10" s="16">
+        <f>G$5-1*$B10/0.9</f>
+        <v>-0.44444444444444464</v>
+      </c>
+      <c r="H10" s="16">
+        <f>H$5-1*$B10/0.9</f>
+        <v>0.55555555555555536</v>
+      </c>
+      <c r="I10" s="16">
+        <f>I$5-1*$B10/0.9</f>
+        <v>1.5555555555555554</v>
+      </c>
+      <c r="J10" s="16">
+        <f>J$5-1*$B10/0.9</f>
+        <v>2.5555555555555554</v>
+      </c>
+      <c r="K10" s="16">
+        <f>K$5-1*$B10/0.9</f>
+        <v>3.5555555555555554</v>
+      </c>
+      <c r="L10" s="16">
+        <f>L$5-1*$B10/0.9</f>
+        <v>4.5555555555555554</v>
+      </c>
+      <c r="M10" s="27">
+        <f>M$5-1*$B10/0.9</f>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="7">
+        <v>4</v>
+      </c>
+      <c r="T10" s="24"/>
+      <c r="W10">
+        <f>(H10+H$5)/($D$2)</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="X10">
+        <f>(I10+I$5)/($D$2)</f>
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="Y10">
+        <f>(J10+J$5)/($D$2)</f>
+        <v>0.95555555555555549</v>
+      </c>
+      <c r="Z10">
+        <f>(K10+K$5)/($D$2)</f>
+        <v>1.1555555555555554</v>
+      </c>
+      <c r="AA10">
+        <f>(L10+L$5)/($D$2)</f>
+        <v>1.3555555555555556</v>
+      </c>
+      <c r="AB10">
+        <f>(M10+M$5)/($D$2)</f>
+        <v>1.5555555555555556</v>
+      </c>
+      <c r="AD10">
         <f t="shared" si="1"/>
-        <v>1.2</v>
-      </c>
-      <c r="Y5" s="34">
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="56"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="56"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="56"/>
+      <c r="AP10" s="56"/>
+      <c r="AQ10" s="54"/>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="3">
+        <v>5</v>
+      </c>
+      <c r="C11" s="16">
+        <f t="shared" si="2"/>
+        <v>-5.5555555555555554</v>
+      </c>
+      <c r="D11" s="16">
+        <f>D$5-1*$B11/0.9</f>
+        <v>-4.5555555555555554</v>
+      </c>
+      <c r="E11" s="26">
+        <f>E$5-1*$B11/0.9</f>
+        <v>-3.5555555555555554</v>
+      </c>
+      <c r="F11" s="16">
+        <f>F$5-1*$B11/0.9</f>
+        <v>-2.5555555555555554</v>
+      </c>
+      <c r="G11" s="16">
+        <f>G$5-1*$B11/0.9</f>
+        <v>-1.5555555555555554</v>
+      </c>
+      <c r="H11" s="16">
+        <f>H$5-1*$B11/0.9</f>
+        <v>-0.55555555555555536</v>
+      </c>
+      <c r="I11" s="16">
+        <f>I$5-1*$B11/0.9</f>
+        <v>0.44444444444444464</v>
+      </c>
+      <c r="J11" s="16">
+        <f>J$5-1*$B11/0.9</f>
+        <v>1.4444444444444446</v>
+      </c>
+      <c r="K11" s="16">
+        <f>K$5-1*$B11/0.9</f>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="L11" s="16">
+        <f>L$5-1*$B11/0.9</f>
+        <v>3.4444444444444446</v>
+      </c>
+      <c r="M11" s="27">
+        <f>M$5-1*$B11/0.9</f>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="P11" s="39"/>
+      <c r="Q11" s="7">
+        <v>5</v>
+      </c>
+      <c r="T11" s="24"/>
+      <c r="X11">
+        <f>(I11+I$5)/($D$2)</f>
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="Y11">
+        <f>(J11+J$5)/($D$2)</f>
+        <v>0.84444444444444444</v>
+      </c>
+      <c r="Z11">
+        <f>(K11+K$5)/($D$2)</f>
+        <v>1.0444444444444445</v>
+      </c>
+      <c r="AA11">
+        <f>(L11+L$5)/($D$2)</f>
+        <v>1.2444444444444445</v>
+      </c>
+      <c r="AB11">
+        <f>(M11+M$5)/($D$2)</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="AD11">
         <f t="shared" si="1"/>
-        <v>1.4</v>
-      </c>
-      <c r="Z5" s="34">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="56"/>
+      <c r="AK11" s="56"/>
+      <c r="AL11" s="56"/>
+      <c r="AM11" s="56"/>
+      <c r="AN11" s="56"/>
+      <c r="AO11" s="56"/>
+      <c r="AP11" s="56"/>
+      <c r="AQ11" s="54"/>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="3">
+        <v>6</v>
+      </c>
+      <c r="C12" s="16">
+        <f t="shared" si="2"/>
+        <v>-6.6666666666666661</v>
+      </c>
+      <c r="D12" s="16">
+        <f>D$5-1*$B12/0.9</f>
+        <v>-5.6666666666666661</v>
+      </c>
+      <c r="E12" s="26">
+        <f>E$5-1*$B12/0.9</f>
+        <v>-4.6666666666666661</v>
+      </c>
+      <c r="F12" s="16">
+        <f>F$5-1*$B12/0.9</f>
+        <v>-3.6666666666666661</v>
+      </c>
+      <c r="G12" s="16">
+        <f>G$5-1*$B12/0.9</f>
+        <v>-2.6666666666666661</v>
+      </c>
+      <c r="H12" s="16">
+        <f>H$5-1*$B12/0.9</f>
+        <v>-1.6666666666666661</v>
+      </c>
+      <c r="I12" s="16">
+        <f>I$5-1*$B12/0.9</f>
+        <v>-0.66666666666666607</v>
+      </c>
+      <c r="J12" s="16">
+        <f>J$5-1*$B12/0.9</f>
+        <v>0.33333333333333393</v>
+      </c>
+      <c r="K12" s="16">
+        <f>K$5-1*$B12/0.9</f>
+        <v>1.3333333333333339</v>
+      </c>
+      <c r="L12" s="16">
+        <f>L$5-1*$B12/0.9</f>
+        <v>2.3333333333333339</v>
+      </c>
+      <c r="M12" s="27">
+        <f>M$5-1*$B12/0.9</f>
+        <v>3.3333333333333339</v>
+      </c>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="7">
+        <v>6</v>
+      </c>
+      <c r="T12" s="24"/>
+      <c r="Y12">
+        <f>(J12+J$5)/($D$2)</f>
+        <v>0.73333333333333339</v>
+      </c>
+      <c r="Z12">
+        <f>(K12+K$5)/($D$2)</f>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="AA12">
+        <f>(L12+L$5)/($D$2)</f>
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="AB12">
+        <f>(M12+M$5)/($D$2)</f>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="AD12">
         <f t="shared" si="1"/>
-        <v>1.6</v>
-      </c>
-      <c r="AA5" s="34">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="56"/>
+      <c r="AP12" s="56"/>
+      <c r="AQ12" s="54"/>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="3">
+        <v>7</v>
+      </c>
+      <c r="C13" s="16">
+        <f>C$5-1*$B13/0.9</f>
+        <v>-7.7777777777777777</v>
+      </c>
+      <c r="D13" s="16">
+        <f>D$5-1*$B13/0.9</f>
+        <v>-6.7777777777777777</v>
+      </c>
+      <c r="E13" s="26">
+        <f>E$5-1*$B13/0.9</f>
+        <v>-5.7777777777777777</v>
+      </c>
+      <c r="F13" s="16">
+        <f>F$5-1*$B13/0.9</f>
+        <v>-4.7777777777777777</v>
+      </c>
+      <c r="G13" s="16">
+        <f>G$5-1*$B13/0.9</f>
+        <v>-3.7777777777777777</v>
+      </c>
+      <c r="H13" s="16">
+        <f>H$5-1*$B13/0.9</f>
+        <v>-2.7777777777777777</v>
+      </c>
+      <c r="I13" s="16">
+        <f>I$5-1*$B13/0.9</f>
+        <v>-1.7777777777777777</v>
+      </c>
+      <c r="J13" s="16">
+        <f>J$5-1*$B13/0.9</f>
+        <v>-0.77777777777777768</v>
+      </c>
+      <c r="K13" s="16">
+        <f>K$5-1*$B13/0.9</f>
+        <v>0.22222222222222232</v>
+      </c>
+      <c r="L13" s="16">
+        <f>L$5-1*$B13/0.9</f>
+        <v>1.2222222222222223</v>
+      </c>
+      <c r="M13" s="27">
+        <f>M$5-1*$B13/0.9</f>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="7">
+        <v>7</v>
+      </c>
+      <c r="T13" s="24"/>
+      <c r="Z13">
+        <f>(K13+K$5)/($D$2)</f>
+        <v>0.82222222222222219</v>
+      </c>
+      <c r="AA13">
+        <f>(L13+L$5)/($D$2)</f>
+        <v>1.0222222222222221</v>
+      </c>
+      <c r="AB13">
+        <f>(M13+M$5)/($D$2)</f>
+        <v>1.2222222222222221</v>
+      </c>
+      <c r="AD13">
         <f t="shared" si="1"/>
-        <v>1.8</v>
-      </c>
-      <c r="AB5" s="34">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AD5">
-        <f>Q5/10/0.9</f>
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <f>R5/0.9*($Q5/0.9)</f>
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <f t="shared" ref="AG5:AP5" si="2">S5/0.9*($Q5/0.9)</f>
-        <v>0</v>
-      </c>
-      <c r="AH5" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AI5" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AK5" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AL5" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AM5" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AN5" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AO5" s="44">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AP5" s="45">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16">
-        <f>C$4-1*$B6/0.9</f>
-        <v>-1.1111111111111112</v>
-      </c>
-      <c r="D6" s="16">
-        <f t="shared" ref="D6:M15" si="3">D$4-1*$B6/0.9</f>
-        <v>-0.11111111111111116</v>
-      </c>
-      <c r="E6" s="37">
-        <f t="shared" si="3"/>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="F6" s="38">
-        <f t="shared" si="3"/>
-        <v>1.8888888888888888</v>
-      </c>
-      <c r="G6" s="38">
-        <f t="shared" si="3"/>
-        <v>2.8888888888888888</v>
-      </c>
-      <c r="H6" s="38">
-        <f t="shared" si="3"/>
-        <v>3.8888888888888888</v>
-      </c>
-      <c r="I6" s="38">
-        <f t="shared" si="3"/>
-        <v>4.8888888888888893</v>
-      </c>
-      <c r="J6" s="38">
-        <f t="shared" si="3"/>
-        <v>5.8888888888888893</v>
-      </c>
-      <c r="K6" s="38">
-        <f t="shared" si="3"/>
-        <v>6.8888888888888893</v>
-      </c>
-      <c r="L6" s="38">
-        <f t="shared" si="3"/>
-        <v>7.8888888888888893</v>
-      </c>
-      <c r="M6" s="39">
-        <f>M$4-1*$B6/0.9</f>
-        <v>8.8888888888888893</v>
-      </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="7">
-        <v>1</v>
-      </c>
-      <c r="T6" s="34">
-        <f>(E6+E$4)/($D$1)</f>
-        <v>0.28888888888888886</v>
-      </c>
-      <c r="U6" s="34">
-        <f t="shared" si="1"/>
-        <v>0.48888888888888893</v>
-      </c>
-      <c r="V6" s="34">
-        <f t="shared" si="1"/>
-        <v>0.68888888888888888</v>
-      </c>
-      <c r="W6" s="34">
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="56"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="56"/>
+      <c r="AK13" s="56"/>
+      <c r="AL13" s="56"/>
+      <c r="AM13" s="56"/>
+      <c r="AN13" s="56"/>
+      <c r="AO13" s="56"/>
+      <c r="AP13" s="56"/>
+      <c r="AQ13" s="54"/>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="3">
+        <v>8</v>
+      </c>
+      <c r="C14" s="16">
+        <f t="shared" si="2"/>
+        <v>-8.8888888888888893</v>
+      </c>
+      <c r="D14" s="16">
+        <f>D$5-1*$B14/0.9</f>
+        <v>-7.8888888888888893</v>
+      </c>
+      <c r="E14" s="26">
+        <f>E$5-1*$B14/0.9</f>
+        <v>-6.8888888888888893</v>
+      </c>
+      <c r="F14" s="16">
+        <f>F$5-1*$B14/0.9</f>
+        <v>-5.8888888888888893</v>
+      </c>
+      <c r="G14" s="16">
+        <f>G$5-1*$B14/0.9</f>
+        <v>-4.8888888888888893</v>
+      </c>
+      <c r="H14" s="16">
+        <f>H$5-1*$B14/0.9</f>
+        <v>-3.8888888888888893</v>
+      </c>
+      <c r="I14" s="16">
+        <f>I$5-1*$B14/0.9</f>
+        <v>-2.8888888888888893</v>
+      </c>
+      <c r="J14" s="16">
+        <f>J$5-1*$B14/0.9</f>
+        <v>-1.8888888888888893</v>
+      </c>
+      <c r="K14" s="16">
+        <f>K$5-1*$B14/0.9</f>
+        <v>-0.88888888888888928</v>
+      </c>
+      <c r="L14" s="16">
+        <f>L$5-1*$B14/0.9</f>
+        <v>0.11111111111111072</v>
+      </c>
+      <c r="M14" s="27">
+        <f>M$5-1*$B14/0.9</f>
+        <v>1.1111111111111107</v>
+      </c>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="7">
+        <v>8</v>
+      </c>
+      <c r="T14" s="24"/>
+      <c r="AA14">
+        <f>(L14+L$5)/($D$2)</f>
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="AB14">
+        <f>(M14+M$5)/($D$2)</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AD14">
         <f t="shared" si="1"/>
         <v>0.88888888888888895</v>
       </c>
-      <c r="X6" s="34">
-        <f t="shared" si="1"/>
-        <v>1.088888888888889</v>
-      </c>
-      <c r="Y6" s="34">
-        <f t="shared" si="1"/>
-        <v>1.288888888888889</v>
-      </c>
-      <c r="Z6" s="34">
-        <f t="shared" si="1"/>
-        <v>1.4888888888888889</v>
-      </c>
-      <c r="AA6" s="34">
-        <f t="shared" si="1"/>
-        <v>1.6888888888888889</v>
-      </c>
-      <c r="AB6" s="34">
-        <f t="shared" si="1"/>
-        <v>1.8888888888888888</v>
-      </c>
-      <c r="AD6">
-        <f t="shared" ref="AD6:AD15" si="4">Q6/10/0.9</f>
-        <v>0.11111111111111112</v>
-      </c>
-      <c r="AH6" s="34">
-        <f>T6/0.9*($Q6/0.9)</f>
-        <v>0.35665294924554186</v>
-      </c>
-      <c r="AI6" s="35">
-        <f t="shared" ref="AI6" si="5">U6/0.9*($Q6/0.9)</f>
-        <v>0.60356652949245548</v>
-      </c>
-      <c r="AJ6" s="35">
-        <f t="shared" ref="AJ6" si="6">V6/0.9*($Q6/0.9)</f>
-        <v>0.85048010973936894</v>
-      </c>
-      <c r="AK6" s="35">
-        <f t="shared" ref="AK6" si="7">W6/0.9*($Q6/0.9)</f>
-        <v>1.0973936899862826</v>
-      </c>
-      <c r="AL6" s="35">
-        <f t="shared" ref="AL6" si="8">X6/0.9*($Q6/0.9)</f>
-        <v>1.3443072702331962</v>
-      </c>
-      <c r="AM6" s="35">
-        <f t="shared" ref="AM6" si="9">Y6/0.9*($Q6/0.9)</f>
-        <v>1.59122085048011</v>
-      </c>
-      <c r="AN6" s="35">
-        <f t="shared" ref="AN6" si="10">Z6/0.9*($Q6/0.9)</f>
-        <v>1.8381344307270233</v>
-      </c>
-      <c r="AO6" s="35">
-        <f t="shared" ref="AO6" si="11">AA6/0.9*($Q6/0.9)</f>
-        <v>2.0850480109739369</v>
-      </c>
-      <c r="AP6" s="36">
-        <f t="shared" ref="AP6" si="12">AB6/0.9*($Q6/0.9)</f>
-        <v>2.3319615912208507</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="3">
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="56"/>
+      <c r="AK14" s="56"/>
+      <c r="AL14" s="56"/>
+      <c r="AM14" s="56"/>
+      <c r="AN14" s="56"/>
+      <c r="AO14" s="56"/>
+      <c r="AP14" s="56"/>
+      <c r="AQ14" s="54"/>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="3">
+        <v>9</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+      <c r="D15" s="16">
+        <f>D$5-1*$B15/0.9</f>
+        <v>-9</v>
+      </c>
+      <c r="E15" s="26">
+        <f>E$5-1*$B15/0.9</f>
+        <v>-8</v>
+      </c>
+      <c r="F15" s="16">
+        <f>F$5-1*$B15/0.9</f>
+        <v>-7</v>
+      </c>
+      <c r="G15" s="16">
+        <f>G$5-1*$B15/0.9</f>
+        <v>-6</v>
+      </c>
+      <c r="H15" s="16">
+        <f>H$5-1*$B15/0.9</f>
+        <v>-5</v>
+      </c>
+      <c r="I15" s="16">
+        <f>I$5-1*$B15/0.9</f>
+        <v>-4</v>
+      </c>
+      <c r="J15" s="16">
+        <f>J$5-1*$B15/0.9</f>
+        <v>-3</v>
+      </c>
+      <c r="K15" s="16">
+        <f>K$5-1*$B15/0.9</f>
+        <v>-2</v>
+      </c>
+      <c r="L15" s="16">
+        <f>L$5-1*$B15/0.9</f>
+        <v>-1</v>
+      </c>
+      <c r="M15" s="27">
+        <f>M$5-1*$B15/0.9</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="7">
+        <v>9</v>
+      </c>
+      <c r="T15" s="31"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
+      <c r="AA15" s="32"/>
+      <c r="AB15" s="33">
+        <f>(M15+M$5)/($D$2)</f>
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <f>(Q15/10)/0.9</f>
+        <v>1</v>
+      </c>
+      <c r="AF15" s="56"/>
+      <c r="AG15" s="56"/>
+      <c r="AH15" s="56"/>
+      <c r="AI15" s="56"/>
+      <c r="AJ15" s="56"/>
+      <c r="AK15" s="56"/>
+      <c r="AL15" s="56"/>
+      <c r="AM15" s="56"/>
+      <c r="AN15" s="56"/>
+      <c r="AO15" s="56"/>
+      <c r="AP15" s="56"/>
+      <c r="AQ15" s="54"/>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="59">
+        <v>10</v>
+      </c>
+      <c r="C16" s="16">
+        <f>C$5-1*$B16/0.9</f>
+        <v>-11.111111111111111</v>
+      </c>
+      <c r="D16" s="16">
+        <f>D$5-1*$B16/0.9</f>
+        <v>-10.111111111111111</v>
+      </c>
+      <c r="E16" s="28">
+        <f>E$5-1*$B16/0.9</f>
+        <v>-9.1111111111111107</v>
+      </c>
+      <c r="F16" s="29">
+        <f>F$5-1*$B16/0.9</f>
+        <v>-8.1111111111111107</v>
+      </c>
+      <c r="G16" s="29">
+        <f>G$5-1*$B16/0.9</f>
+        <v>-7.1111111111111107</v>
+      </c>
+      <c r="H16" s="29">
+        <f>H$5-1*$B16/0.9</f>
+        <v>-6.1111111111111107</v>
+      </c>
+      <c r="I16" s="29">
+        <f>I$5-1*$B16/0.9</f>
+        <v>-5.1111111111111107</v>
+      </c>
+      <c r="J16" s="29">
+        <f>J$5-1*$B16/0.9</f>
+        <v>-4.1111111111111107</v>
+      </c>
+      <c r="K16" s="29">
+        <f>K$5-1*$B16/0.9</f>
+        <v>-3.1111111111111107</v>
+      </c>
+      <c r="L16" s="29">
+        <f>L$5-1*$B16/0.9</f>
+        <v>-2.1111111111111107</v>
+      </c>
+      <c r="M16" s="30">
+        <f>M$5-1*$B16/0.9</f>
+        <v>-1.1111111111111107</v>
+      </c>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="58">
+        <v>10</v>
+      </c>
+      <c r="AD16" s="57">
+        <f>(Q16/10)/0.9</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="56"/>
+      <c r="AL16" s="56"/>
+      <c r="AM16" s="56"/>
+      <c r="AN16" s="56"/>
+      <c r="AO16" s="56"/>
+      <c r="AP16" s="56"/>
+      <c r="AQ16" s="56"/>
+    </row>
+    <row r="18" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="AF18" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG18" s="47"/>
+      <c r="AH18" s="47"/>
+      <c r="AI18" s="47"/>
+      <c r="AJ18" s="47"/>
+      <c r="AK18" s="47"/>
+      <c r="AL18" s="47"/>
+      <c r="AM18" s="47"/>
+      <c r="AN18" s="47"/>
+      <c r="AO18" s="47"/>
+      <c r="AP18" s="47"/>
+    </row>
+    <row r="19" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="AF19">
+        <f>R5</f>
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <f t="shared" ref="AG19:AP19" si="3">S5</f>
+        <v>1</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="C7" s="16">
-        <f>C$4-1*$B7/0.9</f>
-        <v>-2.2222222222222223</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="AI19">
         <f t="shared" si="3"/>
-        <v>-1.2222222222222223</v>
-      </c>
-      <c r="E7" s="37">
+        <v>3</v>
+      </c>
+      <c r="AJ19">
         <f t="shared" si="3"/>
-        <v>-0.22222222222222232</v>
-      </c>
-      <c r="F7" s="38">
+        <v>4</v>
+      </c>
+      <c r="AK19">
         <f t="shared" si="3"/>
-        <v>0.77777777777777768</v>
-      </c>
-      <c r="G7" s="38">
+        <v>5</v>
+      </c>
+      <c r="AL19">
         <f t="shared" si="3"/>
-        <v>1.7777777777777777</v>
-      </c>
-      <c r="H7" s="38">
+        <v>6</v>
+      </c>
+      <c r="AM19">
         <f t="shared" si="3"/>
-        <v>2.7777777777777777</v>
-      </c>
-      <c r="I7" s="38">
+        <v>7</v>
+      </c>
+      <c r="AN19">
         <f t="shared" si="3"/>
-        <v>3.7777777777777777</v>
-      </c>
-      <c r="J7" s="38">
+        <v>8</v>
+      </c>
+      <c r="AO19">
         <f t="shared" si="3"/>
-        <v>4.7777777777777777</v>
-      </c>
-      <c r="K7" s="38">
+        <v>9</v>
+      </c>
+      <c r="AP19">
         <f t="shared" si="3"/>
-        <v>5.7777777777777777</v>
-      </c>
-      <c r="L7" s="38">
-        <f t="shared" si="3"/>
-        <v>6.7777777777777777</v>
-      </c>
-      <c r="M7" s="39">
-        <f t="shared" si="3"/>
-        <v>7.7777777777777777</v>
-      </c>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="7">
-        <v>2</v>
-      </c>
-      <c r="T7" s="34"/>
-      <c r="U7" s="35">
-        <f>(F7+F$4)/($D$1)</f>
-        <v>0.37777777777777777</v>
-      </c>
-      <c r="V7" s="35">
-        <f t="shared" si="1"/>
-        <v>0.57777777777777772</v>
-      </c>
-      <c r="W7" s="35">
-        <f t="shared" si="1"/>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="X7" s="35">
-        <f t="shared" si="1"/>
-        <v>0.97777777777777786</v>
-      </c>
-      <c r="Y7" s="35">
-        <f t="shared" si="1"/>
-        <v>1.1777777777777778</v>
-      </c>
-      <c r="Z7" s="35">
-        <f t="shared" si="1"/>
-        <v>1.3777777777777778</v>
-      </c>
-      <c r="AA7" s="35">
-        <f t="shared" si="1"/>
-        <v>1.5777777777777779</v>
-      </c>
-      <c r="AB7" s="35">
-        <f t="shared" si="1"/>
-        <v>1.7777777777777779</v>
-      </c>
-      <c r="AD7">
-        <f t="shared" si="4"/>
-        <v>0.22222222222222224</v>
-      </c>
-      <c r="AH7" s="34"/>
-      <c r="AI7" s="35">
-        <f t="shared" ref="AI7" si="13">U7/0.9*($Q7/0.9)</f>
-        <v>0.9327846364883402</v>
-      </c>
-      <c r="AJ7" s="35">
-        <f t="shared" ref="AJ7:AJ8" si="14">V7/0.9*($Q7/0.9)</f>
-        <v>1.4266117969821674</v>
-      </c>
-      <c r="AK7" s="35">
-        <f t="shared" ref="AK7:AK9" si="15">W7/0.9*($Q7/0.9)</f>
-        <v>1.9204389574759946</v>
-      </c>
-      <c r="AL7" s="35">
-        <f t="shared" ref="AL7:AL10" si="16">X7/0.9*($Q7/0.9)</f>
-        <v>2.4142661179698219</v>
-      </c>
-      <c r="AM7" s="35">
-        <f t="shared" ref="AM7:AM11" si="17">Y7/0.9*($Q7/0.9)</f>
-        <v>2.9080932784636491</v>
-      </c>
-      <c r="AN7" s="35">
-        <f t="shared" ref="AN7:AN12" si="18">Z7/0.9*($Q7/0.9)</f>
-        <v>3.4019204389574758</v>
-      </c>
-      <c r="AO7" s="35">
-        <f t="shared" ref="AO7:AO13" si="19">AA7/0.9*($Q7/0.9)</f>
-        <v>3.8957475994513038</v>
-      </c>
-      <c r="AP7" s="36">
-        <f t="shared" ref="AP7:AP13" si="20">AB7/0.9*($Q7/0.9)</f>
-        <v>4.3895747599451305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="3">
-        <v>3</v>
-      </c>
-      <c r="C8" s="16">
-        <f t="shared" ref="C8:C14" si="21">C$4-1*$B8/0.9</f>
-        <v>-3.333333333333333</v>
-      </c>
-      <c r="D8" s="16">
-        <f t="shared" si="3"/>
-        <v>-2.333333333333333</v>
-      </c>
-      <c r="E8" s="37">
-        <f t="shared" si="3"/>
-        <v>-1.333333333333333</v>
-      </c>
-      <c r="F8" s="38">
-        <f t="shared" si="3"/>
-        <v>-0.33333333333333304</v>
-      </c>
-      <c r="G8" s="38">
-        <f t="shared" si="3"/>
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="H8" s="38">
-        <f t="shared" si="3"/>
-        <v>1.666666666666667</v>
-      </c>
-      <c r="I8" s="38">
-        <f t="shared" si="3"/>
-        <v>2.666666666666667</v>
-      </c>
-      <c r="J8" s="38">
-        <f t="shared" si="3"/>
-        <v>3.666666666666667</v>
-      </c>
-      <c r="K8" s="38">
-        <f t="shared" si="3"/>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="L8" s="38">
-        <f t="shared" si="3"/>
-        <v>5.666666666666667</v>
-      </c>
-      <c r="M8" s="39">
-        <f t="shared" si="3"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="7">
-        <v>3</v>
-      </c>
-      <c r="T8" s="34"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35">
-        <f>(G8+G$4)/($D$1)</f>
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="W8" s="35">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="X8" s="35">
-        <f t="shared" si="1"/>
-        <v>0.86666666666666681</v>
-      </c>
-      <c r="Y8" s="35">
-        <f t="shared" si="1"/>
-        <v>1.0666666666666669</v>
-      </c>
-      <c r="Z8" s="35">
-        <f t="shared" si="1"/>
-        <v>1.2666666666666668</v>
-      </c>
-      <c r="AA8" s="35">
-        <f t="shared" si="1"/>
-        <v>1.4666666666666668</v>
-      </c>
-      <c r="AB8" s="35">
-        <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="AD8">
-        <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AH8" s="34"/>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="35">
-        <f t="shared" si="14"/>
-        <v>1.7283950617283947</v>
-      </c>
-      <c r="AK8" s="35">
-        <f t="shared" si="15"/>
-        <v>2.4691358024691357</v>
-      </c>
-      <c r="AL8" s="35">
-        <f t="shared" si="16"/>
-        <v>3.209876543209877</v>
-      </c>
-      <c r="AM8" s="35">
-        <f t="shared" si="17"/>
-        <v>3.9506172839506175</v>
-      </c>
-      <c r="AN8" s="35">
-        <f t="shared" si="18"/>
-        <v>4.6913580246913584</v>
-      </c>
-      <c r="AO8" s="35">
-        <f t="shared" si="19"/>
-        <v>5.4320987654320989</v>
-      </c>
-      <c r="AP8" s="36">
-        <f t="shared" si="20"/>
-        <v>6.1728395061728394</v>
-      </c>
-    </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:42" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="16">
-        <f t="shared" si="21"/>
-        <v>-4.4444444444444446</v>
-      </c>
-      <c r="D9" s="16">
-        <f t="shared" si="3"/>
-        <v>-3.4444444444444446</v>
-      </c>
-      <c r="E9" s="37">
-        <f t="shared" si="3"/>
-        <v>-2.4444444444444446</v>
-      </c>
-      <c r="F9" s="38">
-        <f t="shared" si="3"/>
-        <v>-1.4444444444444446</v>
-      </c>
-      <c r="G9" s="38">
-        <f t="shared" si="3"/>
-        <v>-0.44444444444444464</v>
-      </c>
-      <c r="H9" s="38">
-        <f t="shared" si="3"/>
-        <v>0.55555555555555536</v>
-      </c>
-      <c r="I9" s="38">
-        <f t="shared" si="3"/>
-        <v>1.5555555555555554</v>
-      </c>
-      <c r="J9" s="38">
-        <f t="shared" si="3"/>
-        <v>2.5555555555555554</v>
-      </c>
-      <c r="K9" s="38">
-        <f t="shared" si="3"/>
-        <v>3.5555555555555554</v>
-      </c>
-      <c r="L9" s="38">
-        <f t="shared" si="3"/>
-        <v>4.5555555555555554</v>
-      </c>
-      <c r="M9" s="39">
-        <f t="shared" si="3"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="7">
+      <c r="I20" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="T9" s="34"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35">
-        <f>(H9+H$4)/($D$1)</f>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="X9" s="35">
-        <f t="shared" si="1"/>
-        <v>0.75555555555555554</v>
-      </c>
-      <c r="Y9" s="35">
-        <f t="shared" si="1"/>
-        <v>0.95555555555555549</v>
-      </c>
-      <c r="Z9" s="35">
-        <f t="shared" si="1"/>
-        <v>1.1555555555555554</v>
-      </c>
-      <c r="AA9" s="35">
-        <f t="shared" si="1"/>
-        <v>1.3555555555555556</v>
-      </c>
-      <c r="AB9" s="35">
-        <f t="shared" si="1"/>
-        <v>1.5555555555555556</v>
-      </c>
-      <c r="AD9">
-        <f t="shared" si="4"/>
-        <v>0.44444444444444448</v>
-      </c>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="35">
-        <f t="shared" si="15"/>
-        <v>2.7434842249657065</v>
-      </c>
-      <c r="AL9" s="35">
-        <f t="shared" si="16"/>
-        <v>3.7311385459533608</v>
-      </c>
-      <c r="AM9" s="35">
-        <f t="shared" si="17"/>
-        <v>4.7187928669410146</v>
-      </c>
-      <c r="AN9" s="35">
-        <f t="shared" si="18"/>
-        <v>5.7064471879286698</v>
-      </c>
-      <c r="AO9" s="35">
-        <f t="shared" si="19"/>
-        <v>6.6941015089163241</v>
-      </c>
-      <c r="AP9" s="36">
-        <f t="shared" si="20"/>
-        <v>7.6817558299039783</v>
-      </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="3">
-        <v>5</v>
-      </c>
-      <c r="C10" s="16">
-        <f t="shared" si="21"/>
-        <v>-5.5555555555555554</v>
-      </c>
-      <c r="D10" s="16">
-        <f t="shared" si="3"/>
-        <v>-4.5555555555555554</v>
-      </c>
-      <c r="E10" s="37">
-        <f t="shared" si="3"/>
-        <v>-3.5555555555555554</v>
-      </c>
-      <c r="F10" s="38">
-        <f t="shared" si="3"/>
-        <v>-2.5555555555555554</v>
-      </c>
-      <c r="G10" s="38">
-        <f t="shared" si="3"/>
-        <v>-1.5555555555555554</v>
-      </c>
-      <c r="H10" s="38">
-        <f t="shared" si="3"/>
-        <v>-0.55555555555555536</v>
-      </c>
-      <c r="I10" s="38">
-        <f t="shared" si="3"/>
-        <v>0.44444444444444464</v>
-      </c>
-      <c r="J10" s="38">
-        <f t="shared" si="3"/>
-        <v>1.4444444444444446</v>
-      </c>
-      <c r="K10" s="38">
-        <f t="shared" si="3"/>
-        <v>2.4444444444444446</v>
-      </c>
-      <c r="L10" s="38">
-        <f t="shared" si="3"/>
-        <v>3.4444444444444446</v>
-      </c>
-      <c r="M10" s="39">
-        <f t="shared" si="3"/>
-        <v>4.4444444444444446</v>
-      </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="7">
-        <v>5</v>
-      </c>
-      <c r="T10" s="34"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35">
-        <f>(I10+I$4)/($D$1)</f>
-        <v>0.64444444444444449</v>
-      </c>
-      <c r="Y10" s="35">
-        <f t="shared" si="1"/>
-        <v>0.84444444444444444</v>
-      </c>
-      <c r="Z10" s="35">
-        <f t="shared" si="1"/>
-        <v>1.0444444444444445</v>
-      </c>
-      <c r="AA10" s="35">
-        <f t="shared" si="1"/>
-        <v>1.2444444444444445</v>
-      </c>
-      <c r="AB10" s="35">
-        <f t="shared" si="1"/>
-        <v>1.4444444444444444</v>
-      </c>
-      <c r="AD10">
-        <f t="shared" si="4"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="35"/>
-      <c r="AJ10" s="35"/>
-      <c r="AK10" s="35"/>
-      <c r="AL10" s="35">
-        <f t="shared" si="16"/>
-        <v>3.9780521262002746</v>
-      </c>
-      <c r="AM10" s="35">
-        <f t="shared" si="17"/>
-        <v>5.2126200274348422</v>
-      </c>
-      <c r="AN10" s="35">
-        <f t="shared" si="18"/>
-        <v>6.4471879286694103</v>
-      </c>
-      <c r="AO10" s="35">
-        <f t="shared" si="19"/>
-        <v>7.6817558299039774</v>
-      </c>
-      <c r="AP10" s="36">
-        <f t="shared" si="20"/>
-        <v>8.9163237311385455</v>
-      </c>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="3">
-        <v>6</v>
-      </c>
-      <c r="C11" s="16">
-        <f t="shared" si="21"/>
-        <v>-6.6666666666666661</v>
-      </c>
-      <c r="D11" s="16">
-        <f t="shared" si="3"/>
-        <v>-5.6666666666666661</v>
-      </c>
-      <c r="E11" s="37">
-        <f t="shared" si="3"/>
-        <v>-4.6666666666666661</v>
-      </c>
-      <c r="F11" s="38">
-        <f t="shared" si="3"/>
-        <v>-3.6666666666666661</v>
-      </c>
-      <c r="G11" s="38">
-        <f t="shared" si="3"/>
-        <v>-2.6666666666666661</v>
-      </c>
-      <c r="H11" s="38">
-        <f t="shared" si="3"/>
-        <v>-1.6666666666666661</v>
-      </c>
-      <c r="I11" s="38">
-        <f t="shared" si="3"/>
-        <v>-0.66666666666666607</v>
-      </c>
-      <c r="J11" s="38">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333393</v>
-      </c>
-      <c r="K11" s="38">
-        <f t="shared" si="3"/>
-        <v>1.3333333333333339</v>
-      </c>
-      <c r="L11" s="38">
-        <f t="shared" si="3"/>
-        <v>2.3333333333333339</v>
-      </c>
-      <c r="M11" s="39">
-        <f t="shared" si="3"/>
-        <v>3.3333333333333339</v>
-      </c>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="7">
-        <v>6</v>
-      </c>
-      <c r="T11" s="34"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35">
-        <f>(J11+J$4)/($D$1)</f>
-        <v>0.73333333333333339</v>
-      </c>
-      <c r="Z11" s="35">
-        <f t="shared" si="1"/>
-        <v>0.93333333333333335</v>
-      </c>
-      <c r="AA11" s="35">
-        <f t="shared" si="1"/>
-        <v>1.1333333333333333</v>
-      </c>
-      <c r="AB11" s="35">
-        <f t="shared" si="1"/>
-        <v>1.3333333333333335</v>
-      </c>
-      <c r="AD11">
-        <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="35"/>
-      <c r="AJ11" s="35"/>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="35"/>
-      <c r="AM11" s="35">
-        <f t="shared" si="17"/>
-        <v>5.4320987654320989</v>
-      </c>
-      <c r="AN11" s="35">
-        <f t="shared" si="18"/>
-        <v>6.913580246913579</v>
-      </c>
-      <c r="AO11" s="35">
-        <f t="shared" si="19"/>
-        <v>8.3950617283950617</v>
-      </c>
-      <c r="AP11" s="36">
-        <f t="shared" si="20"/>
-        <v>9.8765432098765427</v>
-      </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="3">
-        <v>7</v>
-      </c>
-      <c r="C12" s="16">
-        <f>C$4-1*$B12/0.9</f>
-        <v>-7.7777777777777777</v>
-      </c>
-      <c r="D12" s="16">
-        <f t="shared" si="3"/>
-        <v>-6.7777777777777777</v>
-      </c>
-      <c r="E12" s="37">
-        <f t="shared" si="3"/>
-        <v>-5.7777777777777777</v>
-      </c>
-      <c r="F12" s="38">
-        <f t="shared" si="3"/>
-        <v>-4.7777777777777777</v>
-      </c>
-      <c r="G12" s="38">
-        <f t="shared" si="3"/>
-        <v>-3.7777777777777777</v>
-      </c>
-      <c r="H12" s="38">
-        <f t="shared" si="3"/>
-        <v>-2.7777777777777777</v>
-      </c>
-      <c r="I12" s="38">
-        <f t="shared" si="3"/>
-        <v>-1.7777777777777777</v>
-      </c>
-      <c r="J12" s="38">
-        <f t="shared" si="3"/>
-        <v>-0.77777777777777768</v>
-      </c>
-      <c r="K12" s="38">
-        <f t="shared" si="3"/>
-        <v>0.22222222222222232</v>
-      </c>
-      <c r="L12" s="38">
-        <f t="shared" si="3"/>
-        <v>1.2222222222222223</v>
-      </c>
-      <c r="M12" s="39">
-        <f t="shared" si="3"/>
-        <v>2.2222222222222223</v>
-      </c>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="7">
-        <v>7</v>
-      </c>
-      <c r="T12" s="34"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35">
-        <f>(K12+K$4)/($D$1)</f>
-        <v>0.82222222222222219</v>
-      </c>
-      <c r="AA12" s="35">
-        <f t="shared" si="1"/>
-        <v>1.0222222222222221</v>
-      </c>
-      <c r="AB12" s="35">
-        <f t="shared" si="1"/>
-        <v>1.2222222222222221</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="4"/>
-        <v>0.77777777777777768</v>
-      </c>
-      <c r="AH12" s="34"/>
-      <c r="AI12" s="35"/>
-      <c r="AJ12" s="35"/>
-      <c r="AK12" s="35"/>
-      <c r="AL12" s="35"/>
-      <c r="AM12" s="35"/>
-      <c r="AN12" s="35">
-        <f t="shared" si="18"/>
-        <v>7.1056241426611795</v>
-      </c>
-      <c r="AO12" s="35">
-        <f t="shared" si="19"/>
-        <v>8.8340192043895733</v>
-      </c>
-      <c r="AP12" s="36">
-        <f t="shared" si="20"/>
-        <v>10.562414266117969</v>
-      </c>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="3">
-        <v>8</v>
-      </c>
-      <c r="C13" s="16">
-        <f t="shared" si="21"/>
-        <v>-8.8888888888888893</v>
-      </c>
-      <c r="D13" s="16">
-        <f t="shared" si="3"/>
-        <v>-7.8888888888888893</v>
-      </c>
-      <c r="E13" s="37">
-        <f t="shared" si="3"/>
-        <v>-6.8888888888888893</v>
-      </c>
-      <c r="F13" s="38">
-        <f t="shared" si="3"/>
-        <v>-5.8888888888888893</v>
-      </c>
-      <c r="G13" s="38">
-        <f t="shared" si="3"/>
-        <v>-4.8888888888888893</v>
-      </c>
-      <c r="H13" s="38">
-        <f t="shared" si="3"/>
-        <v>-3.8888888888888893</v>
-      </c>
-      <c r="I13" s="38">
-        <f t="shared" si="3"/>
-        <v>-2.8888888888888893</v>
-      </c>
-      <c r="J13" s="38">
-        <f t="shared" si="3"/>
-        <v>-1.8888888888888893</v>
-      </c>
-      <c r="K13" s="38">
-        <f t="shared" si="3"/>
-        <v>-0.88888888888888928</v>
-      </c>
-      <c r="L13" s="38">
-        <f t="shared" si="3"/>
-        <v>0.11111111111111072</v>
-      </c>
-      <c r="M13" s="39">
-        <f t="shared" si="3"/>
-        <v>1.1111111111111107</v>
-      </c>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="7">
-        <v>8</v>
-      </c>
-      <c r="T13" s="34"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35">
-        <f>(L13+L$4)/($D$1)</f>
-        <v>0.91111111111111109</v>
-      </c>
-      <c r="AB13" s="35">
-        <f>(M13+M$4)/($D$1)</f>
-        <v>1.1111111111111112</v>
-      </c>
-      <c r="AD13">
-        <f t="shared" si="4"/>
-        <v>0.88888888888888895</v>
-      </c>
-      <c r="AH13" s="34"/>
-      <c r="AI13" s="35"/>
-      <c r="AJ13" s="35"/>
-      <c r="AK13" s="35"/>
-      <c r="AL13" s="35"/>
-      <c r="AM13" s="35"/>
-      <c r="AN13" s="35"/>
-      <c r="AO13" s="35">
-        <f t="shared" si="19"/>
-        <v>8.9986282578875176</v>
-      </c>
-      <c r="AP13" s="36">
-        <f t="shared" si="20"/>
-        <v>10.973936899862826</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="3">
-        <v>9</v>
-      </c>
-      <c r="C14" s="16">
-        <f t="shared" si="21"/>
-        <v>-10</v>
-      </c>
-      <c r="D14" s="16">
-        <f t="shared" si="3"/>
-        <v>-9</v>
-      </c>
-      <c r="E14" s="37">
-        <f t="shared" si="3"/>
-        <v>-8</v>
-      </c>
-      <c r="F14" s="38">
-        <f t="shared" si="3"/>
-        <v>-7</v>
-      </c>
-      <c r="G14" s="38">
-        <f t="shared" si="3"/>
-        <v>-6</v>
-      </c>
-      <c r="H14" s="38">
-        <f t="shared" si="3"/>
-        <v>-5</v>
-      </c>
-      <c r="I14" s="38">
-        <f t="shared" si="3"/>
-        <v>-4</v>
-      </c>
-      <c r="J14" s="38">
-        <f t="shared" si="3"/>
-        <v>-3</v>
-      </c>
-      <c r="K14" s="38">
-        <f t="shared" si="3"/>
-        <v>-2</v>
-      </c>
-      <c r="L14" s="38">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="M14" s="39">
-        <f>M$4-1*$B14/0.9</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="7">
-        <v>9</v>
-      </c>
-      <c r="T14" s="46"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-      <c r="W14" s="47"/>
-      <c r="X14" s="47"/>
-      <c r="Y14" s="47"/>
-      <c r="Z14" s="47"/>
-      <c r="AA14" s="47"/>
-      <c r="AB14" s="48">
-        <f>(M14+M$4)/($D$1)</f>
-        <v>1</v>
-      </c>
-      <c r="AD14">
-        <f>Q14/10/0.9</f>
-        <v>1</v>
-      </c>
-      <c r="AH14" s="34"/>
-      <c r="AI14" s="35"/>
-      <c r="AJ14" s="35"/>
-      <c r="AK14" s="35"/>
-      <c r="AL14" s="35"/>
-      <c r="AM14" s="35"/>
-      <c r="AN14" s="35"/>
-      <c r="AO14" s="35"/>
-      <c r="AP14" s="36">
-        <f>AB14/0.9*($Q14/0.9)</f>
-        <v>11.111111111111111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="3">
-        <v>10</v>
-      </c>
-      <c r="C15" s="16">
-        <f>C$4-1*$B15/0.9</f>
-        <v>-11.111111111111111</v>
-      </c>
-      <c r="D15" s="16">
-        <f t="shared" si="3"/>
-        <v>-10.111111111111111</v>
-      </c>
-      <c r="E15" s="40">
-        <f t="shared" si="3"/>
-        <v>-9.1111111111111107</v>
-      </c>
-      <c r="F15" s="41">
-        <f t="shared" si="3"/>
-        <v>-8.1111111111111107</v>
-      </c>
-      <c r="G15" s="41">
-        <f t="shared" si="3"/>
-        <v>-7.1111111111111107</v>
-      </c>
-      <c r="H15" s="41">
-        <f t="shared" si="3"/>
-        <v>-6.1111111111111107</v>
-      </c>
-      <c r="I15" s="41">
-        <f t="shared" si="3"/>
-        <v>-5.1111111111111107</v>
-      </c>
-      <c r="J15" s="41">
-        <f t="shared" si="3"/>
-        <v>-4.1111111111111107</v>
-      </c>
-      <c r="K15" s="41">
-        <f t="shared" si="3"/>
-        <v>-3.1111111111111107</v>
-      </c>
-      <c r="L15" s="41">
-        <f t="shared" si="3"/>
-        <v>-2.1111111111111107</v>
-      </c>
-      <c r="M15" s="42">
-        <f>M$4-1*$B15/0.9</f>
-        <v>-1.1111111111111107</v>
-      </c>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="7">
-        <v>10</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" si="4"/>
-        <v>1.1111111111111112</v>
-      </c>
-      <c r="AH15" s="46"/>
-      <c r="AI15" s="47"/>
-      <c r="AJ15" s="47"/>
-      <c r="AK15" s="47"/>
-      <c r="AL15" s="47"/>
-      <c r="AM15" s="47"/>
-      <c r="AN15" s="47"/>
-      <c r="AO15" s="47"/>
-      <c r="AP15" s="48"/>
-    </row>
-    <row r="17" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="AF17" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG17" s="29"/>
-      <c r="AH17" s="29"/>
-      <c r="AI17" s="29"/>
-      <c r="AJ17" s="29"/>
-      <c r="AK17" s="29"/>
-      <c r="AL17" s="29"/>
-      <c r="AM17" s="29"/>
-      <c r="AN17" s="29"/>
-      <c r="AO17" s="29"/>
-      <c r="AP17" s="29"/>
-    </row>
-    <row r="18" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF19" s="5">
-        <f>R$5/0.9*($AD5/0.9)</f>
-        <v>0</v>
-      </c>
-      <c r="AG19" s="5">
-        <f>S$5*($AD5/0.9)</f>
-        <v>0</v>
-      </c>
-      <c r="AH19" s="49">
-        <f>T$5*($AD5)</f>
-        <v>0</v>
-      </c>
-      <c r="AI19" s="49">
-        <f t="shared" ref="AI19:AP19" si="22">U$5*($AD5)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="49">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AK19" s="49">
-        <f>W$5*($AD5)</f>
-        <v>0</v>
-      </c>
-      <c r="AL19" s="49">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AM19" s="49">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AN19" s="49">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AO19" s="49">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="AP19" s="49">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="C20" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="J20" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="50">
+      <c r="AF20" s="5">
+        <f>R5</f>
+        <v>0</v>
+      </c>
+      <c r="AG20" s="5">
+        <f>S$6*($AD6/0.9)</f>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="34">
         <f>T$6*($AD6)</f>
-        <v>3.2098765432098768E-2</v>
-      </c>
-      <c r="AI20" s="50">
-        <f t="shared" ref="AI20:AP20" si="23">U$6*($AD6)</f>
-        <v>5.4320987654320994E-2</v>
-      </c>
-      <c r="AJ20" s="50">
-        <f t="shared" si="23"/>
-        <v>7.6543209876543214E-2</v>
-      </c>
-      <c r="AK20" s="50">
-        <f t="shared" si="23"/>
-        <v>9.876543209876544E-2</v>
-      </c>
-      <c r="AL20" s="50">
-        <f t="shared" si="23"/>
-        <v>0.12098765432098768</v>
-      </c>
-      <c r="AM20" s="50">
-        <f t="shared" si="23"/>
-        <v>0.14320987654320991</v>
-      </c>
-      <c r="AN20" s="50">
-        <f t="shared" si="23"/>
-        <v>0.16543209876543211</v>
-      </c>
-      <c r="AO20" s="50">
-        <f t="shared" si="23"/>
-        <v>0.18765432098765433</v>
-      </c>
-      <c r="AP20" s="50">
-        <f t="shared" si="23"/>
-        <v>0.20987654320987656</v>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="34">
+        <f>U$6*($AD6)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="34">
+        <f>V$6*($AD6)</f>
+        <v>0</v>
+      </c>
+      <c r="AK20" s="34">
+        <f>W$6*($AD6)</f>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="34">
+        <f>X$6*($AD6)</f>
+        <v>0</v>
+      </c>
+      <c r="AM20" s="34">
+        <f>Y$6*($AD6)</f>
+        <v>0</v>
+      </c>
+      <c r="AN20" s="34">
+        <f>Z$6*($AD6)</f>
+        <v>0</v>
+      </c>
+      <c r="AO20" s="34">
+        <f>AA$6*($AD6)</f>
+        <v>0</v>
+      </c>
+      <c r="AP20" s="34">
+        <f>AB$6*($AD6)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B21" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="8">
-        <v>0</v>
-      </c>
-      <c r="D21" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="E21" s="8">
-        <v>5</v>
-      </c>
-      <c r="F21" s="8">
-        <v>7.5</v>
-      </c>
-      <c r="G21" s="8">
-        <v>10</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J21" s="9">
-        <v>0</v>
-      </c>
-      <c r="K21" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="L21" s="9">
-        <v>5</v>
-      </c>
-      <c r="M21" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="N21" s="9">
-        <v>10</v>
-      </c>
+      <c r="C21" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="J21" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
       <c r="AF21" s="5"/>
       <c r="AG21" s="5"/>
-      <c r="AH21" s="50"/>
-      <c r="AI21" s="51">
+      <c r="AH21" s="35">
+        <f>T$7*($AD7)</f>
+        <v>3.2098765432098768E-2</v>
+      </c>
+      <c r="AI21" s="35">
         <f>U$7*($AD7)</f>
-        <v>8.3950617283950618E-2</v>
-      </c>
-      <c r="AJ21" s="51">
-        <f t="shared" ref="AJ21:AP21" si="24">V$7*($AD7)</f>
-        <v>0.12839506172839507</v>
-      </c>
-      <c r="AK21" s="51">
-        <f t="shared" si="24"/>
-        <v>0.17283950617283952</v>
-      </c>
-      <c r="AL21" s="51">
-        <f t="shared" si="24"/>
-        <v>0.21728395061728398</v>
-      </c>
-      <c r="AM21" s="51">
-        <f t="shared" si="24"/>
-        <v>0.2617283950617284</v>
-      </c>
-      <c r="AN21" s="51">
-        <f t="shared" si="24"/>
-        <v>0.30617283950617286</v>
-      </c>
-      <c r="AO21" s="51">
-        <f t="shared" si="24"/>
-        <v>0.35061728395061736</v>
-      </c>
-      <c r="AP21" s="51">
-        <f t="shared" si="24"/>
-        <v>0.39506172839506176</v>
+        <v>5.4320987654320994E-2</v>
+      </c>
+      <c r="AJ21" s="35">
+        <f>V$7*($AD7)</f>
+        <v>7.6543209876543214E-2</v>
+      </c>
+      <c r="AK21" s="35">
+        <f>W$7*($AD7)</f>
+        <v>9.876543209876544E-2</v>
+      </c>
+      <c r="AL21" s="35">
+        <f>X$7*($AD7)</f>
+        <v>0.12098765432098768</v>
+      </c>
+      <c r="AM21" s="35">
+        <f>Y$7*($AD7)</f>
+        <v>0.14320987654320991</v>
+      </c>
+      <c r="AN21" s="35">
+        <f>Z$7*($AD7)</f>
+        <v>0.16543209876543211</v>
+      </c>
+      <c r="AO21" s="35">
+        <f>AA$7*($AD7)</f>
+        <v>0.18765432098765433</v>
+      </c>
+      <c r="AP21" s="35">
+        <f>AB$7*($AD7)</f>
+        <v>0.20987654320987656</v>
       </c>
     </row>
     <row r="22" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="B22" s="7">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ref="C22:E23" si="25">C$21-1*$B22/0.9</f>
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="25"/>
+      <c r="B22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
         <v>2.5</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="25"/>
+      <c r="E22" s="8">
         <v>5</v>
       </c>
-      <c r="F22">
-        <f t="shared" ref="F22:G32" si="26">F$21-1*$B22/0.9</f>
+      <c r="F22" s="8">
         <v>7.5</v>
       </c>
-      <c r="G22">
-        <f>G$21-1*$B22/0.9</f>
+      <c r="G22" s="8">
         <v>10</v>
       </c>
-      <c r="I22" s="4">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <f>J$21-1*$I22/0.9</f>
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <f t="shared" ref="K22:N27" si="27">K$21-1*$I22/0.9</f>
+      <c r="I22" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
         <v>2.5</v>
       </c>
-      <c r="L22">
-        <f t="shared" si="27"/>
+      <c r="L22" s="9">
         <v>5</v>
       </c>
-      <c r="M22">
-        <f t="shared" si="27"/>
+      <c r="M22" s="9">
         <v>7.5</v>
       </c>
-      <c r="N22">
-        <f t="shared" si="27"/>
+      <c r="N22" s="9">
         <v>10</v>
       </c>
       <c r="AF22" s="5"/>
       <c r="AG22" s="5"/>
-      <c r="AH22" s="50"/>
-      <c r="AI22" s="51"/>
-      <c r="AJ22" s="51">
-        <f>V$8*($AD8)</f>
-        <v>0.15555555555555556</v>
-      </c>
-      <c r="AK22" s="51">
-        <f t="shared" ref="AK22:AP22" si="28">W$8*($AD8)</f>
-        <v>0.22222222222222224</v>
-      </c>
-      <c r="AL22" s="51">
-        <f t="shared" si="28"/>
-        <v>0.28888888888888892</v>
-      </c>
-      <c r="AM22" s="51">
-        <f t="shared" si="28"/>
-        <v>0.35555555555555562</v>
-      </c>
-      <c r="AN22" s="51">
-        <f t="shared" si="28"/>
-        <v>0.42222222222222228</v>
-      </c>
-      <c r="AO22" s="51">
-        <f t="shared" si="28"/>
-        <v>0.48888888888888893</v>
-      </c>
-      <c r="AP22" s="51">
-        <f t="shared" si="28"/>
-        <v>0.55555555555555558</v>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="5">
+        <f>U$8*($AD8)</f>
+        <v>8.3950617283950618E-2</v>
+      </c>
+      <c r="AJ22" s="5">
+        <f t="shared" ref="AJ22:AP22" si="4">V$8*($AD8)</f>
+        <v>0.12839506172839507</v>
+      </c>
+      <c r="AK22" s="5">
+        <f t="shared" si="4"/>
+        <v>0.17283950617283952</v>
+      </c>
+      <c r="AL22" s="5">
+        <f t="shared" si="4"/>
+        <v>0.21728395061728398</v>
+      </c>
+      <c r="AM22" s="5">
+        <f t="shared" si="4"/>
+        <v>0.2617283950617284</v>
+      </c>
+      <c r="AN22" s="5">
+        <f t="shared" si="4"/>
+        <v>0.30617283950617286</v>
+      </c>
+      <c r="AO22" s="5">
+        <f t="shared" si="4"/>
+        <v>0.35061728395061736</v>
+      </c>
+      <c r="AP22" s="5">
+        <f t="shared" si="4"/>
+        <v>0.39506172839506176</v>
       </c>
     </row>
     <row r="23" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5">
-        <f t="shared" si="25"/>
-        <v>-1.1111111111111112</v>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:E24" si="5">C$22-1*$B23/0.9</f>
+        <v>0</v>
       </c>
       <c r="D23">
-        <f t="shared" si="25"/>
-        <v>1.3888888888888888</v>
+        <f t="shared" si="5"/>
+        <v>2.5</v>
       </c>
       <c r="E23">
-        <f t="shared" si="25"/>
-        <v>3.8888888888888888</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="F23">
-        <f t="shared" si="26"/>
-        <v>6.3888888888888893</v>
+        <f t="shared" ref="F23:G33" si="6">F$22-1*$B23/0.9</f>
+        <v>7.5</v>
       </c>
       <c r="G23">
-        <f>G$21-1*$B23/0.9</f>
-        <v>8.8888888888888893</v>
+        <f>G$22-1*$B23/0.9</f>
+        <v>10</v>
       </c>
       <c r="I23" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <f t="shared" ref="J23:J27" si="29">J$21-1*$I23/0.9</f>
-        <v>-2.2222222222222223</v>
+        <f>J$22-1*$I23/0.9</f>
+        <v>0</v>
       </c>
       <c r="K23">
-        <f t="shared" si="27"/>
-        <v>0.27777777777777768</v>
+        <f t="shared" ref="K23:N28" si="7">K$22-1*$I23/0.9</f>
+        <v>2.5</v>
       </c>
       <c r="L23">
-        <f t="shared" si="27"/>
-        <v>2.7777777777777777</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="M23">
-        <f t="shared" si="27"/>
-        <v>5.2777777777777777</v>
+        <f t="shared" si="7"/>
+        <v>7.5</v>
       </c>
       <c r="N23">
-        <f t="shared" si="27"/>
-        <v>7.7777777777777777</v>
+        <f t="shared" si="7"/>
+        <v>10</v>
       </c>
       <c r="AF23" s="5"/>
       <c r="AG23" s="5"/>
-      <c r="AH23" s="50"/>
-      <c r="AI23" s="51"/>
-      <c r="AJ23" s="51"/>
-      <c r="AK23" s="51">
-        <f>W$9*($AD9)</f>
-        <v>0.24691358024691362</v>
-      </c>
-      <c r="AL23" s="51">
-        <f t="shared" ref="AL23:AP23" si="30">X$9*($AD9)</f>
-        <v>0.33580246913580247</v>
-      </c>
-      <c r="AM23" s="51">
-        <f t="shared" si="30"/>
-        <v>0.42469135802469138</v>
-      </c>
-      <c r="AN23" s="51">
-        <f t="shared" si="30"/>
-        <v>0.51358024691358029</v>
-      </c>
-      <c r="AO23" s="51">
-        <f t="shared" si="30"/>
-        <v>0.60246913580246919</v>
-      </c>
-      <c r="AP23" s="51">
-        <f t="shared" si="30"/>
-        <v>0.6913580246913581</v>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5">
+        <f>V$9*($AD9)</f>
+        <v>0.15555555555555556</v>
+      </c>
+      <c r="AK23" s="5">
+        <f t="shared" ref="AK23:AP23" si="8">W$9*($AD9)</f>
+        <v>0.22222222222222224</v>
+      </c>
+      <c r="AL23" s="5">
+        <f t="shared" si="8"/>
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="AM23" s="5">
+        <f t="shared" si="8"/>
+        <v>0.35555555555555562</v>
+      </c>
+      <c r="AN23" s="5">
+        <f t="shared" si="8"/>
+        <v>0.42222222222222228</v>
+      </c>
+      <c r="AO23" s="5">
+        <f t="shared" si="8"/>
+        <v>0.48888888888888893</v>
+      </c>
+      <c r="AP23" s="5">
+        <f t="shared" si="8"/>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="24" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="5"/>
+        <v>-1.1111111111111112</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="5"/>
+        <v>1.3888888888888888</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="5"/>
+        <v>3.8888888888888888</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="6"/>
+        <v>6.3888888888888893</v>
+      </c>
+      <c r="G24">
+        <f>G$22-1*$B24/0.9</f>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="I24" s="4">
         <v>2</v>
       </c>
-      <c r="C24" s="5">
-        <f t="shared" ref="C24:E32" si="31">C$21-1*$B24/0.9</f>
+      <c r="J24">
+        <f t="shared" ref="J24:J28" si="9">J$22-1*$I24/0.9</f>
         <v>-2.2222222222222223</v>
       </c>
-      <c r="D24">
-        <f t="shared" si="31"/>
+      <c r="K24">
+        <f t="shared" si="7"/>
         <v>0.27777777777777768</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="31"/>
+      <c r="L24">
+        <f t="shared" si="7"/>
         <v>2.7777777777777777</v>
       </c>
-      <c r="F24">
-        <f t="shared" si="26"/>
+      <c r="M24">
+        <f t="shared" si="7"/>
         <v>5.2777777777777777</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="26"/>
+      <c r="N24">
+        <f t="shared" si="7"/>
         <v>7.7777777777777777</v>
-      </c>
-      <c r="I24" s="4">
-        <v>4</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="29"/>
-        <v>-4.4444444444444446</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="27"/>
-        <v>-1.9444444444444446</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="27"/>
-        <v>0.55555555555555536</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="27"/>
-        <v>3.0555555555555554</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="27"/>
-        <v>5.5555555555555554</v>
       </c>
       <c r="AF24" s="5"/>
       <c r="AG24" s="5"/>
-      <c r="AH24" s="50"/>
-      <c r="AI24" s="51"/>
-      <c r="AJ24" s="51"/>
-      <c r="AK24" s="51"/>
-      <c r="AL24" s="51">
-        <f>X$10*($AD10)</f>
-        <v>0.35802469135802473</v>
-      </c>
-      <c r="AM24" s="51">
-        <f t="shared" ref="AM24:AP24" si="32">Y$10*($AD10)</f>
-        <v>0.46913580246913583</v>
-      </c>
-      <c r="AN24" s="51">
-        <f t="shared" si="32"/>
-        <v>0.58024691358024694</v>
-      </c>
-      <c r="AO24" s="51">
-        <f t="shared" si="32"/>
+      <c r="AH24" s="35"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5">
+        <f>W$10*($AD10)</f>
+        <v>0.24691358024691362</v>
+      </c>
+      <c r="AL24" s="5">
+        <f t="shared" ref="AL24:AP24" si="10">X$10*($AD10)</f>
+        <v>0.33580246913580247</v>
+      </c>
+      <c r="AM24" s="5">
+        <f t="shared" si="10"/>
+        <v>0.42469135802469138</v>
+      </c>
+      <c r="AN24" s="5">
+        <f t="shared" si="10"/>
+        <v>0.51358024691358029</v>
+      </c>
+      <c r="AO24" s="5">
+        <f t="shared" si="10"/>
+        <v>0.60246913580246919</v>
+      </c>
+      <c r="AP24" s="5">
+        <f t="shared" si="10"/>
         <v>0.6913580246913581</v>
-      </c>
-      <c r="AP24" s="51">
-        <f t="shared" si="32"/>
-        <v>0.80246913580246915</v>
       </c>
     </row>
     <row r="25" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" si="31"/>
-        <v>-3.333333333333333</v>
+        <f t="shared" ref="C25:E33" si="11">C$22-1*$B25/0.9</f>
+        <v>-2.2222222222222223</v>
       </c>
       <c r="D25">
-        <f t="shared" si="31"/>
-        <v>-0.83333333333333304</v>
+        <f t="shared" si="11"/>
+        <v>0.27777777777777768</v>
       </c>
       <c r="E25">
-        <f t="shared" si="31"/>
-        <v>1.666666666666667</v>
+        <f t="shared" si="11"/>
+        <v>2.7777777777777777</v>
       </c>
       <c r="F25">
-        <f t="shared" si="26"/>
-        <v>4.166666666666667</v>
+        <f t="shared" si="6"/>
+        <v>5.2777777777777777</v>
       </c>
       <c r="G25">
-        <f t="shared" si="26"/>
-        <v>6.666666666666667</v>
+        <f t="shared" si="6"/>
+        <v>7.7777777777777777</v>
       </c>
       <c r="I25" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J25">
-        <f t="shared" si="29"/>
-        <v>-6.6666666666666661</v>
+        <f t="shared" si="9"/>
+        <v>-4.4444444444444446</v>
       </c>
       <c r="K25">
-        <f t="shared" si="27"/>
-        <v>-4.1666666666666661</v>
+        <f t="shared" si="7"/>
+        <v>-1.9444444444444446</v>
       </c>
       <c r="L25">
-        <f t="shared" si="27"/>
-        <v>-1.6666666666666661</v>
+        <f t="shared" si="7"/>
+        <v>0.55555555555555536</v>
       </c>
       <c r="M25">
-        <f t="shared" si="27"/>
-        <v>0.83333333333333393</v>
+        <f t="shared" si="7"/>
+        <v>3.0555555555555554</v>
       </c>
       <c r="N25">
-        <f t="shared" si="27"/>
-        <v>3.3333333333333339</v>
+        <f t="shared" si="7"/>
+        <v>5.5555555555555554</v>
       </c>
       <c r="AF25" s="5"/>
       <c r="AG25" s="5"/>
-      <c r="AH25" s="50"/>
-      <c r="AI25" s="51"/>
-      <c r="AJ25" s="51"/>
-      <c r="AK25" s="51"/>
-      <c r="AL25" s="51"/>
-      <c r="AM25" s="51">
-        <f>Y$11*($AD11)</f>
-        <v>0.48888888888888893</v>
-      </c>
-      <c r="AN25" s="51">
-        <f t="shared" ref="AN25:AP25" si="33">Z$11*($AD11)</f>
-        <v>0.62222222222222223</v>
-      </c>
-      <c r="AO25" s="51">
-        <f t="shared" si="33"/>
-        <v>0.75555555555555554</v>
-      </c>
-      <c r="AP25" s="51">
-        <f t="shared" si="33"/>
-        <v>0.88888888888888895</v>
+      <c r="AH25" s="35"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="5">
+        <f>X$11*($AD11)</f>
+        <v>0.35802469135802473</v>
+      </c>
+      <c r="AM25" s="5">
+        <f t="shared" ref="AM25:AP25" si="12">Y$11*($AD11)</f>
+        <v>0.46913580246913583</v>
+      </c>
+      <c r="AN25" s="5">
+        <f t="shared" si="12"/>
+        <v>0.58024691358024694</v>
+      </c>
+      <c r="AO25" s="5">
+        <f t="shared" si="12"/>
+        <v>0.6913580246913581</v>
+      </c>
+      <c r="AP25" s="5">
+        <f t="shared" si="12"/>
+        <v>0.80246913580246915</v>
       </c>
     </row>
     <row r="26" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="31"/>
-        <v>-4.4444444444444446</v>
+        <f t="shared" si="11"/>
+        <v>-3.333333333333333</v>
       </c>
       <c r="D26">
-        <f t="shared" si="31"/>
-        <v>-1.9444444444444446</v>
+        <f t="shared" si="11"/>
+        <v>-0.83333333333333304</v>
       </c>
       <c r="E26">
-        <f t="shared" si="31"/>
-        <v>0.55555555555555536</v>
+        <f t="shared" si="11"/>
+        <v>1.666666666666667</v>
       </c>
       <c r="F26">
-        <f t="shared" si="26"/>
-        <v>3.0555555555555554</v>
+        <f t="shared" si="6"/>
+        <v>4.166666666666667</v>
       </c>
       <c r="G26">
-        <f t="shared" si="26"/>
-        <v>5.5555555555555554</v>
+        <f t="shared" si="6"/>
+        <v>6.666666666666667</v>
       </c>
       <c r="I26" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J26">
-        <f t="shared" si="29"/>
-        <v>-8.8888888888888893</v>
+        <f t="shared" si="9"/>
+        <v>-6.6666666666666661</v>
       </c>
       <c r="K26">
-        <f t="shared" si="27"/>
-        <v>-6.3888888888888893</v>
+        <f t="shared" si="7"/>
+        <v>-4.1666666666666661</v>
       </c>
       <c r="L26">
-        <f t="shared" si="27"/>
-        <v>-3.8888888888888893</v>
+        <f t="shared" si="7"/>
+        <v>-1.6666666666666661</v>
       </c>
       <c r="M26">
-        <f t="shared" si="27"/>
-        <v>-1.3888888888888893</v>
+        <f t="shared" si="7"/>
+        <v>0.83333333333333393</v>
       </c>
       <c r="N26">
-        <f t="shared" si="27"/>
-        <v>1.1111111111111107</v>
+        <f t="shared" si="7"/>
+        <v>3.3333333333333339</v>
       </c>
       <c r="AF26" s="5"/>
       <c r="AG26" s="5"/>
-      <c r="AH26" s="50"/>
-      <c r="AI26" s="51"/>
-      <c r="AJ26" s="51"/>
-      <c r="AK26" s="51"/>
-      <c r="AL26" s="51"/>
-      <c r="AM26" s="51"/>
-      <c r="AN26" s="51">
-        <f>Z$12*($AD12)</f>
-        <v>0.63950617283950606</v>
-      </c>
-      <c r="AO26" s="51">
-        <f t="shared" ref="AO26:AP26" si="34">AA$12*($AD12)</f>
-        <v>0.79506172839506162</v>
-      </c>
-      <c r="AP26" s="51">
-        <f t="shared" si="34"/>
-        <v>0.95061728395061706</v>
+      <c r="AH26" s="35"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5">
+        <f>Y$12*($AD12)</f>
+        <v>0.48888888888888893</v>
+      </c>
+      <c r="AN26" s="5">
+        <f t="shared" ref="AN26:AP26" si="13">Z$12*($AD12)</f>
+        <v>0.62222222222222223</v>
+      </c>
+      <c r="AO26" s="5">
+        <f t="shared" si="13"/>
+        <v>0.75555555555555554</v>
+      </c>
+      <c r="AP26" s="5">
+        <f t="shared" si="13"/>
+        <v>0.88888888888888895</v>
       </c>
     </row>
     <row r="27" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="31"/>
-        <v>-5.5555555555555554</v>
+        <f t="shared" si="11"/>
+        <v>-4.4444444444444446</v>
       </c>
       <c r="D27">
-        <f t="shared" si="31"/>
-        <v>-3.0555555555555554</v>
+        <f t="shared" si="11"/>
+        <v>-1.9444444444444446</v>
       </c>
       <c r="E27">
-        <f t="shared" si="31"/>
-        <v>-0.55555555555555536</v>
+        <f t="shared" si="11"/>
+        <v>0.55555555555555536</v>
       </c>
       <c r="F27">
-        <f t="shared" si="26"/>
-        <v>1.9444444444444446</v>
+        <f t="shared" si="6"/>
+        <v>3.0555555555555554</v>
       </c>
       <c r="G27">
-        <f t="shared" si="26"/>
-        <v>4.4444444444444446</v>
+        <f t="shared" si="6"/>
+        <v>5.5555555555555554</v>
       </c>
       <c r="I27" s="4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J27">
-        <f t="shared" si="29"/>
-        <v>-11.111111111111111</v>
+        <f t="shared" si="9"/>
+        <v>-8.8888888888888893</v>
       </c>
       <c r="K27">
-        <f t="shared" si="27"/>
-        <v>-8.6111111111111107</v>
+        <f t="shared" si="7"/>
+        <v>-6.3888888888888893</v>
       </c>
       <c r="L27">
-        <f t="shared" si="27"/>
-        <v>-6.1111111111111107</v>
+        <f t="shared" si="7"/>
+        <v>-3.8888888888888893</v>
       </c>
       <c r="M27">
-        <f t="shared" si="27"/>
-        <v>-3.6111111111111107</v>
+        <f t="shared" si="7"/>
+        <v>-1.3888888888888893</v>
       </c>
       <c r="N27">
-        <f t="shared" si="27"/>
-        <v>-1.1111111111111107</v>
+        <f t="shared" si="7"/>
+        <v>1.1111111111111107</v>
       </c>
       <c r="AF27" s="5"/>
       <c r="AG27" s="5"/>
-      <c r="AH27" s="50"/>
-      <c r="AI27" s="51"/>
-      <c r="AJ27" s="51"/>
-      <c r="AK27" s="51"/>
-      <c r="AL27" s="51"/>
-      <c r="AM27" s="51"/>
-      <c r="AN27" s="51"/>
-      <c r="AO27" s="51">
+      <c r="AH27" s="35"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5">
+        <f>Z$13*($AD13)</f>
+        <v>0.63950617283950606</v>
+      </c>
+      <c r="AO27" s="5">
         <f>AA$13*($AD13)</f>
-        <v>0.80987654320987656</v>
-      </c>
-      <c r="AP27" s="51">
+        <v>0.79506172839506162</v>
+      </c>
+      <c r="AP27" s="5">
         <f>AB$13*($AD13)</f>
-        <v>0.98765432098765449</v>
+        <v>0.95061728395061706</v>
       </c>
     </row>
     <row r="28" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="31"/>
-        <v>-6.6666666666666661</v>
+        <f t="shared" si="11"/>
+        <v>-5.5555555555555554</v>
       </c>
       <c r="D28">
-        <f t="shared" si="31"/>
-        <v>-4.1666666666666661</v>
+        <f t="shared" si="11"/>
+        <v>-3.0555555555555554</v>
       </c>
       <c r="E28">
-        <f t="shared" si="31"/>
-        <v>-1.6666666666666661</v>
+        <f t="shared" si="11"/>
+        <v>-0.55555555555555536</v>
       </c>
       <c r="F28">
-        <f t="shared" si="26"/>
-        <v>0.83333333333333393</v>
+        <f t="shared" si="6"/>
+        <v>1.9444444444444446</v>
       </c>
       <c r="G28">
-        <f t="shared" si="26"/>
-        <v>3.3333333333333339</v>
-      </c>
-      <c r="I28" s="4"/>
+        <f t="shared" si="6"/>
+        <v>4.4444444444444446</v>
+      </c>
+      <c r="I28" s="4">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="9"/>
+        <v>-11.111111111111111</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="7"/>
+        <v>-8.6111111111111107</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="7"/>
+        <v>-6.1111111111111107</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="7"/>
+        <v>-3.6111111111111107</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="7"/>
+        <v>-1.1111111111111107</v>
+      </c>
       <c r="AF28" s="5"/>
       <c r="AG28" s="5"/>
-      <c r="AH28" s="50"/>
-      <c r="AI28" s="51"/>
-      <c r="AJ28" s="51"/>
-      <c r="AK28" s="51"/>
-      <c r="AL28" s="51"/>
-      <c r="AM28" s="51"/>
-      <c r="AN28" s="51"/>
-      <c r="AO28" s="51"/>
-      <c r="AP28" s="52">
+      <c r="AH28" s="35"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5">
+        <f>AA$14*($AD14)</f>
+        <v>0.80987654320987656</v>
+      </c>
+      <c r="AP28" s="5">
         <f>AB$14*($AD14)</f>
-        <v>1</v>
+        <v>0.98765432098765449</v>
       </c>
     </row>
     <row r="29" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="31"/>
-        <v>-7.7777777777777777</v>
+        <f t="shared" si="11"/>
+        <v>-6.6666666666666661</v>
       </c>
       <c r="D29">
-        <f t="shared" si="31"/>
-        <v>-5.2777777777777777</v>
+        <f t="shared" si="11"/>
+        <v>-4.1666666666666661</v>
       </c>
       <c r="E29">
-        <f t="shared" si="31"/>
-        <v>-2.7777777777777777</v>
+        <f t="shared" si="11"/>
+        <v>-1.6666666666666661</v>
       </c>
       <c r="F29">
-        <f t="shared" si="26"/>
-        <v>-0.27777777777777768</v>
+        <f t="shared" si="6"/>
+        <v>0.83333333333333393</v>
       </c>
       <c r="G29">
-        <f t="shared" si="26"/>
-        <v>2.2222222222222223</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH29" s="34"/>
-      <c r="AI29" s="35"/>
-      <c r="AJ29" s="35"/>
-      <c r="AK29" s="35"/>
-      <c r="AL29" s="35"/>
-      <c r="AM29" s="35"/>
-      <c r="AN29" s="35"/>
-      <c r="AO29" s="51"/>
-      <c r="AP29" s="53">
-        <f>AP28^0.5</f>
+        <f t="shared" si="6"/>
+        <v>3.3333333333333339</v>
+      </c>
+      <c r="I29" s="4"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="35"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="36">
+        <f>AB$15*($AD15)</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="31"/>
-        <v>-8.8888888888888893</v>
+        <f t="shared" si="11"/>
+        <v>-7.7777777777777777</v>
       </c>
       <c r="D30">
-        <f t="shared" si="31"/>
-        <v>-6.3888888888888893</v>
+        <f t="shared" si="11"/>
+        <v>-5.2777777777777777</v>
       </c>
       <c r="E30">
-        <f t="shared" si="31"/>
-        <v>-3.8888888888888893</v>
+        <f t="shared" si="11"/>
+        <v>-2.7777777777777777</v>
       </c>
       <c r="F30">
-        <f t="shared" si="26"/>
-        <v>-1.3888888888888893</v>
+        <f t="shared" si="6"/>
+        <v>-0.27777777777777768</v>
       </c>
       <c r="G30">
-        <f t="shared" si="26"/>
-        <v>1.1111111111111107</v>
-      </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="P30" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q30" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="AH30" s="46"/>
-      <c r="AI30" s="47"/>
-      <c r="AJ30" s="47"/>
-      <c r="AK30" s="47"/>
-      <c r="AL30" s="47"/>
-      <c r="AM30" s="47"/>
-      <c r="AN30" s="47"/>
-      <c r="AO30" s="51"/>
-      <c r="AP30" s="48">
-        <f>AP29/9</f>
-        <v>0.1111111111111111</v>
+        <f t="shared" si="6"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="24"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="37">
+        <f>AP29^0.5</f>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
+        <v>8</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="11"/>
+        <v>-8.8888888888888893</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="11"/>
+        <v>-6.3888888888888893</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="11"/>
+        <v>-3.8888888888888893</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="6"/>
+        <v>-1.3888888888888893</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="6"/>
+        <v>1.1111111111111107</v>
+      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="P31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q31" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="5">
-        <f t="shared" si="31"/>
-        <v>-10</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="31"/>
-        <v>-7.5</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="31"/>
-        <v>-5</v>
-      </c>
-      <c r="F31">
-        <f t="shared" si="26"/>
-        <v>-2.5</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="J31" s="10">
-        <v>0</v>
-      </c>
-      <c r="K31" s="10">
-        <v>2.5</v>
-      </c>
-      <c r="L31" s="10">
-        <v>5</v>
-      </c>
-      <c r="M31" s="10">
-        <v>7.5</v>
-      </c>
-      <c r="N31" s="10">
-        <v>10</v>
-      </c>
-      <c r="P31" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="13">
-        <v>2</v>
-      </c>
-      <c r="R31" s="13">
-        <v>1.5</v>
-      </c>
-      <c r="S31" s="13">
-        <v>1</v>
-      </c>
-      <c r="T31" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="U31" s="13">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <f>Q31*$P31</f>
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <f t="shared" ref="X31:Z31" si="35">R31*$P31</f>
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <f>U31*$P31</f>
-        <v>0</v>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="AH31" s="31"/>
+      <c r="AI31" s="32"/>
+      <c r="AJ31" s="32"/>
+      <c r="AK31" s="32"/>
+      <c r="AL31" s="32"/>
+      <c r="AM31" s="32"/>
+      <c r="AN31" s="32"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="33">
+        <f>AP30/9</f>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="32" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B32" s="7">
+        <v>9</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="11"/>
+        <v>-10</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="11"/>
+        <v>-7.5</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="11"/>
+        <v>-5</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="6"/>
+        <v>-2.5</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="10">
+        <v>0</v>
+      </c>
+      <c r="K32" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="L32" s="10">
+        <v>5</v>
+      </c>
+      <c r="M32" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="N32" s="10">
         <v>10</v>
       </c>
-      <c r="C32" s="5">
-        <f t="shared" si="31"/>
-        <v>-11.111111111111111</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="31"/>
-        <v>-8.6111111111111107</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="31"/>
-        <v>-6.1111111111111107</v>
-      </c>
-      <c r="F32">
-        <f t="shared" si="26"/>
-        <v>-3.6111111111111107</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="26"/>
-        <v>-1.1111111111111107</v>
-      </c>
-      <c r="I32" s="4">
-        <v>0</v>
-      </c>
-      <c r="J32" s="11">
-        <f>2-(J22+J21)/$D$1</f>
+      <c r="P32" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="13">
         <v>2</v>
       </c>
-      <c r="K32" s="11">
-        <f t="shared" ref="K32:M32" si="36">2-(K22+K21)/$D$1</f>
+      <c r="R32" s="13">
         <v>1.5</v>
       </c>
-      <c r="L32" s="11">
-        <f t="shared" si="36"/>
+      <c r="S32" s="13">
         <v>1</v>
       </c>
-      <c r="M32" s="11">
-        <f t="shared" si="36"/>
+      <c r="T32" s="13">
         <v>0.5</v>
       </c>
-      <c r="N32" s="11">
-        <f>2-(N22+N21)/$D$1</f>
-        <v>0</v>
-      </c>
-      <c r="P32" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="19">
-        <f>K33</f>
-        <v>1.7222222222222223</v>
-      </c>
-      <c r="R32" s="19">
-        <f t="shared" ref="R32:T32" si="37">L33</f>
-        <v>1.2222222222222223</v>
-      </c>
-      <c r="S32" s="19">
-        <f t="shared" si="37"/>
-        <v>0.7222222222222221</v>
-      </c>
-      <c r="T32" s="19">
-        <f t="shared" si="37"/>
-        <v>0.2222222222222221</v>
-      </c>
-      <c r="U32" s="19"/>
+      <c r="U32" s="13">
+        <v>0</v>
+      </c>
       <c r="W32">
         <f>Q32*$P32</f>
-        <v>3.4444444444444446</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <f t="shared" ref="X32" si="38">R32*$P32</f>
-        <v>2.4444444444444446</v>
+        <f t="shared" ref="X32:Z32" si="14">R32*$P32</f>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <f t="shared" ref="Y32" si="39">S32*$P32</f>
-        <v>1.4444444444444442</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <f t="shared" ref="Z32" si="40">T32*$P32</f>
-        <v>0.4444444444444442</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <f>U32*$P32</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
+        <v>10</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" si="11"/>
+        <v>-11.111111111111111</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="11"/>
+        <v>-8.6111111111111107</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="11"/>
+        <v>-6.1111111111111107</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="6"/>
+        <v>-3.6111111111111107</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="6"/>
+        <v>-1.1111111111111107</v>
+      </c>
       <c r="I33" s="4">
+        <v>0</v>
+      </c>
+      <c r="J33" s="11">
+        <f>2-(J23+J22)/$D$2</f>
         <v>2</v>
       </c>
-      <c r="J33">
-        <f>2-(J23+J$21)/$D$1</f>
-        <v>2.2222222222222223</v>
-      </c>
       <c r="K33" s="11">
-        <f>2-(K23+K$21)/$D$1</f>
+        <f t="shared" ref="K33:M33" si="15">2-(K23+K22)/$D$2</f>
+        <v>1.5</v>
+      </c>
+      <c r="L33" s="11">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="M33" s="11">
+        <f t="shared" si="15"/>
+        <v>0.5</v>
+      </c>
+      <c r="N33" s="11">
+        <f>2-(N23+N22)/$D$2</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="19">
+        <f>K34</f>
         <v>1.7222222222222223</v>
       </c>
-      <c r="L33" s="11">
-        <f t="shared" ref="L33:N33" si="41">2-(L23+L$21)/$D$1</f>
+      <c r="R33" s="19">
+        <f t="shared" ref="R33:T33" si="16">L34</f>
         <v>1.2222222222222223</v>
       </c>
-      <c r="M33" s="11">
-        <f t="shared" si="41"/>
+      <c r="S33" s="19">
+        <f t="shared" si="16"/>
         <v>0.7222222222222221</v>
       </c>
-      <c r="N33" s="11">
-        <f t="shared" si="41"/>
+      <c r="T33" s="19">
+        <f t="shared" si="16"/>
         <v>0.2222222222222221</v>
       </c>
-      <c r="P33" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q33" s="19">
-        <f>L34</f>
-        <v>1.4444444444444444</v>
-      </c>
-      <c r="R33" s="19">
-        <f t="shared" ref="R33:S33" si="42">M34</f>
-        <v>0.94444444444444442</v>
-      </c>
-      <c r="S33" s="19">
-        <f t="shared" si="42"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="T33" s="19"/>
       <c r="U33" s="19"/>
       <c r="W33">
-        <f t="shared" ref="W33:W35" si="43">Q33*$P33</f>
-        <v>5.7777777777777777</v>
+        <f>Q33*$P33</f>
+        <v>3.4444444444444446</v>
       </c>
       <c r="X33">
-        <f t="shared" ref="X33:X34" si="44">R33*$P33</f>
-        <v>3.7777777777777777</v>
+        <f t="shared" ref="X33" si="17">R33*$P33</f>
+        <v>2.4444444444444446</v>
       </c>
       <c r="Y33">
-        <f t="shared" ref="Y33" si="45">S33*$P33</f>
-        <v>1.7777777777777777</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="5">
-        <f>AF33+$AP$30</f>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="AH33" s="5">
-        <f t="shared" ref="AH33:AP33" si="46">AG33+$AP$30</f>
-        <v>0.22222222222222221</v>
-      </c>
-      <c r="AI33" s="5">
-        <f t="shared" si="46"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="AJ33" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="Y33" si="18">S33*$P33</f>
+        <v>1.4444444444444442</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" ref="Z33" si="19">T33*$P33</f>
+        <v>0.4444444444444442</v>
+      </c>
+    </row>
+    <row r="34" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="I34" s="4">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <f>2-(J24+J$22)/$D$2</f>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="K34" s="11">
+        <f>2-(K24+K$22)/$D$2</f>
+        <v>1.7222222222222223</v>
+      </c>
+      <c r="L34" s="11">
+        <f t="shared" ref="L34:N34" si="20">2-(L24+L$22)/$D$2</f>
+        <v>1.2222222222222223</v>
+      </c>
+      <c r="M34" s="11">
+        <f t="shared" si="20"/>
+        <v>0.7222222222222221</v>
+      </c>
+      <c r="N34" s="11">
+        <f t="shared" si="20"/>
+        <v>0.2222222222222221</v>
+      </c>
+      <c r="P34" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="19">
+        <f>L35</f>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="R34" s="19">
+        <f t="shared" ref="R34:S34" si="21">M35</f>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="S34" s="19">
+        <f t="shared" si="21"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="AK33" s="5">
-        <f t="shared" si="46"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="AL33" s="5">
-        <f t="shared" si="46"/>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="AM33" s="5">
-        <f t="shared" si="46"/>
-        <v>0.7777777777777779</v>
-      </c>
-      <c r="AN33" s="5">
-        <f t="shared" si="46"/>
-        <v>0.88888888888888906</v>
-      </c>
-      <c r="AO33" s="5">
-        <f t="shared" si="46"/>
-        <v>1.0000000000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I34" s="4">
-        <v>4</v>
-      </c>
-      <c r="J34">
-        <f t="shared" ref="J34:N37" si="47">2-(J24+J$21)/$D$1</f>
-        <v>2.4444444444444446</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="47"/>
-        <v>1.9444444444444444</v>
-      </c>
-      <c r="L34" s="11">
-        <f t="shared" si="47"/>
-        <v>1.4444444444444444</v>
-      </c>
-      <c r="M34" s="11">
-        <f t="shared" si="47"/>
-        <v>0.94444444444444442</v>
-      </c>
-      <c r="N34" s="11">
-        <f t="shared" si="47"/>
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="P34" s="4">
-        <v>6</v>
-      </c>
-      <c r="Q34" s="19">
-        <f>M35</f>
-        <v>1.1666666666666665</v>
-      </c>
-      <c r="R34" s="19">
-        <f>N35</f>
-        <v>0.66666666666666652</v>
-      </c>
-      <c r="S34" s="19"/>
       <c r="T34" s="19"/>
       <c r="U34" s="19"/>
       <c r="W34">
-        <f t="shared" si="43"/>
-        <v>6.9999999999999991</v>
+        <f t="shared" ref="W34:W36" si="22">Q34*$P34</f>
+        <v>5.7777777777777777</v>
       </c>
       <c r="X34">
-        <f t="shared" si="44"/>
-        <v>3.9999999999999991</v>
+        <f t="shared" ref="X34:X35" si="23">R34*$P34</f>
+        <v>3.7777777777777777</v>
+      </c>
+      <c r="Y34">
+        <f t="shared" ref="Y34" si="24">S34*$P34</f>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="5">
+        <f>AF34+$AP$31</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="AH34" s="5">
+        <f t="shared" ref="AH34:AO34" si="25">AG34+$AP$31</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="AI34" s="5">
+        <f t="shared" si="25"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AJ34" s="5">
+        <f t="shared" si="25"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="AK34" s="5">
+        <f t="shared" si="25"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="AL34" s="5">
+        <f t="shared" si="25"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="AM34" s="5">
+        <f t="shared" si="25"/>
+        <v>0.7777777777777779</v>
+      </c>
+      <c r="AN34" s="5">
+        <f t="shared" si="25"/>
+        <v>0.88888888888888906</v>
+      </c>
+      <c r="AO34" s="5">
+        <f t="shared" si="25"/>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="35" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="C35" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
+      <c r="B35" s="6" t="s">
+        <v>1</v>
+      </c>
       <c r="I35" s="4">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ref="J35:N38" si="26">2-(J25+J$22)/$D$2</f>
+        <v>2.4444444444444446</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="26"/>
+        <v>1.9444444444444444</v>
+      </c>
+      <c r="L35" s="11">
+        <f t="shared" si="26"/>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="M35" s="11">
+        <f t="shared" si="26"/>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="N35" s="11">
+        <f t="shared" si="26"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="P35" s="4">
         <v>6</v>
       </c>
-      <c r="J35">
-        <f t="shared" si="47"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="K35">
-        <f t="shared" si="47"/>
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="47"/>
-        <v>1.6666666666666665</v>
-      </c>
-      <c r="M35" s="11">
-        <f t="shared" si="47"/>
+      <c r="Q35" s="19">
+        <f>M36</f>
         <v>1.1666666666666665</v>
       </c>
-      <c r="N35" s="11">
-        <f t="shared" si="47"/>
+      <c r="R35" s="19">
+        <f>N36</f>
         <v>0.66666666666666652</v>
       </c>
-      <c r="P35" s="4">
-        <v>8</v>
-      </c>
-      <c r="Q35" s="19">
-        <f>N36</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="R35" s="19"/>
       <c r="S35" s="19"/>
       <c r="T35" s="19"/>
       <c r="U35" s="19"/>
       <c r="W35">
-        <f t="shared" si="43"/>
+        <f t="shared" si="22"/>
+        <v>6.9999999999999991</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="23"/>
+        <v>3.9999999999999991</v>
+      </c>
+    </row>
+    <row r="36" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="C36" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="I36" s="4">
+        <v>6</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="26"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="26"/>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="26"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="M36" s="11">
+        <f t="shared" si="26"/>
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="N36" s="11">
+        <f t="shared" si="26"/>
+        <v>0.66666666666666652</v>
+      </c>
+      <c r="P36" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q36" s="19">
+        <f>N37</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="W36">
+        <f t="shared" si="22"/>
         <v>7.1111111111111107</v>
       </c>
     </row>
-    <row r="36" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
+    <row r="37" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="14">
-        <v>0</v>
-      </c>
-      <c r="D36" s="14">
+      <c r="C37" s="14">
+        <v>0</v>
+      </c>
+      <c r="D37" s="14">
         <v>2.5</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E37" s="14">
         <v>5</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F37" s="14">
         <v>7.5</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G37" s="14">
         <v>10</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I37" s="4">
         <v>8</v>
       </c>
-      <c r="J36">
-        <f t="shared" si="47"/>
+      <c r="J37">
+        <f t="shared" si="26"/>
         <v>2.8888888888888888</v>
       </c>
-      <c r="K36">
-        <f t="shared" si="47"/>
+      <c r="K37">
+        <f t="shared" si="26"/>
         <v>2.3888888888888888</v>
       </c>
-      <c r="L36">
-        <f t="shared" si="47"/>
+      <c r="L37">
+        <f t="shared" si="26"/>
         <v>1.8888888888888888</v>
       </c>
-      <c r="M36">
-        <f>2-(M26+M$21)/$D$1</f>
+      <c r="M37">
+        <f>2-(M27+M$22)/$D$2</f>
         <v>1.3888888888888888</v>
       </c>
-      <c r="N36" s="11">
-        <f t="shared" si="47"/>
+      <c r="N37" s="11">
+        <f t="shared" si="26"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="P36" s="4">
+      <c r="P37" s="4">
         <v>10</v>
       </c>
-      <c r="Q36" s="18" t="s">
+      <c r="Q37" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="1"/>
-      <c r="W36" t="s">
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="1"/>
+      <c r="W37" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="37" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B37" s="4">
-        <v>0</v>
-      </c>
-      <c r="C37" s="17">
-        <f>2-(C22+C$36)/$D$18</f>
-        <v>2</v>
-      </c>
-      <c r="D37" s="11">
-        <f>2-(D22+D$36)/$D$18</f>
-        <v>1.5</v>
-      </c>
-      <c r="E37" s="11">
-        <f t="shared" ref="E37:F37" si="48">2-(E22+E$36)/$D$18</f>
-        <v>1</v>
-      </c>
-      <c r="F37" s="11">
-        <f t="shared" si="48"/>
-        <v>0.5</v>
-      </c>
-      <c r="G37" s="11">
-        <f>2-(G22+G$36)/$D$18</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="4">
-        <v>10</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="47"/>
-        <v>3.1111111111111112</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="47"/>
-        <v>2.6111111111111112</v>
-      </c>
-      <c r="L37">
-        <f t="shared" si="47"/>
-        <v>2.1111111111111112</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="47"/>
-        <v>1.6111111111111112</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="47"/>
-        <v>1.1111111111111112</v>
-      </c>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
     </row>
     <row r="38" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
+        <v>0</v>
+      </c>
+      <c r="C38" s="17">
+        <f>2-(C23+C$37)/$D$19</f>
+        <v>2</v>
+      </c>
+      <c r="D38" s="11">
+        <f>2-(D23+D$37)/$D$19</f>
+        <v>1.5</v>
+      </c>
+      <c r="E38" s="11">
+        <f t="shared" ref="E38:F38" si="27">2-(E23+E$37)/$D$19</f>
         <v>1</v>
       </c>
-      <c r="C38" s="5">
-        <f t="shared" ref="C38:G38" si="49">2-(C23+C$36)/$D$18</f>
+      <c r="F38" s="11">
+        <f t="shared" si="27"/>
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="11">
+        <f>2-(G23+G$37)/$D$19</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="26"/>
+        <v>3.1111111111111112</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="26"/>
+        <v>2.6111111111111112</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="26"/>
         <v>2.1111111111111112</v>
       </c>
-      <c r="D38" s="11">
-        <f t="shared" si="49"/>
+      <c r="M38">
+        <f t="shared" si="26"/>
         <v>1.6111111111111112</v>
       </c>
-      <c r="E38" s="11">
-        <f t="shared" si="49"/>
+      <c r="N38">
+        <f t="shared" si="26"/>
         <v>1.1111111111111112</v>
       </c>
-      <c r="F38" s="11">
-        <f t="shared" si="49"/>
-        <v>0.61111111111111116</v>
-      </c>
-      <c r="G38" s="11">
-        <f t="shared" si="49"/>
-        <v>0.11111111111111116</v>
-      </c>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
     </row>
     <row r="39" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39" s="5">
-        <f t="shared" ref="C39:G39" si="50">2-(C24+C$36)/$D$18</f>
-        <v>2.2222222222222223</v>
+        <f t="shared" ref="C39:G39" si="28">2-(C24+C$37)/$D$19</f>
+        <v>2.1111111111111112</v>
       </c>
       <c r="D39" s="11">
-        <f t="shared" si="50"/>
-        <v>1.7222222222222223</v>
+        <f t="shared" si="28"/>
+        <v>1.6111111111111112</v>
       </c>
       <c r="E39" s="11">
-        <f t="shared" si="50"/>
-        <v>1.2222222222222223</v>
+        <f t="shared" si="28"/>
+        <v>1.1111111111111112</v>
       </c>
       <c r="F39" s="11">
-        <f t="shared" si="50"/>
-        <v>0.7222222222222221</v>
+        <f t="shared" si="28"/>
+        <v>0.61111111111111116</v>
       </c>
       <c r="G39" s="11">
-        <f t="shared" si="50"/>
-        <v>0.2222222222222221</v>
+        <f t="shared" si="28"/>
+        <v>0.11111111111111116</v>
       </c>
     </row>
     <row r="40" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C40" s="5">
-        <f t="shared" ref="C40:G40" si="51">2-(C25+C$36)/$D$18</f>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="51"/>
-        <v>1.8333333333333333</v>
+        <f t="shared" ref="C40:G40" si="29">2-(C25+C$37)/$D$19</f>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="D40" s="11">
+        <f t="shared" si="29"/>
+        <v>1.7222222222222223</v>
       </c>
       <c r="E40" s="11">
-        <f t="shared" si="51"/>
-        <v>1.3333333333333333</v>
+        <f t="shared" si="29"/>
+        <v>1.2222222222222223</v>
       </c>
       <c r="F40" s="11">
-        <f t="shared" si="51"/>
-        <v>0.83333333333333326</v>
+        <f t="shared" si="29"/>
+        <v>0.7222222222222221</v>
       </c>
       <c r="G40" s="11">
-        <f t="shared" si="51"/>
-        <v>0.33333333333333326</v>
+        <f t="shared" si="29"/>
+        <v>0.2222222222222221</v>
       </c>
     </row>
     <row r="41" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
+        <v>3</v>
+      </c>
+      <c r="C41" s="5">
+        <f t="shared" ref="C41:G41" si="30">2-(C26+C$37)/$D$19</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="30"/>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="E41" s="11">
+        <f t="shared" si="30"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F41" s="11">
+        <f t="shared" si="30"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="G41" s="11">
+        <f t="shared" si="30"/>
+        <v>0.33333333333333326</v>
+      </c>
+    </row>
+    <row r="42" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B42" s="4">
         <v>4</v>
       </c>
-      <c r="C41" s="5">
-        <f t="shared" ref="C41:G41" si="52">2-(C26+C$36)/$D$18</f>
+      <c r="C42" s="5">
+        <f t="shared" ref="C42:G42" si="31">2-(C27+C$37)/$D$19</f>
         <v>2.4444444444444446</v>
       </c>
-      <c r="D41">
-        <f t="shared" si="52"/>
+      <c r="D42">
+        <f t="shared" si="31"/>
         <v>1.9444444444444444</v>
       </c>
-      <c r="E41" s="11">
-        <f t="shared" si="52"/>
+      <c r="E42" s="11">
+        <f t="shared" si="31"/>
         <v>1.4444444444444444</v>
       </c>
-      <c r="F41" s="11">
-        <f t="shared" si="52"/>
+      <c r="F42" s="11">
+        <f t="shared" si="31"/>
         <v>0.94444444444444442</v>
       </c>
-      <c r="G41" s="11">
-        <f t="shared" si="52"/>
+      <c r="G42" s="11">
+        <f t="shared" si="31"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="AF41">
+      <c r="AF42">
         <f>0.8/0.9</f>
         <v>0.88888888888888895</v>
       </c>
     </row>
-    <row r="42" spans="2:41" x14ac:dyDescent="0.25">
-      <c r="B42" s="4">
-        <v>5</v>
-      </c>
-      <c r="C42" s="5">
-        <f t="shared" ref="C42:G42" si="53">2-(C27+C$36)/$D$18</f>
-        <v>2.5555555555555554</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="53"/>
-        <v>2.0555555555555554</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="53"/>
-        <v>1.5555555555555556</v>
-      </c>
-      <c r="F42" s="11">
-        <f t="shared" si="53"/>
-        <v>1.0555555555555556</v>
-      </c>
-      <c r="G42" s="11">
-        <f t="shared" si="53"/>
-        <v>0.55555555555555558</v>
-      </c>
-    </row>
     <row r="43" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" ref="C43:G43" si="54">2-(C28+C$36)/$D$18</f>
-        <v>2.6666666666666665</v>
+        <f t="shared" ref="C43:G43" si="32">2-(C28+C$37)/$D$19</f>
+        <v>2.5555555555555554</v>
       </c>
       <c r="D43">
-        <f t="shared" si="54"/>
-        <v>2.1666666666666665</v>
+        <f t="shared" si="32"/>
+        <v>2.0555555555555554</v>
       </c>
       <c r="E43">
-        <f t="shared" si="54"/>
-        <v>1.6666666666666665</v>
+        <f t="shared" si="32"/>
+        <v>1.5555555555555556</v>
       </c>
       <c r="F43" s="11">
-        <f t="shared" si="54"/>
-        <v>1.1666666666666665</v>
+        <f t="shared" si="32"/>
+        <v>1.0555555555555556</v>
       </c>
       <c r="G43" s="11">
-        <f t="shared" si="54"/>
-        <v>0.66666666666666652</v>
+        <f t="shared" si="32"/>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="44" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" ref="C44:G44" si="55">2-(C29+C$36)/$D$18</f>
-        <v>2.7777777777777777</v>
+        <f t="shared" ref="C44:G44" si="33">2-(C29+C$37)/$D$19</f>
+        <v>2.6666666666666665</v>
       </c>
       <c r="D44">
-        <f t="shared" si="55"/>
-        <v>2.2777777777777777</v>
+        <f t="shared" si="33"/>
+        <v>2.1666666666666665</v>
       </c>
       <c r="E44">
-        <f t="shared" si="55"/>
-        <v>1.7777777777777777</v>
-      </c>
-      <c r="F44">
-        <f t="shared" si="55"/>
-        <v>1.2777777777777777</v>
+        <f t="shared" si="33"/>
+        <v>1.6666666666666665</v>
+      </c>
+      <c r="F44" s="11">
+        <f t="shared" si="33"/>
+        <v>1.1666666666666665</v>
       </c>
       <c r="G44" s="11">
-        <f t="shared" si="55"/>
-        <v>0.7777777777777779</v>
+        <f t="shared" si="33"/>
+        <v>0.66666666666666652</v>
       </c>
     </row>
     <row r="45" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C45" s="5">
-        <f t="shared" ref="C45:G45" si="56">2-(C30+C$36)/$D$18</f>
-        <v>2.8888888888888888</v>
+        <f t="shared" ref="C45:G45" si="34">2-(C30+C$37)/$D$19</f>
+        <v>2.7777777777777777</v>
       </c>
       <c r="D45">
-        <f t="shared" si="56"/>
-        <v>2.3888888888888888</v>
+        <f t="shared" si="34"/>
+        <v>2.2777777777777777</v>
       </c>
       <c r="E45">
-        <f t="shared" si="56"/>
-        <v>1.8888888888888888</v>
+        <f t="shared" si="34"/>
+        <v>1.7777777777777777</v>
       </c>
       <c r="F45">
-        <f t="shared" si="56"/>
-        <v>1.3888888888888888</v>
+        <f t="shared" si="34"/>
+        <v>1.2777777777777777</v>
       </c>
       <c r="G45" s="11">
-        <f t="shared" si="56"/>
-        <v>0.88888888888888884</v>
+        <f t="shared" si="34"/>
+        <v>0.7777777777777779</v>
       </c>
     </row>
     <row r="46" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C46" s="5">
-        <f t="shared" ref="C46:G46" si="57">2-(C31+C$36)/$D$18</f>
-        <v>3</v>
+        <f t="shared" ref="C46:G46" si="35">2-(C31+C$37)/$D$19</f>
+        <v>2.8888888888888888</v>
       </c>
       <c r="D46">
-        <f t="shared" si="57"/>
-        <v>2.5</v>
+        <f t="shared" si="35"/>
+        <v>2.3888888888888888</v>
       </c>
       <c r="E46">
-        <f t="shared" si="57"/>
-        <v>2</v>
+        <f t="shared" si="35"/>
+        <v>1.8888888888888888</v>
       </c>
       <c r="F46">
-        <f t="shared" si="57"/>
-        <v>1.5</v>
+        <f t="shared" si="35"/>
+        <v>1.3888888888888888</v>
       </c>
       <c r="G46" s="11">
-        <f t="shared" si="57"/>
-        <v>1</v>
+        <f t="shared" si="35"/>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="47" spans="2:41" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
+        <v>9</v>
+      </c>
+      <c r="C47" s="5">
+        <f t="shared" ref="C47:G47" si="36">2-(C32+C$37)/$D$19</f>
+        <v>3</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="36"/>
+        <v>2.5</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="36"/>
+        <v>1.5</v>
+      </c>
+      <c r="G47" s="11">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="T47">
+        <f>1/0.9</f>
+        <v>1.1111111111111112</v>
+      </c>
+    </row>
+    <row r="48" spans="2:41" x14ac:dyDescent="0.25">
+      <c r="B48" s="4">
         <v>10</v>
       </c>
-      <c r="C47" s="5">
-        <f t="shared" ref="C47:G47" si="58">2-(C32+C$36)/$D$18</f>
+      <c r="C48" s="5">
+        <f t="shared" ref="C48:G48" si="37">2-(C33+C$37)/$D$19</f>
         <v>3.1111111111111112</v>
       </c>
-      <c r="D47">
-        <f t="shared" si="58"/>
+      <c r="D48">
+        <f t="shared" si="37"/>
         <v>2.6111111111111112</v>
       </c>
-      <c r="E47">
-        <f t="shared" si="58"/>
+      <c r="E48">
+        <f t="shared" si="37"/>
         <v>2.1111111111111112</v>
       </c>
-      <c r="F47">
-        <f t="shared" si="58"/>
+      <c r="F48">
+        <f t="shared" si="37"/>
         <v>1.6111111111111112</v>
       </c>
-      <c r="G47">
-        <f t="shared" si="58"/>
+      <c r="G48">
+        <f t="shared" si="37"/>
         <v>1.1111111111111112</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="4" t="s">
+      <c r="T48">
+        <f>T47^0.5</f>
+        <v>1.0540925533894598</v>
+      </c>
+      <c r="U48">
+        <f>T48/2</f>
+        <v>0.52704627669472992</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C51" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="4">
-        <f>B37</f>
-        <v>0</v>
-      </c>
-      <c r="C51" s="5">
-        <f>C37</f>
-        <v>2</v>
-      </c>
-      <c r="D51" s="5">
-        <f t="shared" ref="D51:G51" si="59">D37</f>
-        <v>1.5</v>
-      </c>
-      <c r="E51" s="5">
-        <f t="shared" si="59"/>
-        <v>1</v>
-      </c>
-      <c r="F51" s="5">
-        <f t="shared" si="59"/>
-        <v>0.5</v>
-      </c>
-      <c r="G51" s="5">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
+      <c r="D51" s="43"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="4">
-        <f t="shared" ref="B52:F61" si="60">B38</f>
+        <f>B38</f>
+        <v>0</v>
+      </c>
+      <c r="C52" s="5">
+        <f>C38</f>
+        <v>2</v>
+      </c>
+      <c r="D52" s="5">
+        <f t="shared" ref="D52:G52" si="38">D38</f>
+        <v>1.5</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
-      <c r="C52" s="5">
-        <f>D38</f>
-        <v>1.6111111111111112</v>
-      </c>
-      <c r="D52" s="5">
-        <f t="shared" si="60"/>
-        <v>1.6111111111111112</v>
-      </c>
-      <c r="E52" s="5">
-        <f t="shared" si="60"/>
-        <v>1.1111111111111112</v>
-      </c>
       <c r="F52" s="5">
-        <f t="shared" si="60"/>
-        <v>0.61111111111111116</v>
-      </c>
-      <c r="G52" s="5"/>
+        <f t="shared" si="38"/>
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="5">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="4">
-        <f t="shared" si="60"/>
-        <v>2</v>
+        <f t="shared" ref="B53:F62" si="39">B39</f>
+        <v>1</v>
       </c>
       <c r="C53" s="5">
         <f>D39</f>
-        <v>1.7222222222222223</v>
+        <v>1.6111111111111112</v>
       </c>
       <c r="D53" s="5">
-        <f t="shared" ref="D53:F53" si="61">E39</f>
-        <v>1.2222222222222223</v>
+        <f t="shared" si="39"/>
+        <v>1.6111111111111112</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" si="61"/>
-        <v>0.7222222222222221</v>
+        <f t="shared" si="39"/>
+        <v>1.1111111111111112</v>
       </c>
       <c r="F53" s="5">
-        <f t="shared" si="61"/>
-        <v>0.2222222222222221</v>
+        <f t="shared" si="39"/>
+        <v>0.61111111111111116</v>
       </c>
       <c r="G53" s="5"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="4">
-        <f t="shared" si="60"/>
-        <v>3</v>
+        <f t="shared" si="39"/>
+        <v>2</v>
       </c>
       <c r="C54" s="5">
-        <f>E40</f>
-        <v>1.3333333333333333</v>
+        <f>D40</f>
+        <v>1.7222222222222223</v>
       </c>
       <c r="D54" s="5">
-        <f t="shared" ref="D54:E54" si="62">F40</f>
-        <v>0.83333333333333326</v>
+        <f t="shared" ref="D54:F54" si="40">E40</f>
+        <v>1.2222222222222223</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="62"/>
-        <v>0.33333333333333326</v>
-      </c>
-      <c r="F54" s="5"/>
+        <f t="shared" si="40"/>
+        <v>0.7222222222222221</v>
+      </c>
+      <c r="F54" s="5">
+        <f t="shared" si="40"/>
+        <v>0.2222222222222221</v>
+      </c>
       <c r="G54" s="5"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="4">
-        <f t="shared" si="60"/>
-        <v>4</v>
+        <f t="shared" si="39"/>
+        <v>3</v>
       </c>
       <c r="C55" s="5">
         <f>E41</f>
-        <v>1.4444444444444444</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="D55" s="5">
-        <f t="shared" ref="D55:E55" si="63">F41</f>
-        <v>0.94444444444444442</v>
+        <f t="shared" ref="D55:E55" si="41">F41</f>
+        <v>0.83333333333333326</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="63"/>
-        <v>0.44444444444444442</v>
+        <f t="shared" si="41"/>
+        <v>0.33333333333333326</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="4">
-        <f t="shared" si="60"/>
-        <v>5</v>
+        <f t="shared" si="39"/>
+        <v>4</v>
       </c>
       <c r="C56" s="5">
-        <f>F42</f>
-        <v>1.0555555555555556</v>
+        <f>E42</f>
+        <v>1.4444444444444444</v>
       </c>
       <c r="D56" s="5">
-        <f>G42</f>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="E56" s="5"/>
+        <f t="shared" ref="D56:E56" si="42">F42</f>
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="42"/>
+        <v>0.44444444444444442</v>
+      </c>
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="4">
-        <f t="shared" si="60"/>
-        <v>6</v>
+        <f t="shared" si="39"/>
+        <v>5</v>
       </c>
       <c r="C57" s="5">
         <f>F43</f>
-        <v>1.1666666666666665</v>
+        <v>1.0555555555555556</v>
       </c>
       <c r="D57" s="5">
         <f>G43</f>
-        <v>0.66666666666666652</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
@@ -7902,26 +7813,29 @@
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="4">
-        <f t="shared" si="60"/>
-        <v>7</v>
+        <f t="shared" si="39"/>
+        <v>6</v>
       </c>
       <c r="C58" s="5">
+        <f>F44</f>
+        <v>1.1666666666666665</v>
+      </c>
+      <c r="D58" s="5">
         <f>G44</f>
-        <v>0.7777777777777779</v>
-      </c>
-      <c r="D58" s="5"/>
+        <v>0.66666666666666652</v>
+      </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="4">
-        <f t="shared" si="60"/>
-        <v>8</v>
+        <f t="shared" si="39"/>
+        <v>7</v>
       </c>
       <c r="C59" s="5">
         <f>G45</f>
-        <v>0.88888888888888884</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -7930,12 +7844,12 @@
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="4">
-        <f t="shared" si="60"/>
-        <v>9</v>
+        <f t="shared" si="39"/>
+        <v>8</v>
       </c>
       <c r="C60" s="5">
         <f>G46</f>
-        <v>1</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -7944,46 +7858,59 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="4">
-        <f t="shared" si="60"/>
-        <v>10</v>
-      </c>
-      <c r="C61" s="5"/>
+        <f t="shared" si="39"/>
+        <v>9</v>
+      </c>
+      <c r="C61" s="5">
+        <f>G47</f>
+        <v>1</v>
+      </c>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C62" s="16"/>
+      <c r="B62" s="4">
+        <f t="shared" si="39"/>
+        <v>10</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C63" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="AF3:AP3"/>
-    <mergeCell ref="AF17:AP17"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="P5:P15"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="J20:N20"/>
-    <mergeCell ref="J30:N30"/>
-    <mergeCell ref="Q30:U30"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="R3:AB3"/>
+  <mergeCells count="11">
+    <mergeCell ref="J31:N31"/>
+    <mergeCell ref="Q31:U31"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="R4:AB4"/>
+    <mergeCell ref="AF18:AP18"/>
+    <mergeCell ref="A6:A16"/>
+    <mergeCell ref="P6:P16"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="J21:N21"/>
   </mergeCells>
-  <conditionalFormatting sqref="C22:G32">
+  <conditionalFormatting sqref="C23:G33">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
       <formula>0</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C5:M15">
+  <conditionalFormatting sqref="C6:M16">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="between">
       <formula>0</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J22:N27">
+  <conditionalFormatting sqref="J23:N28">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="between">
       <formula>0</formula>
       <formula>10</formula>
@@ -8020,35 +7947,35 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="C3" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
       <c r="H3">
         <f>(10+B5*1/0.9)/4</f>
         <v>2.5</v>
       </c>
-      <c r="L3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
+      <c r="L3" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="47"/>
+      <c r="AA3" s="47"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -8162,24 +8089,24 @@
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="C7" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
       <c r="H7" s="1">
         <f>(10-B9/0.9)/4</f>
         <v>2.2222222222222223</v>
       </c>
-      <c r="L7" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
+      <c r="L7" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="45"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -8317,13 +8244,13 @@
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="C11" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="1">
         <f>(10-B13/0.9)/4</f>
         <v>1.9444444444444444</v>
@@ -8331,13 +8258,13 @@
       <c r="I11" s="1"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
+      <c r="L11" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
@@ -8476,13 +8403,13 @@
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
-      <c r="C15" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
+      <c r="C15" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="1">
         <f>(10-B17/0.9)/4</f>
         <v>1.6666666666666667</v>
@@ -8490,13 +8417,13 @@
       <c r="I15" s="1"/>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
+      <c r="L15" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="45"/>
+      <c r="N15" s="45"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -8634,13 +8561,13 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
-      <c r="C19" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="C19" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
       <c r="H19" s="1">
         <f>(10-B21/0.9)/4</f>
         <v>1.3888888888888888</v>
@@ -8648,13 +8575,13 @@
       <c r="I19" s="1"/>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
+      <c r="L19" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -8793,13 +8720,13 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
-      <c r="C23" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
+      <c r="C23" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
       <c r="H23" s="1">
         <f>(10-B25/0.9)/4</f>
         <v>1.1111111111111112</v>
@@ -8807,13 +8734,13 @@
       <c r="I23" s="1"/>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="27"/>
+      <c r="L23" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="45"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45"/>
+      <c r="P23" s="45"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1"/>
@@ -8944,21 +8871,21 @@
       <c r="M26" s="12"/>
       <c r="N26" s="1"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
-      <c r="C27" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
+      <c r="C27" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45"/>
       <c r="H27" s="1">
         <f>(10-B29/0.9)/4</f>
         <v>0.83333333333333348</v>
@@ -8966,13 +8893,13 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M27" s="27"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
+      <c r="L27" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="45"/>
+      <c r="N27" s="45"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="45"/>
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
@@ -9110,13 +9037,13 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C31" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
+      <c r="C31" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
       <c r="H31" s="1">
         <f>(10-B33/0.9)/4</f>
         <v>0.55555555555555558</v>
@@ -9124,13 +9051,13 @@
       <c r="I31" s="1"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
+      <c r="L31" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="45"/>
+      <c r="N31" s="45"/>
+      <c r="O31" s="45"/>
+      <c r="P31" s="45"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -9269,13 +9196,13 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
-      <c r="C35" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
+      <c r="C35" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="45"/>
       <c r="H35" s="1">
         <f>(10-B37/0.9)/4</f>
         <v>0.27777777777777768</v>
@@ -9283,13 +9210,13 @@
       <c r="I35" s="1"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M35" s="27"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
+      <c r="L35" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="M35" s="45"/>
+      <c r="N35" s="45"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="45"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
@@ -9428,13 +9355,13 @@
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
-      <c r="C39" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
+      <c r="C39" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
       <c r="H39" s="1">
         <f>(10-B41/0.9)/4</f>
         <v>0</v>
@@ -9442,13 +9369,13 @@
       <c r="I39" s="1"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="27"/>
-      <c r="P39" s="27"/>
+      <c r="L39" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" s="45"/>
+      <c r="N39" s="45"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="45"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -9585,13 +9512,13 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
-      <c r="C43" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
+      <c r="C43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
       <c r="H43">
         <f>(10-B45/0.9)/4</f>
         <v>-0.27777777777777768</v>
@@ -9599,13 +9526,13 @@
       <c r="I43" s="1"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
+      <c r="L43" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="M43" s="45"/>
+      <c r="N43" s="45"/>
+      <c r="O43" s="45"/>
+      <c r="P43" s="45"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -9756,19 +9683,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="L3:P3"/>
-    <mergeCell ref="Q3:AA3"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="L23:P23"/>
     <mergeCell ref="C39:G39"/>
     <mergeCell ref="L39:P39"/>
     <mergeCell ref="C43:G43"/>
@@ -9780,6 +9694,19 @@
     <mergeCell ref="L31:P31"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="L35:P35"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="L3:P3"/>
+    <mergeCell ref="Q3:AA3"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="L7:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
